--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="121">
   <si>
     <t>Doi</t>
   </si>
@@ -431,6 +431,63 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,  Xiao-Bo%Wang%NULL%1,  Xiang-Hong%Jin%NULL%1,  Wen-Yue%Liu%NULL%1,  Feng%Gao%NULL%2,  Yong-Ping%Chen%NULL%1,  Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,   Xuejiao%Liao%NULL%1,   Tongyang%Xiao%NULL%1,   Shen%Qian%NULL%1,   Jing%Yuan%NULL%0,   Haocheng%Ye%NULL%1,   Furong%Qi%NULL%1,   Chengguang%Shen%NULL%1,   Lifei%Wang%NULL%0,   Yang%Liu%NULL%0,   Xiaoya%Cheng%NULL%1,   Na%Li%NULL%1,   Qingxian%Cai%NULL%3,   Fang%Wang%NULL%0,   Jun%Chen%NULL%0,   Guojun%Li%NULL%1,   Qiu’e%Cai%NULL%1,   Yingxia%Liu%NULL%0,   Yunfang%Wang%NULL%1,   Feng%Zhang%NULL%1,   Yang%Fu%NULL%3,   Qing%He%NULL%3,   Xiaohua%Tan%NULL%1,   Lei%Liu%NULL%0,   Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,   Xiaoping%Xu%NULL%1,   Jing%Hu%NULL%1,   Qiangda%Chen%NULL%1,   Fengfeng%Xu%NULL%1,   Hui%Liang%NULL%1,   Nanmei%Liu%NULL%1,   Hengmei%Zhu%NULL%1,   Jinlong%Lan%NULL%1,   Lan%Zhou%NULL%1,   Jiajun%Xing%NULL%1,   Ning%Pu%NULL%1,   Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,   Tim%Wood%NULL%1,   Lauren%Jelley%NULL%1,   Tineke%Jennings%NULL%1,   Sarah%Jefferies%NULL%1,   Karen%Daniells%NULL%1,   Annette%Nesdale%NULL%1,   Tony%Dowell%NULL%1,   Nikki%Turner%NULL%1,   Priscilla%Campbell-Stokes%NULL%1,   Michelle%Balm%NULL%1,   Hazel C%Dobinson%NULL%1,   Cameron C.%Grant%NULL%1,   Shelley%James%NULL%1,   Nayyereh%Aminisani%NULL%1,   Jacqui%Ralston%NULL%1,   Wendy%Gunn%NULL%1,   Judy%Bocacao%NULL%1,   Jessica%Danielewicz%NULL%1,   Tessa%Moncrieff%NULL%1,   Andrea%McNeill%NULL%1,   Liza%Lopez%NULL%1,   Ben%Waite%NULL%1,   Tomasz%Kiedrzynski%NULL%1,   Hannah%Schrader%NULL%1,   Rebekah%Gray%NULL%1,   Kayla%Cook%NULL%1,   Danielle%Currin%NULL%1,   Chaune%Engelbrecht%NULL%1,   Whitney%Tapurau%NULL%1,   Leigh%Emmerton%NULL%1,   Maxine%Martin%NULL%1,   Michael G.%Baker%NULL%1,   Susan%Taylor%NULL%1,   Adrian%Trenholme%NULL%1,   Conroy%Wong%NULL%1,   Shirley%Lawrence%NULL%1,   Colin%McArthur%NULL%1,   Alicia%Stanley%NULL%1,   Sally%Roberts%NULL%1,   Fahimeh%Ranama%NULL%1,   Jenny%Bennett%NULL%1,   Chris%Mansell%NULL%1,   Meik%Dilcher%NULL%1,   Anja%Werno%NULL%1,   Jennifer%Grant%NULL%1,   Antje%van der Linden%NULL%1,   Ben%Youngblood%NULL%1,   Paul G.%Thomas%NULL%1,   Richard J.%Webby%NULL%1,    S.%Huang%null%1,    T.% Wood%null%1,    L.% Jelley%null%1,    T.% Jennings%null%1,    S.% Jeffries%null%1,    K.% Daniels%null%1,    A.% Nesdale%null%1,    T.% Dowell%null%1,    N.% Turner%null%1,    P.% Campbell-Stokes%null%1,    M.% Balm%null%1,    H. C.% Dobinson%null%1,    C. C.% Grant%null%1,    S.% James%null%1,    N.% Aminisani%null%1,    J.% Ralston%null%1,    W.% Gunn%null%1,    J.% Bucacao%null%1,    J.% Danielewicz%null%1,    T.% Moncrieff%null%1,    A.% McNeill%null%1,    L.% Lopez%null%1,    B.% Waite%null%1,    T.% Kiedrzynski%null%1,    H.% Schrader%null%1,    R.% Gray%null%1,    K.% Cook%null%1,    D.% Currin%null%1,    C.% Engelbrecht%null%1,    W.% Tapurau%null%1,    L.% Emmerton%null%1,    M.% Martin%null%1,    M. G.% Baker%null%1,    S.% Taylor%null%1,    A.% Trenholme%null%1,    C.% Wong%null%1,    S.% Lawrence%null%1,    C.% McArthur%null%1,    A.% Stanley%null%1,    S.% Roberts%null%1,    F.% Ranama%null%1,    J.% Bennett%null%1,    C.% Mansell%null%1,    M.% Dilcher%null%1,    A.% Werno%null%1,    J.% Grant%null%1,   couldn't find firstname% v %null%1,  S.%Huang%null%1,  T.% Wood%null%1,  L.% Jelley%null%1,  T.% Jennings%null%1,  S.% Jeffries%null%1,  K.% Daniels%null%1,  A.% Nesdale%null%1,  T.% Dowell%null%1,  N.% Turner%null%1,  P.% Campbell-Stokes%null%1,  M.% Balm%null%1,  H. C.% Dobinson%null%1,  C. C.% Grant%null%1,  S.% James%null%1,  N.% Aminisani%null%1,  J.% Ralston%null%1,  W.% Gunn%null%1,  J.% Bucacao%null%1,  J.% Danielewicz%null%1,  T.% Moncrieff%null%1,  A.% McNeill%null%1,  L.% Lopez%null%1,  B.% Waite%null%1,  T.% Kiedrzynski%null%1,  H.% Schrader%null%1,  R.% Gray%null%1,  K.% Cook%null%1,  D.% Currin%null%1,  C.% Engelbrecht%null%1,  W.% Tapurau%null%1,  L.% Emmerton%null%1,  M.% Martin%null%1,  M. G.% Baker%null%1,  S.% Taylor%null%1,  A.% Trenholme%null%1,  C.% Wong%null%1,  S.% Lawrence%null%1,  C.% McArthur%null%1,  A.% Stanley%null%1,  S.% Roberts%null%1,  F.% Ranama%null%1,  J.% Bennett%null%1,  C.% Mansell%null%1,  M.% Dilcher%null%1,  A.% Werno%null%1,  J.% Grant%null%1, couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,   Ya%Li%NULL%1,   Mingli%Han%NULL%1,   Zhenhua%Wang%NULL%1,   Yuhang%Zhang%NULL%1,   Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,   Yiran%Hu%NULL%1,   Li%Dong%NULL%1,   Qi%Shu%NULL%1,   Mingyang%Zhu%NULL%1,   Yuping%Li%NULL%1,   Chengshui%Chen%NULL%1,   Hongchang%Gao%gaohc27@wmu.edu.cn%1,   Li%Yang%taiyang2630@163.com%2,   Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,   Yingying%Hu%NULL%0,   Yingying%Hu%NULL%0,   Yuanyuan%Yu%NULL%1,   Xiaodong%Zhang%NULL%1,   Bin%Li%NULL%1,   Jianguo%Wu%NULL%1,   Junyu%Li%NULL%1,   Yingping%Wu%NULL%1,   Xiaoping%Xia%NULL%2,   Xiaoping%Xia%NULL%0,   Huina%Tang%NULL%1,   Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,   Shui-Bao%Xu%NULL%1,   Yi-Xiao%Lin%NULL%1,   Di%Tian%NULL%1,   Zhao-Qin%Zhu%NULL%1,   Fa-Hui%Dai%NULL%1,   Fan%Wu%NULL%1,   Zhi-Gang%Song%NULL%1,   Wei%Huang%NULL%1,   Jun%Chen%NULL%0,   Bi-Jie%Hu%NULL%1,   Sheng%Wang%NULL%1,   En-Qiang%Mao%NULL%1,   Lei%Zhu%NULL%0,   Wen-Hong%Zhang%NULL%1,   Hong-Zhou%Lu%NULL%1,   Peng%Lyu%NULL%0,   Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,   Yi Xin%Tong%NULL%2,   Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,   Wee Chian%Koh%NULL%2,   Wee Chian%Koh%NULL%0,   Riamiza Natalie%Momin%NULL%2,   Riamiza Natalie%Momin%NULL%0,   Mohammad Fathi%Alikhan%NULL%1,   Noraskhin%Fadillah%NULL%1,   Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,   Xinyi%Liu%NULL%1,   Jianjun%Liu%NULL%1,   Han%Liao%NULL%1,   Sixuan%Long%NULL%1,   Ning%Zhou%NULL%1,   Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,   Yi Xin%Tong%NULL%0,   Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,   Zhenyu%Pan%NULL%1,   Yunbao%Pan%NULL%1,   Qiaoling%Deng%NULL%1,   Liangjun%Chen%NULL%1,   Jin%Li%NULL%1,   Yirong%Li%NULL%1,   Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,   Zongqiu%Chen%NULL%1,   Chenghua%Gong%NULL%1,   Hui%Liu%NULL%0,   Baisheng%Li%NULL%1,   Kuibiao%Li%NULL%1,   Xi%Chen%NULL%2,   Conghui%Xu%NULL%1,   Qinlong%Jing%NULL%1,   Guocong%Liu%NULL%1,   Pengzhe%Qin%NULL%1,   Yufei%Liu%NULL%1,   Yi%Zhong%NULL%1,   Lijuan%Huang%NULL%1,   Bao-Ping%Zhu%NULL%1,   Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,   Xiao-Bo%Wang%NULL%1,   Xiang-Hong%Jin%NULL%1,   Wen-Yue%Liu%NULL%1,   Feng%Gao%NULL%1,   Yong-Ping%Chen%NULL%1,   Ming-Hua%Zheng%zhengmh@wmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -772,6 +829,9 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -787,7 +847,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -797,6 +857,9 @@
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -813,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -823,6 +886,9 @@
       </c>
       <c r="H3" t="s">
         <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -839,16 +905,19 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -865,7 +934,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -875,6 +944,9 @@
       </c>
       <c r="H5" t="s">
         <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -891,7 +963,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -901,6 +973,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +992,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -927,6 +1002,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -943,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -953,6 +1031,9 @@
       </c>
       <c r="H8" t="s">
         <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +1050,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -979,6 +1060,9 @@
       </c>
       <c r="H9" t="s">
         <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -995,7 +1079,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1005,6 +1089,9 @@
       </c>
       <c r="H10" t="s">
         <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1021,7 +1108,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1031,6 +1118,9 @@
       </c>
       <c r="H11" t="s">
         <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1047,7 +1137,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1057,6 +1147,9 @@
       </c>
       <c r="H12" t="s">
         <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1166,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1083,6 +1176,9 @@
       </c>
       <c r="H13" t="s">
         <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1099,7 +1195,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1109,6 +1205,9 @@
       </c>
       <c r="H14" t="s">
         <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1125,7 +1224,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
@@ -1135,6 +1234,9 @@
       </c>
       <c r="H15" t="s">
         <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16">

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="174">
   <si>
     <t>Doi</t>
   </si>
@@ -488,6 +488,165 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,    Xuejiao%Liao%NULL%1,    Tongyang%Xiao%NULL%1,    Shen%Qian%NULL%1,    Jing%Yuan%NULL%0,    Haocheng%Ye%NULL%1,    Furong%Qi%NULL%1,    Chengguang%Shen%NULL%1,    Lifei%Wang%NULL%0,    Yang%Liu%NULL%0,    Xiaoya%Cheng%NULL%1,    Na%Li%NULL%1,    Qingxian%Cai%NULL%3,    Fang%Wang%NULL%0,    Jun%Chen%NULL%0,    Guojun%Li%NULL%1,    Qiu’e%Cai%NULL%1,    Yingxia%Liu%NULL%0,    Yunfang%Wang%NULL%1,    Feng%Zhang%NULL%1,    Yang%Fu%NULL%3,    Qing%He%NULL%3,    Xiaohua%Tan%NULL%1,    Lei%Liu%NULL%0,    Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,    Xiaoping%Xu%NULL%1,    Jing%Hu%NULL%1,    Qiangda%Chen%NULL%1,    Fengfeng%Xu%NULL%1,    Hui%Liang%NULL%1,    Nanmei%Liu%NULL%1,    Hengmei%Zhu%NULL%1,    Jinlong%Lan%NULL%1,    Lan%Zhou%NULL%1,    Jiajun%Xing%NULL%1,    Ning%Pu%NULL%1,    Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,    Tim%Wood%NULL%1,    Lauren%Jelley%NULL%1,    Tineke%Jennings%NULL%1,    Sarah%Jefferies%NULL%1,    Karen%Daniells%NULL%1,    Annette%Nesdale%NULL%1,    Tony%Dowell%NULL%1,    Nikki%Turner%NULL%1,    Priscilla%Campbell-Stokes%NULL%1,    Michelle%Balm%NULL%1,    Hazel C%Dobinson%NULL%1,    Cameron C.%Grant%NULL%1,    Shelley%James%NULL%1,    Nayyereh%Aminisani%NULL%1,    Jacqui%Ralston%NULL%1,    Wendy%Gunn%NULL%1,    Judy%Bocacao%NULL%1,    Jessica%Danielewicz%NULL%1,    Tessa%Moncrieff%NULL%1,    Andrea%McNeill%NULL%1,    Liza%Lopez%NULL%1,    Ben%Waite%NULL%1,    Tomasz%Kiedrzynski%NULL%1,    Hannah%Schrader%NULL%1,    Rebekah%Gray%NULL%1,    Kayla%Cook%NULL%1,    Danielle%Currin%NULL%1,    Chaune%Engelbrecht%NULL%1,    Whitney%Tapurau%NULL%1,    Leigh%Emmerton%NULL%1,    Maxine%Martin%NULL%1,    Michael G.%Baker%NULL%1,    Susan%Taylor%NULL%1,    Adrian%Trenholme%NULL%1,    Conroy%Wong%NULL%1,    Shirley%Lawrence%NULL%1,    Colin%McArthur%NULL%1,    Alicia%Stanley%NULL%1,    Sally%Roberts%NULL%1,    Fahimeh%Ranama%NULL%1,    Jenny%Bennett%NULL%1,    Chris%Mansell%NULL%1,    Meik%Dilcher%NULL%1,    Anja%Werno%NULL%1,    Jennifer%Grant%NULL%1,    Antje%van der Linden%NULL%1,    Ben%Youngblood%NULL%1,    Paul G.%Thomas%NULL%1,    Richard J.%Webby%NULL%1,     S.%Huang%null%1,     T.% Wood%null%1,     L.% Jelley%null%1,     T.% Jennings%null%1,     S.% Jeffries%null%1,     K.% Daniels%null%1,     A.% Nesdale%null%1,     T.% Dowell%null%1,     N.% Turner%null%1,     P.% Campbell-Stokes%null%1,     M.% Balm%null%1,     H. C.% Dobinson%null%1,     C. C.% Grant%null%1,     S.% James%null%1,     N.% Aminisani%null%1,     J.% Ralston%null%1,     W.% Gunn%null%1,     J.% Bucacao%null%1,     J.% Danielewicz%null%1,     T.% Moncrieff%null%1,     A.% McNeill%null%1,     L.% Lopez%null%1,     B.% Waite%null%1,     T.% Kiedrzynski%null%1,     H.% Schrader%null%1,     R.% Gray%null%1,     K.% Cook%null%1,     D.% Currin%null%1,     C.% Engelbrecht%null%1,     W.% Tapurau%null%1,     L.% Emmerton%null%1,     M.% Martin%null%1,     M. G.% Baker%null%1,     S.% Taylor%null%1,     A.% Trenholme%null%1,     C.% Wong%null%1,     S.% Lawrence%null%1,     C.% McArthur%null%1,     A.% Stanley%null%1,     S.% Roberts%null%1,     F.% Ranama%null%1,     J.% Bennett%null%1,     C.% Mansell%null%1,     M.% Dilcher%null%1,     A.% Werno%null%1,     J.% Grant%null%1,    couldn't find firstname% v %null%1,   S.%Huang%null%1,   T.% Wood%null%1,   L.% Jelley%null%1,   T.% Jennings%null%1,   S.% Jeffries%null%1,   K.% Daniels%null%1,   A.% Nesdale%null%1,   T.% Dowell%null%1,   N.% Turner%null%1,   P.% Campbell-Stokes%null%1,   M.% Balm%null%1,   H. C.% Dobinson%null%1,   C. C.% Grant%null%1,   S.% James%null%1,   N.% Aminisani%null%1,   J.% Ralston%null%1,   W.% Gunn%null%1,   J.% Bucacao%null%1,   J.% Danielewicz%null%1,   T.% Moncrieff%null%1,   A.% McNeill%null%1,   L.% Lopez%null%1,   B.% Waite%null%1,   T.% Kiedrzynski%null%1,   H.% Schrader%null%1,   R.% Gray%null%1,   K.% Cook%null%1,   D.% Currin%null%1,   C.% Engelbrecht%null%1,   W.% Tapurau%null%1,   L.% Emmerton%null%1,   M.% Martin%null%1,   M. G.% Baker%null%1,   S.% Taylor%null%1,   A.% Trenholme%null%1,   C.% Wong%null%1,   S.% Lawrence%null%1,   C.% McArthur%null%1,   A.% Stanley%null%1,   S.% Roberts%null%1,   F.% Ranama%null%1,   J.% Bennett%null%1,   C.% Mansell%null%1,   M.% Dilcher%null%1,   A.% Werno%null%1,   J.% Grant%null%1,  couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,    Ya%Li%NULL%1,    Mingli%Han%NULL%1,    Zhenhua%Wang%NULL%1,    Yuhang%Zhang%NULL%1,    Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,    Yiran%Hu%NULL%1,    Li%Dong%NULL%1,    Qi%Shu%NULL%1,    Mingyang%Zhu%NULL%1,    Yuping%Li%NULL%1,    Chengshui%Chen%NULL%1,    Hongchang%Gao%gaohc27@wmu.edu.cn%1,    Li%Yang%taiyang2630@163.com%2,    Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,    Yingying%Hu%NULL%0,    Yingying%Hu%NULL%0,    Yuanyuan%Yu%NULL%1,    Xiaodong%Zhang%NULL%1,    Bin%Li%NULL%1,    Jianguo%Wu%NULL%1,    Junyu%Li%NULL%1,    Yingping%Wu%NULL%1,    Xiaoping%Xia%NULL%2,    Xiaoping%Xia%NULL%0,    Huina%Tang%NULL%1,    Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,    Shui-Bao%Xu%NULL%0,    Yi-Xiao%Lin%NULL%0,    Di%Tian%NULL%0,    Zhao-Qin%Zhu%NULL%0,    Fa-Hui%Dai%NULL%0,    Fan%Wu%NULL%0,    Zhi-Gang%Song%NULL%0,    Wei%Huang%NULL%0,    Jun%Chen%NULL%0,    Bi-Jie%Hu%NULL%0,    Sheng%Wang%NULL%0,    En-Qiang%Mao%NULL%0,    Lei%Zhu%NULL%0,    Wen-Hong%Zhang%NULL%0,    Hong-Zhou%Lu%NULL%0,    Peng%Lyu%NULL%0,    Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,    Yi Xin%Tong%NULL%2,    Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,    Wee Chian%Koh%NULL%2,    Wee Chian%Koh%NULL%0,    Riamiza Natalie%Momin%NULL%2,    Riamiza Natalie%Momin%NULL%0,    Mohammad Fathi%Alikhan%NULL%1,    Noraskhin%Fadillah%NULL%1,    Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,    Xinyi%Liu%NULL%1,    Jianjun%Liu%NULL%1,    Han%Liao%NULL%1,    Sixuan%Long%NULL%1,    Ning%Zhou%NULL%0,    Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,    Yi Xin%Tong%NULL%0,    Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,    Zhenyu%Pan%NULL%1,    Yunbao%Pan%NULL%1,    Qiaoling%Deng%NULL%1,    Liangjun%Chen%NULL%1,    Jin%Li%NULL%1,    Yirong%Li%NULL%1,    Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,    Zongqiu%Chen%NULL%1,    Chenghua%Gong%NULL%1,    Hui%Liu%NULL%0,    Baisheng%Li%NULL%1,    Kuibiao%Li%NULL%1,    Xi%Chen%NULL%2,    Conghui%Xu%NULL%1,    Qinlong%Jing%NULL%1,    Guocong%Liu%NULL%1,    Pengzhe%Qin%NULL%1,    Yufei%Liu%NULL%1,    Yi%Zhong%NULL%1,    Lijuan%Huang%NULL%1,    Bao-Ping%Zhu%NULL%1,    Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,    Xiao-Bo%Wang%NULL%1,    Xiang-Hong%Jin%NULL%1,    Wen-Yue%Liu%NULL%1,    Feng%Gao%NULL%1,    Yong-Ping%Chen%NULL%1,    Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,     Xuejiao%Liao%NULL%1,     Tongyang%Xiao%NULL%1,     Shen%Qian%NULL%1,     Jing%Yuan%NULL%0,     Haocheng%Ye%NULL%1,     Furong%Qi%NULL%1,     Chengguang%Shen%NULL%1,     Lifei%Wang%NULL%0,     Yang%Liu%NULL%0,     Xiaoya%Cheng%NULL%1,     Na%Li%NULL%1,     Qingxian%Cai%NULL%3,     Fang%Wang%NULL%0,     Jun%Chen%NULL%0,     Guojun%Li%NULL%1,     Qiu’e%Cai%NULL%1,     Yingxia%Liu%NULL%1,     Yunfang%Wang%NULL%1,     Feng%Zhang%NULL%1,     Yang%Fu%NULL%3,     Qing%He%NULL%3,     Xiaohua%Tan%NULL%1,     Lei%Liu%NULL%0,     Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,     Xiaoping%Xu%NULL%1,     Jing%Hu%NULL%1,     Qiangda%Chen%NULL%1,     Fengfeng%Xu%NULL%1,     Hui%Liang%NULL%1,     Nanmei%Liu%NULL%1,     Hengmei%Zhu%NULL%1,     Jinlong%Lan%NULL%1,     Lan%Zhou%NULL%1,     Jiajun%Xing%NULL%1,     Ning%Pu%NULL%1,     Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,     Tim%Wood%NULL%1,     Lauren%Jelley%NULL%1,     Tineke%Jennings%NULL%1,     Sarah%Jefferies%NULL%1,     Karen%Daniells%NULL%1,     Annette%Nesdale%NULL%1,     Tony%Dowell%NULL%1,     Nikki%Turner%NULL%1,     Priscilla%Campbell-Stokes%NULL%1,     Michelle%Balm%NULL%1,     Hazel C%Dobinson%NULL%1,     Cameron C.%Grant%NULL%1,     Shelley%James%NULL%1,     Nayyereh%Aminisani%NULL%1,     Jacqui%Ralston%NULL%1,     Wendy%Gunn%NULL%1,     Judy%Bocacao%NULL%1,     Jessica%Danielewicz%NULL%1,     Tessa%Moncrieff%NULL%1,     Andrea%McNeill%NULL%1,     Liza%Lopez%NULL%1,     Ben%Waite%NULL%1,     Tomasz%Kiedrzynski%NULL%1,     Hannah%Schrader%NULL%1,     Rebekah%Gray%NULL%1,     Kayla%Cook%NULL%1,     Danielle%Currin%NULL%1,     Chaune%Engelbrecht%NULL%1,     Whitney%Tapurau%NULL%1,     Leigh%Emmerton%NULL%1,     Maxine%Martin%NULL%1,     Michael G.%Baker%NULL%1,     Susan%Taylor%NULL%1,     Adrian%Trenholme%NULL%1,     Conroy%Wong%NULL%1,     Shirley%Lawrence%NULL%1,     Colin%McArthur%NULL%1,     Alicia%Stanley%NULL%1,     Sally%Roberts%NULL%1,     Fahimeh%Ranama%NULL%1,     Jenny%Bennett%NULL%1,     Chris%Mansell%NULL%1,     Meik%Dilcher%NULL%1,     Anja%Werno%NULL%1,     Jennifer%Grant%NULL%1,     Antje%van der Linden%NULL%1,     Ben%Youngblood%NULL%1,     Paul G.%Thomas%NULL%1,     Richard J.%Webby%NULL%1,      S.%Huang%null%1,      T.% Wood%null%1,      L.% Jelley%null%1,      T.% Jennings%null%1,      S.% Jeffries%null%1,      K.% Daniels%null%1,      A.% Nesdale%null%1,      T.% Dowell%null%1,      N.% Turner%null%1,      P.% Campbell-Stokes%null%1,      M.% Balm%null%1,      H. C.% Dobinson%null%1,      C. C.% Grant%null%1,      S.% James%null%1,      N.% Aminisani%null%1,      J.% Ralston%null%1,      W.% Gunn%null%1,      J.% Bucacao%null%1,      J.% Danielewicz%null%1,      T.% Moncrieff%null%1,      A.% McNeill%null%1,      L.% Lopez%null%1,      B.% Waite%null%1,      T.% Kiedrzynski%null%1,      H.% Schrader%null%1,      R.% Gray%null%1,      K.% Cook%null%1,      D.% Currin%null%1,      C.% Engelbrecht%null%1,      W.% Tapurau%null%1,      L.% Emmerton%null%1,      M.% Martin%null%1,      M. G.% Baker%null%1,      S.% Taylor%null%1,      A.% Trenholme%null%1,      C.% Wong%null%1,      S.% Lawrence%null%1,      C.% McArthur%null%1,      A.% Stanley%null%1,      S.% Roberts%null%1,      F.% Ranama%null%1,      J.% Bennett%null%1,      C.% Mansell%null%1,      M.% Dilcher%null%1,      A.% Werno%null%1,      J.% Grant%null%1,     couldn't find firstname% v %null%1,    S.%Huang%null%1,    T.% Wood%null%1,    L.% Jelley%null%1,    T.% Jennings%null%1,    S.% Jeffries%null%1,    K.% Daniels%null%1,    A.% Nesdale%null%1,    T.% Dowell%null%1,    N.% Turner%null%1,    P.% Campbell-Stokes%null%1,    M.% Balm%null%1,    H. C.% Dobinson%null%1,    C. C.% Grant%null%1,    S.% James%null%1,    N.% Aminisani%null%1,    J.% Ralston%null%1,    W.% Gunn%null%1,    J.% Bucacao%null%1,    J.% Danielewicz%null%1,    T.% Moncrieff%null%1,    A.% McNeill%null%1,    L.% Lopez%null%1,    B.% Waite%null%1,    T.% Kiedrzynski%null%1,    H.% Schrader%null%1,    R.% Gray%null%1,    K.% Cook%null%1,    D.% Currin%null%1,    C.% Engelbrecht%null%1,    W.% Tapurau%null%1,    L.% Emmerton%null%1,    M.% Martin%null%1,    M. G.% Baker%null%1,    S.% Taylor%null%1,    A.% Trenholme%null%1,    C.% Wong%null%1,    S.% Lawrence%null%1,    C.% McArthur%null%1,    A.% Stanley%null%1,    S.% Roberts%null%1,    F.% Ranama%null%1,    J.% Bennett%null%1,    C.% Mansell%null%1,    M.% Dilcher%null%1,    A.% Werno%null%1,    J.% Grant%null%1,   couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,     Ya%Li%NULL%1,     Mingli%Han%NULL%1,     Zhenhua%Wang%NULL%1,     Yuhang%Zhang%NULL%1,     Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,     Yiran%Hu%NULL%1,     Li%Dong%NULL%1,     Qi%Shu%NULL%1,     Mingyang%Zhu%NULL%1,     Yuping%Li%NULL%1,     Chengshui%Chen%NULL%1,     Hongchang%Gao%gaohc27@wmu.edu.cn%1,     Li%Yang%taiyang2630@163.com%2,     Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,     Yingying%Hu%NULL%0,     Yingying%Hu%NULL%0,     Yuanyuan%Yu%NULL%1,     Xiaodong%Zhang%NULL%1,     Bin%Li%NULL%1,     Jianguo%Wu%NULL%1,     Junyu%Li%NULL%1,     Yingping%Wu%NULL%1,     Xiaoping%Xia%NULL%2,     Xiaoping%Xia%NULL%0,     Huina%Tang%NULL%1,     Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,     Shui-Bao%Xu%NULL%0,     Yi-Xiao%Lin%NULL%0,     Di%Tian%NULL%0,     Zhao-Qin%Zhu%NULL%0,     Fa-Hui%Dai%NULL%0,     Fan%Wu%NULL%0,     Zhi-Gang%Song%NULL%0,     Wei%Huang%NULL%0,     Jun%Chen%NULL%0,     Bi-Jie%Hu%NULL%0,     Sheng%Wang%NULL%0,     En-Qiang%Mao%NULL%0,     Lei%Zhu%NULL%0,     Wen-Hong%Zhang%NULL%0,     Hong-Zhou%Lu%NULL%0,     Peng%Lyu%NULL%0,     Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,     Yi Xin%Tong%NULL%0,     Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,     Wee Chian%Koh%NULL%2,     Wee Chian%Koh%NULL%0,     Riamiza Natalie%Momin%NULL%2,     Riamiza Natalie%Momin%NULL%0,     Mohammad Fathi%Alikhan%NULL%1,     Noraskhin%Fadillah%NULL%1,     Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,     Xinyi%Liu%NULL%1,     Jianjun%Liu%NULL%1,     Han%Liao%NULL%1,     Sixuan%Long%NULL%1,     Ning%Zhou%NULL%0,     Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,     Zhenyu%Pan%NULL%1,     Yunbao%Pan%NULL%1,     Qiaoling%Deng%NULL%1,     Liangjun%Chen%NULL%1,     Jin%Li%NULL%1,     Yirong%Li%NULL%1,     Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,     Zongqiu%Chen%NULL%1,     Chenghua%Gong%NULL%1,     Hui%Liu%NULL%0,     Baisheng%Li%NULL%1,     Kuibiao%Li%NULL%1,     Xi%Chen%NULL%2,     Conghui%Xu%NULL%1,     Qinlong%Jing%NULL%1,     Guocong%Liu%NULL%1,     Pengzhe%Qin%NULL%1,     Yufei%Liu%NULL%1,     Yi%Zhong%NULL%1,     Lijuan%Huang%NULL%1,     Bao-Ping%Zhu%NULL%1,     Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,     Xiao-Bo%Wang%NULL%1,     Xiang-Hong%Jin%NULL%1,     Wen-Yue%Liu%NULL%1,     Feng%Gao%NULL%1,     Yong-Ping%Chen%NULL%1,     Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,      Xuejiao%Liao%NULL%1,      Tongyang%Xiao%NULL%1,      Shen%Qian%NULL%1,      Jing%Yuan%NULL%0,      Haocheng%Ye%NULL%1,      Furong%Qi%NULL%1,      Chengguang%Shen%NULL%1,      Lifei%Wang%NULL%0,      Yang%Liu%NULL%0,      Xiaoya%Cheng%NULL%1,      Na%Li%NULL%1,      Qingxian%Cai%NULL%3,      Fang%Wang%NULL%0,      Jun%Chen%NULL%0,      Guojun%Li%NULL%1,      Qiu’e%Cai%NULL%1,      Yingxia%Liu%NULL%1,      Yunfang%Wang%NULL%1,      Feng%Zhang%NULL%1,      Yang%Fu%NULL%3,      Qing%He%NULL%3,      Xiaohua%Tan%NULL%1,      Lei%Liu%NULL%0,      Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,      Xiaoping%Xu%NULL%1,      Jing%Hu%NULL%1,      Qiangda%Chen%NULL%1,      Fengfeng%Xu%NULL%1,      Hui%Liang%NULL%1,      Nanmei%Liu%NULL%1,      Hengmei%Zhu%NULL%1,      Jinlong%Lan%NULL%1,      Lan%Zhou%NULL%1,      Jiajun%Xing%NULL%1,      Ning%Pu%NULL%1,      Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,      Tim%Wood%NULL%1,      Lauren%Jelley%NULL%1,      Tineke%Jennings%NULL%1,      Sarah%Jefferies%NULL%1,      Karen%Daniells%NULL%1,      Annette%Nesdale%NULL%1,      Tony%Dowell%NULL%1,      Nikki%Turner%NULL%1,      Priscilla%Campbell-Stokes%NULL%1,      Michelle%Balm%NULL%1,      Hazel C%Dobinson%NULL%1,      Cameron C.%Grant%NULL%1,      Shelley%James%NULL%1,      Nayyereh%Aminisani%NULL%1,      Jacqui%Ralston%NULL%1,      Wendy%Gunn%NULL%1,      Judy%Bocacao%NULL%1,      Jessica%Danielewicz%NULL%1,      Tessa%Moncrieff%NULL%1,      Andrea%McNeill%NULL%1,      Liza%Lopez%NULL%1,      Ben%Waite%NULL%1,      Tomasz%Kiedrzynski%NULL%1,      Hannah%Schrader%NULL%1,      Rebekah%Gray%NULL%1,      Kayla%Cook%NULL%1,      Danielle%Currin%NULL%1,      Chaune%Engelbrecht%NULL%1,      Whitney%Tapurau%NULL%1,      Leigh%Emmerton%NULL%1,      Maxine%Martin%NULL%1,      Michael G.%Baker%NULL%1,      Susan%Taylor%NULL%1,      Adrian%Trenholme%NULL%1,      Conroy%Wong%NULL%1,      Shirley%Lawrence%NULL%1,      Colin%McArthur%NULL%1,      Alicia%Stanley%NULL%1,      Sally%Roberts%NULL%1,      Fahimeh%Ranama%NULL%1,      Jenny%Bennett%NULL%1,      Chris%Mansell%NULL%1,      Meik%Dilcher%NULL%1,      Anja%Werno%NULL%1,      Jennifer%Grant%NULL%1,      Antje%van der Linden%NULL%1,      Ben%Youngblood%NULL%1,      Paul G.%Thomas%NULL%1,      Richard J.%Webby%NULL%1,       S.%Huang%null%1,       T.% Wood%null%1,       L.% Jelley%null%1,       T.% Jennings%null%1,       S.% Jeffries%null%1,       K.% Daniels%null%1,       A.% Nesdale%null%1,       T.% Dowell%null%1,       N.% Turner%null%1,       P.% Campbell-Stokes%null%1,       M.% Balm%null%1,       H. C.% Dobinson%null%1,       C. C.% Grant%null%1,       S.% James%null%1,       N.% Aminisani%null%1,       J.% Ralston%null%1,       W.% Gunn%null%1,       J.% Bucacao%null%1,       J.% Danielewicz%null%1,       T.% Moncrieff%null%1,       A.% McNeill%null%1,       L.% Lopez%null%1,       B.% Waite%null%1,       T.% Kiedrzynski%null%1,       H.% Schrader%null%1,       R.% Gray%null%1,       K.% Cook%null%1,       D.% Currin%null%1,       C.% Engelbrecht%null%1,       W.% Tapurau%null%1,       L.% Emmerton%null%1,       M.% Martin%null%1,       M. G.% Baker%null%1,       S.% Taylor%null%1,       A.% Trenholme%null%1,       C.% Wong%null%1,       S.% Lawrence%null%1,       C.% McArthur%null%1,       A.% Stanley%null%1,       S.% Roberts%null%1,       F.% Ranama%null%1,       J.% Bennett%null%1,       C.% Mansell%null%1,       M.% Dilcher%null%1,       A.% Werno%null%1,       J.% Grant%null%1,      couldn't find firstname% v %null%1,     S.%Huang%null%1,     T.% Wood%null%1,     L.% Jelley%null%1,     T.% Jennings%null%1,     S.% Jeffries%null%1,     K.% Daniels%null%1,     A.% Nesdale%null%1,     T.% Dowell%null%1,     N.% Turner%null%1,     P.% Campbell-Stokes%null%1,     M.% Balm%null%1,     H. C.% Dobinson%null%1,     C. C.% Grant%null%1,     S.% James%null%1,     N.% Aminisani%null%1,     J.% Ralston%null%1,     W.% Gunn%null%1,     J.% Bucacao%null%1,     J.% Danielewicz%null%1,     T.% Moncrieff%null%1,     A.% McNeill%null%1,     L.% Lopez%null%1,     B.% Waite%null%1,     T.% Kiedrzynski%null%1,     H.% Schrader%null%1,     R.% Gray%null%1,     K.% Cook%null%1,     D.% Currin%null%1,     C.% Engelbrecht%null%1,     W.% Tapurau%null%1,     L.% Emmerton%null%1,     M.% Martin%null%1,     M. G.% Baker%null%1,     S.% Taylor%null%1,     A.% Trenholme%null%1,     C.% Wong%null%1,     S.% Lawrence%null%1,     C.% McArthur%null%1,     A.% Stanley%null%1,     S.% Roberts%null%1,     F.% Ranama%null%1,     J.% Bennett%null%1,     C.% Mansell%null%1,     M.% Dilcher%null%1,     A.% Werno%null%1,     J.% Grant%null%1,    couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,      Ya%Li%NULL%1,      Mingli%Han%NULL%1,      Zhenhua%Wang%NULL%1,      Yuhang%Zhang%NULL%1,      Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,      Yiran%Hu%NULL%1,      Li%Dong%NULL%1,      Qi%Shu%NULL%1,      Mingyang%Zhu%NULL%1,      Yuping%Li%NULL%1,      Chengshui%Chen%NULL%1,      Hongchang%Gao%gaohc27@wmu.edu.cn%1,      Li%Yang%taiyang2630@163.com%2,      Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,      Yingying%Hu%NULL%0,      Yingying%Hu%NULL%0,      Yuanyuan%Yu%NULL%1,      Xiaodong%Zhang%NULL%1,      Bin%Li%NULL%1,      Jianguo%Wu%NULL%1,      Junyu%Li%NULL%1,      Yingping%Wu%NULL%1,      Xiaoping%Xia%NULL%2,      Xiaoping%Xia%NULL%0,      Huina%Tang%NULL%1,      Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,      Shui-Bao%Xu%NULL%0,      Yi-Xiao%Lin%NULL%0,      Di%Tian%NULL%0,      Zhao-Qin%Zhu%NULL%0,      Fa-Hui%Dai%NULL%0,      Fan%Wu%NULL%0,      Zhi-Gang%Song%NULL%0,      Wei%Huang%NULL%0,      Jun%Chen%NULL%0,      Bi-Jie%Hu%NULL%0,      Sheng%Wang%NULL%0,      En-Qiang%Mao%NULL%0,      Lei%Zhu%NULL%0,      Wen-Hong%Zhang%NULL%0,      Hong-Zhou%Lu%NULL%0,      Peng%Lyu%NULL%0,      Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,      Yi Xin%Tong%NULL%0,      Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,      Wee Chian%Koh%NULL%2,      Wee Chian%Koh%NULL%0,      Riamiza Natalie%Momin%NULL%2,      Riamiza Natalie%Momin%NULL%0,      Mohammad Fathi%Alikhan%NULL%1,      Noraskhin%Fadillah%NULL%1,      Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,      Xinyi%Liu%NULL%1,      Jianjun%Liu%NULL%1,      Han%Liao%NULL%1,      Sixuan%Long%NULL%1,      Ning%Zhou%NULL%0,      Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,      Zhenyu%Pan%NULL%1,      Yunbao%Pan%NULL%1,      Qiaoling%Deng%NULL%1,      Liangjun%Chen%NULL%1,      Jin%Li%NULL%1,      Yirong%Li%NULL%1,      Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,      Zongqiu%Chen%NULL%1,      Chenghua%Gong%NULL%1,      Hui%Liu%NULL%0,      Baisheng%Li%NULL%1,      Kuibiao%Li%NULL%1,      Xi%Chen%NULL%2,      Conghui%Xu%NULL%1,      Qinlong%Jing%NULL%1,      Guocong%Liu%NULL%1,      Pengzhe%Qin%NULL%1,      Yufei%Liu%NULL%1,      Yi%Zhong%NULL%1,      Lijuan%Huang%NULL%1,      Bao-Ping%Zhu%NULL%1,      Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,      Xiao-Bo%Wang%NULL%1,      Xiang-Hong%Jin%NULL%1,      Wen-Yue%Liu%NULL%1,      Feng%Gao%NULL%1,      Yong-Ping%Chen%NULL%1,      Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,       Xuejiao%Liao%NULL%1,       Tongyang%Xiao%NULL%1,       Shen%Qian%NULL%1,       Jing%Yuan%NULL%0,       Haocheng%Ye%NULL%1,       Furong%Qi%NULL%1,       Chengguang%Shen%NULL%1,       Lifei%Wang%NULL%0,       Yang%Liu%NULL%0,       Xiaoya%Cheng%NULL%1,       Na%Li%NULL%1,       Qingxian%Cai%NULL%3,       Fang%Wang%NULL%0,       Jun%Chen%NULL%0,       Guojun%Li%NULL%1,       Qiu’e%Cai%NULL%1,       Yingxia%Liu%NULL%1,       Yunfang%Wang%NULL%1,       Feng%Zhang%NULL%1,       Yang%Fu%NULL%3,       Qing%He%NULL%3,       Xiaohua%Tan%NULL%1,       Lei%Liu%NULL%0,       Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,       Xiaoping%Xu%NULL%1,       Jing%Hu%NULL%1,       Qiangda%Chen%NULL%1,       Fengfeng%Xu%NULL%1,       Hui%Liang%NULL%1,       Nanmei%Liu%NULL%1,       Hengmei%Zhu%NULL%1,       Jinlong%Lan%NULL%1,       Lan%Zhou%NULL%1,       Jiajun%Xing%NULL%1,       Ning%Pu%NULL%1,       Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,       Tim%Wood%NULL%1,       Lauren%Jelley%NULL%1,       Tineke%Jennings%NULL%1,       Sarah%Jefferies%NULL%1,       Karen%Daniells%NULL%1,       Annette%Nesdale%NULL%1,       Tony%Dowell%NULL%1,       Nikki%Turner%NULL%1,       Priscilla%Campbell-Stokes%NULL%1,       Michelle%Balm%NULL%1,       Hazel C%Dobinson%NULL%1,       Cameron C.%Grant%NULL%1,       Shelley%James%NULL%1,       Nayyereh%Aminisani%NULL%1,       Jacqui%Ralston%NULL%1,       Wendy%Gunn%NULL%1,       Judy%Bocacao%NULL%1,       Jessica%Danielewicz%NULL%1,       Tessa%Moncrieff%NULL%1,       Andrea%McNeill%NULL%1,       Liza%Lopez%NULL%1,       Ben%Waite%NULL%1,       Tomasz%Kiedrzynski%NULL%1,       Hannah%Schrader%NULL%1,       Rebekah%Gray%NULL%1,       Kayla%Cook%NULL%1,       Danielle%Currin%NULL%1,       Chaune%Engelbrecht%NULL%1,       Whitney%Tapurau%NULL%1,       Leigh%Emmerton%NULL%1,       Maxine%Martin%NULL%1,       Michael G.%Baker%NULL%1,       Susan%Taylor%NULL%1,       Adrian%Trenholme%NULL%1,       Conroy%Wong%NULL%1,       Shirley%Lawrence%NULL%1,       Colin%McArthur%NULL%1,       Alicia%Stanley%NULL%1,       Sally%Roberts%NULL%1,       Fahimeh%Ranama%NULL%1,       Jenny%Bennett%NULL%1,       Chris%Mansell%NULL%1,       Meik%Dilcher%NULL%1,       Anja%Werno%NULL%1,       Jennifer%Grant%NULL%1,       Antje%van der Linden%NULL%1,       Ben%Youngblood%NULL%1,       Paul G.%Thomas%NULL%1,       Richard J.%Webby%NULL%1,        S.%Huang%null%1,        T.% Wood%null%1,        L.% Jelley%null%1,        T.% Jennings%null%1,        S.% Jeffries%null%1,        K.% Daniels%null%1,        A.% Nesdale%null%1,        T.% Dowell%null%1,        N.% Turner%null%1,        P.% Campbell-Stokes%null%1,        M.% Balm%null%1,        H. C.% Dobinson%null%1,        C. C.% Grant%null%1,        S.% James%null%1,        N.% Aminisani%null%1,        J.% Ralston%null%1,        W.% Gunn%null%1,        J.% Bucacao%null%1,        J.% Danielewicz%null%1,        T.% Moncrieff%null%1,        A.% McNeill%null%1,        L.% Lopez%null%1,        B.% Waite%null%1,        T.% Kiedrzynski%null%1,        H.% Schrader%null%1,        R.% Gray%null%1,        K.% Cook%null%1,        D.% Currin%null%1,        C.% Engelbrecht%null%1,        W.% Tapurau%null%1,        L.% Emmerton%null%1,        M.% Martin%null%1,        M. G.% Baker%null%1,        S.% Taylor%null%1,        A.% Trenholme%null%1,        C.% Wong%null%1,        S.% Lawrence%null%1,        C.% McArthur%null%1,        A.% Stanley%null%1,        S.% Roberts%null%1,        F.% Ranama%null%1,        J.% Bennett%null%1,        C.% Mansell%null%1,        M.% Dilcher%null%1,        A.% Werno%null%1,        J.% Grant%null%1,       couldn't find firstname% v %null%1,      S.%Huang%null%1,      T.% Wood%null%1,      L.% Jelley%null%1,      T.% Jennings%null%1,      S.% Jeffries%null%1,      K.% Daniels%null%1,      A.% Nesdale%null%1,      T.% Dowell%null%1,      N.% Turner%null%1,      P.% Campbell-Stokes%null%1,      M.% Balm%null%1,      H. C.% Dobinson%null%1,      C. C.% Grant%null%1,      S.% James%null%1,      N.% Aminisani%null%1,      J.% Ralston%null%1,      W.% Gunn%null%1,      J.% Bucacao%null%1,      J.% Danielewicz%null%1,      T.% Moncrieff%null%1,      A.% McNeill%null%1,      L.% Lopez%null%1,      B.% Waite%null%1,      T.% Kiedrzynski%null%1,      H.% Schrader%null%1,      R.% Gray%null%1,      K.% Cook%null%1,      D.% Currin%null%1,      C.% Engelbrecht%null%1,      W.% Tapurau%null%1,      L.% Emmerton%null%1,      M.% Martin%null%1,      M. G.% Baker%null%1,      S.% Taylor%null%1,      A.% Trenholme%null%1,      C.% Wong%null%1,      S.% Lawrence%null%1,      C.% McArthur%null%1,      A.% Stanley%null%1,      S.% Roberts%null%1,      F.% Ranama%null%1,      J.% Bennett%null%1,      C.% Mansell%null%1,      M.% Dilcher%null%1,      A.% Werno%null%1,      J.% Grant%null%1,     couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,       Ya%Li%NULL%1,       Mingli%Han%NULL%1,       Zhenhua%Wang%NULL%1,       Yuhang%Zhang%NULL%1,       Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,       Yiran%Hu%NULL%1,       Li%Dong%NULL%1,       Qi%Shu%NULL%1,       Mingyang%Zhu%NULL%1,       Yuping%Li%NULL%1,       Chengshui%Chen%NULL%1,       Hongchang%Gao%gaohc27@wmu.edu.cn%1,       Li%Yang%taiyang2630@163.com%2,       Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,       Yingying%Hu%NULL%0,       Yingying%Hu%NULL%0,       Yuanyuan%Yu%NULL%1,       Xiaodong%Zhang%NULL%1,       Bin%Li%NULL%1,       Jianguo%Wu%NULL%1,       Junyu%Li%NULL%1,       Yingping%Wu%NULL%1,       Xiaoping%Xia%NULL%2,       Xiaoping%Xia%NULL%0,       Huina%Tang%NULL%1,       Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,       Shui-Bao%Xu%NULL%0,       Yi-Xiao%Lin%NULL%0,       Di%Tian%NULL%0,       Zhao-Qin%Zhu%NULL%0,       Fa-Hui%Dai%NULL%0,       Fan%Wu%NULL%0,       Zhi-Gang%Song%NULL%0,       Wei%Huang%NULL%0,       Jun%Chen%NULL%0,       Bi-Jie%Hu%NULL%0,       Sheng%Wang%NULL%0,       En-Qiang%Mao%NULL%0,       Lei%Zhu%NULL%0,       Wen-Hong%Zhang%NULL%0,       Hong-Zhou%Lu%NULL%0,       Peng%Lyu%NULL%0,       Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,       Yi Xin%Tong%NULL%0,       Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,       Wee Chian%Koh%NULL%2,       Wee Chian%Koh%NULL%0,       Riamiza Natalie%Momin%NULL%2,       Riamiza Natalie%Momin%NULL%0,       Mohammad Fathi%Alikhan%NULL%1,       Noraskhin%Fadillah%NULL%1,       Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,       Xinyi%Liu%NULL%1,       Jianjun%Liu%NULL%1,       Han%Liao%NULL%1,       Sixuan%Long%NULL%1,       Ning%Zhou%NULL%0,       Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,       Zhenyu%Pan%NULL%1,       Yunbao%Pan%NULL%1,       Qiaoling%Deng%NULL%1,       Liangjun%Chen%NULL%1,       Jin%Li%NULL%1,       Yirong%Li%NULL%1,       Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,       Zongqiu%Chen%NULL%1,       Chenghua%Gong%NULL%1,       Hui%Liu%NULL%0,       Baisheng%Li%NULL%1,       Kuibiao%Li%NULL%1,       Xi%Chen%NULL%2,       Conghui%Xu%NULL%1,       Qinlong%Jing%NULL%1,       Guocong%Liu%NULL%1,       Pengzhe%Qin%NULL%1,       Yufei%Liu%NULL%1,       Yi%Zhong%NULL%1,       Lijuan%Huang%NULL%1,       Bao-Ping%Zhu%NULL%1,       Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,       Xiao-Bo%Wang%NULL%1,       Xiang-Hong%Jin%NULL%1,       Wen-Yue%Liu%NULL%1,       Feng%Gao%NULL%1,       Yong-Ping%Chen%NULL%1,       Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -876,7 +1035,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -905,7 +1064,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -934,7 +1093,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -963,7 +1122,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -992,7 +1151,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1021,7 +1180,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1050,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1079,7 +1238,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1108,7 +1267,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1137,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1166,7 +1325,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1195,7 +1354,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1224,7 +1383,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="200">
   <si>
     <t>Doi</t>
   </si>
@@ -647,6 +647,84 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,       Xiao-Bo%Wang%NULL%1,       Xiang-Hong%Jin%NULL%1,       Wen-Yue%Liu%NULL%1,       Feng%Gao%NULL%1,       Yong-Ping%Chen%NULL%1,       Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,        Xuejiao%Liao%NULL%1,        Tongyang%Xiao%NULL%1,        Shen%Qian%NULL%1,        Jing%Yuan%NULL%1,        Haocheng%Ye%NULL%1,        Furong%Qi%NULL%1,        Chengguang%Shen%NULL%1,        Lifei%Wang%NULL%1,        Yang%Liu%NULL%1,        Xiaoya%Cheng%NULL%1,        Na%Li%NULL%1,        Qingxian%Cai%NULL%1,        Fang%Wang%NULL%1,        Jun%Chen%NULL%0,        Guojun%Li%NULL%1,        Qiu’e%Cai%NULL%1,        Yingxia%Liu%NULL%0,        Yunfang%Wang%NULL%1,        Feng%Zhang%NULL%1,        Yang%Fu%NULL%1,        Qing%He%NULL%1,        Xiaohua%Tan%NULL%1,        Lei%Liu%NULL%0,        Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,        Xiaoping%Xu%NULL%1,        Jing%Hu%NULL%1,        Qiangda%Chen%NULL%1,        Fengfeng%Xu%NULL%1,        Hui%Liang%NULL%1,        Nanmei%Liu%NULL%1,        Hengmei%Zhu%NULL%1,        Jinlong%Lan%NULL%1,        Lan%Zhou%NULL%1,        Jiajun%Xing%NULL%1,        Ning%Pu%NULL%1,        Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,        Tim%Wood%NULL%1,        Lauren%Jelley%NULL%1,        Tineke%Jennings%NULL%1,        Sarah%Jefferies%NULL%1,        Karen%Daniells%NULL%1,        Annette%Nesdale%NULL%1,        Tony%Dowell%NULL%1,        Nikki%Turner%NULL%1,        Priscilla%Campbell-Stokes%NULL%1,        Michelle%Balm%NULL%1,        Hazel C%Dobinson%NULL%1,        Cameron C.%Grant%NULL%1,        Shelley%James%NULL%1,        Nayyereh%Aminisani%NULL%1,        Jacqui%Ralston%NULL%1,        Wendy%Gunn%NULL%1,        Judy%Bocacao%NULL%1,        Jessica%Danielewicz%NULL%1,        Tessa%Moncrieff%NULL%1,        Andrea%McNeill%NULL%1,        Liza%Lopez%NULL%1,        Ben%Waite%NULL%1,        Tomasz%Kiedrzynski%NULL%1,        Hannah%Schrader%NULL%1,        Rebekah%Gray%NULL%1,        Kayla%Cook%NULL%1,        Danielle%Currin%NULL%1,        Chaune%Engelbrecht%NULL%1,        Whitney%Tapurau%NULL%1,        Leigh%Emmerton%NULL%1,        Maxine%Martin%NULL%1,        Michael G.%Baker%NULL%1,        Susan%Taylor%NULL%1,        Adrian%Trenholme%NULL%1,        Conroy%Wong%NULL%1,        Shirley%Lawrence%NULL%1,        Colin%McArthur%NULL%1,        Alicia%Stanley%NULL%1,        Sally%Roberts%NULL%1,        Fahimeh%Ranama%NULL%1,        Jenny%Bennett%NULL%1,        Chris%Mansell%NULL%1,        Meik%Dilcher%NULL%1,        Anja%Werno%NULL%1,        Jennifer%Grant%NULL%1,        Antje%van der Linden%NULL%1,        Ben%Youngblood%NULL%1,        Paul G.%Thomas%NULL%1,        Richard J.%Webby%NULL%1,         S.%Huang%null%1,         T.% Wood%null%1,         L.% Jelley%null%1,         T.% Jennings%null%1,         S.% Jeffries%null%1,         K.% Daniels%null%1,         A.% Nesdale%null%1,         T.% Dowell%null%1,         N.% Turner%null%1,         P.% Campbell-Stokes%null%1,         M.% Balm%null%1,         H. C.% Dobinson%null%1,         C. C.% Grant%null%1,         S.% James%null%1,         N.% Aminisani%null%1,         J.% Ralston%null%1,         W.% Gunn%null%1,         J.% Bucacao%null%1,         J.% Danielewicz%null%1,         T.% Moncrieff%null%1,         A.% McNeill%null%1,         L.% Lopez%null%1,         B.% Waite%null%1,         T.% Kiedrzynski%null%1,         H.% Schrader%null%1,         R.% Gray%null%1,         K.% Cook%null%1,         D.% Currin%null%1,         C.% Engelbrecht%null%1,         W.% Tapurau%null%1,         L.% Emmerton%null%1,         M.% Martin%null%1,         M. G.% Baker%null%1,         S.% Taylor%null%1,         A.% Trenholme%null%1,         C.% Wong%null%1,         S.% Lawrence%null%1,         C.% McArthur%null%1,         A.% Stanley%null%1,         S.% Roberts%null%1,         F.% Ranama%null%1,         J.% Bennett%null%1,         C.% Mansell%null%1,         M.% Dilcher%null%1,         A.% Werno%null%1,         J.% Grant%null%1,        couldn't find firstname% v %null%1,       S.%Huang%null%1,       T.% Wood%null%1,       L.% Jelley%null%1,       T.% Jennings%null%1,       S.% Jeffries%null%1,       K.% Daniels%null%1,       A.% Nesdale%null%1,       T.% Dowell%null%1,       N.% Turner%null%1,       P.% Campbell-Stokes%null%1,       M.% Balm%null%1,       H. C.% Dobinson%null%1,       C. C.% Grant%null%1,       S.% James%null%1,       N.% Aminisani%null%1,       J.% Ralston%null%1,       W.% Gunn%null%1,       J.% Bucacao%null%1,       J.% Danielewicz%null%1,       T.% Moncrieff%null%1,       A.% McNeill%null%1,       L.% Lopez%null%1,       B.% Waite%null%1,       T.% Kiedrzynski%null%1,       H.% Schrader%null%1,       R.% Gray%null%1,       K.% Cook%null%1,       D.% Currin%null%1,       C.% Engelbrecht%null%1,       W.% Tapurau%null%1,       L.% Emmerton%null%1,       M.% Martin%null%1,       M. G.% Baker%null%1,       S.% Taylor%null%1,       A.% Trenholme%null%1,       C.% Wong%null%1,       S.% Lawrence%null%1,       C.% McArthur%null%1,       A.% Stanley%null%1,       S.% Roberts%null%1,       F.% Ranama%null%1,       J.% Bennett%null%1,       C.% Mansell%null%1,       M.% Dilcher%null%1,       A.% Werno%null%1,       J.% Grant%null%1,      couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,        Ya%Li%NULL%1,        Mingli%Han%NULL%1,        Zhenhua%Wang%NULL%1,        Yuhang%Zhang%NULL%1,        Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,        Yiran%Hu%NULL%1,        Li%Dong%NULL%1,        Qi%Shu%NULL%1,        Mingyang%Zhu%NULL%1,        Yuping%Li%NULL%1,        Chengshui%Chen%NULL%1,        Hongchang%Gao%gaohc27@wmu.edu.cn%1,        Li%Yang%taiyang2630@163.com%0,        Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,        Yingying%Hu%NULL%2,        Yingying%Hu%NULL%0,        Yuanyuan%Yu%NULL%1,        Xiaodong%Zhang%NULL%1,        Bin%Li%NULL%1,        Jianguo%Wu%NULL%1,        Junyu%Li%NULL%1,        Yingping%Wu%NULL%1,        Xiaoping%Xia%NULL%2,        Xiaoping%Xia%NULL%0,        Huina%Tang%NULL%1,        Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,        Shui-Bao%Xu%NULL%0,        Yi-Xiao%Lin%NULL%0,        Di%Tian%NULL%0,        Zhao-Qin%Zhu%NULL%0,        Fa-Hui%Dai%NULL%0,        Fan%Wu%NULL%0,        Zhi-Gang%Song%NULL%0,        Wei%Huang%NULL%0,        Jun%Chen%NULL%0,        Bi-Jie%Hu%NULL%0,        Sheng%Wang%NULL%0,        En-Qiang%Mao%NULL%0,        Lei%Zhu%NULL%0,        Wen-Hong%Zhang%NULL%0,        Hong-Zhou%Lu%NULL%0,        Peng%Lyu%NULL%0,        Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,        Yi Xin%Tong%NULL%0,        Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,        Wee Chian%Koh%NULL%2,        Wee Chian%Koh%NULL%0,        Riamiza Natalie%Momin%NULL%2,        Riamiza Natalie%Momin%NULL%0,        Mohammad Fathi%Alikhan%NULL%1,        Noraskhin%Fadillah%NULL%1,        Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,        Xinyi%Liu%NULL%1,        Jianjun%Liu%NULL%1,        Han%Liao%NULL%1,        Sixuan%Long%NULL%1,        Ning%Zhou%NULL%0,        Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,        Zhenyu%Pan%NULL%0,        Yunbao%Pan%NULL%0,        Qiaoling%Deng%NULL%0,        Liangjun%Chen%NULL%0,        Jin%Li%NULL%0,        Yirong%Li%NULL%0,        Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,        Zongqiu%Chen%NULL%1,        Chenghua%Gong%NULL%1,        Hui%Liu%NULL%1,        Baisheng%Li%NULL%1,        Kuibiao%Li%NULL%1,        Xi%Chen%NULL%4,        Conghui%Xu%NULL%1,        Qinlong%Jing%NULL%1,        Guocong%Liu%NULL%1,        Pengzhe%Qin%NULL%1,        Yufei%Liu%NULL%1,        Yi%Zhong%NULL%1,        Lijuan%Huang%NULL%1,        Bao-Ping%Zhu%NULL%1,        Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,        Xiao-Bo%Wang%NULL%1,        Xiang-Hong%Jin%NULL%1,        Wen-Yue%Liu%NULL%1,        Feng%Gao%NULL%1,        Yong-Ping%Chen%NULL%1,        Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,         Xuejiao%Liao%NULL%1,         Tongyang%Xiao%NULL%1,         Shen%Qian%NULL%1,         Jing%Yuan%NULL%1,         Haocheng%Ye%NULL%1,         Furong%Qi%NULL%1,         Chengguang%Shen%NULL%1,         Lifei%Wang%NULL%1,         Yang%Liu%NULL%1,         Xiaoya%Cheng%NULL%1,         Na%Li%NULL%1,         Qingxian%Cai%NULL%1,         Fang%Wang%NULL%1,         Jun%Chen%NULL%0,         Guojun%Li%NULL%1,         Qiu’e%Cai%NULL%1,         Yingxia%Liu%NULL%0,         Yunfang%Wang%NULL%1,         Feng%Zhang%NULL%1,         Yang%Fu%NULL%1,         Qing%He%NULL%1,         Xiaohua%Tan%NULL%1,         Lei%Liu%NULL%0,         Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,         Xiaoping%Xu%NULL%1,         Jing%Hu%NULL%1,         Qiangda%Chen%NULL%1,         Fengfeng%Xu%NULL%1,         Hui%Liang%NULL%1,         Nanmei%Liu%NULL%1,         Hengmei%Zhu%NULL%1,         Jinlong%Lan%NULL%1,         Lan%Zhou%NULL%1,         Jiajun%Xing%NULL%1,         Ning%Pu%NULL%1,         Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,         Tim%Wood%NULL%1,         Lauren%Jelley%NULL%1,         Tineke%Jennings%NULL%1,         Sarah%Jefferies%NULL%1,         Karen%Daniells%NULL%1,         Annette%Nesdale%NULL%1,         Tony%Dowell%NULL%1,         Nikki%Turner%NULL%1,         Priscilla%Campbell-Stokes%NULL%1,         Michelle%Balm%NULL%1,         Hazel C%Dobinson%NULL%1,         Cameron C.%Grant%NULL%1,         Shelley%James%NULL%1,         Nayyereh%Aminisani%NULL%1,         Jacqui%Ralston%NULL%1,         Wendy%Gunn%NULL%1,         Judy%Bocacao%NULL%1,         Jessica%Danielewicz%NULL%1,         Tessa%Moncrieff%NULL%1,         Andrea%McNeill%NULL%1,         Liza%Lopez%NULL%1,         Ben%Waite%NULL%1,         Tomasz%Kiedrzynski%NULL%1,         Hannah%Schrader%NULL%1,         Rebekah%Gray%NULL%1,         Kayla%Cook%NULL%1,         Danielle%Currin%NULL%1,         Chaune%Engelbrecht%NULL%1,         Whitney%Tapurau%NULL%1,         Leigh%Emmerton%NULL%1,         Maxine%Martin%NULL%1,         Michael G.%Baker%NULL%1,         Susan%Taylor%NULL%1,         Adrian%Trenholme%NULL%1,         Conroy%Wong%NULL%1,         Shirley%Lawrence%NULL%1,         Colin%McArthur%NULL%1,         Alicia%Stanley%NULL%1,         Sally%Roberts%NULL%1,         Fahimeh%Ranama%NULL%1,         Jenny%Bennett%NULL%1,         Chris%Mansell%NULL%1,         Meik%Dilcher%NULL%1,         Anja%Werno%NULL%1,         Jennifer%Grant%NULL%1,         Antje%van der Linden%NULL%1,         Ben%Youngblood%NULL%1,         Paul G.%Thomas%NULL%1,         Richard J.%Webby%NULL%1,          S.%Huang%null%1,          T.% Wood%null%1,          L.% Jelley%null%1,          T.% Jennings%null%1,          S.% Jeffries%null%1,          K.% Daniels%null%1,          A.% Nesdale%null%1,          T.% Dowell%null%1,          N.% Turner%null%1,          P.% Campbell-Stokes%null%1,          M.% Balm%null%1,          H. C.% Dobinson%null%1,          C. C.% Grant%null%1,          S.% James%null%1,          N.% Aminisani%null%1,          J.% Ralston%null%1,          W.% Gunn%null%1,          J.% Bucacao%null%1,          J.% Danielewicz%null%1,          T.% Moncrieff%null%1,          A.% McNeill%null%1,          L.% Lopez%null%1,          B.% Waite%null%1,          T.% Kiedrzynski%null%1,          H.% Schrader%null%1,          R.% Gray%null%1,          K.% Cook%null%1,          D.% Currin%null%1,          C.% Engelbrecht%null%1,          W.% Tapurau%null%1,          L.% Emmerton%null%1,          M.% Martin%null%1,          M. G.% Baker%null%1,          S.% Taylor%null%1,          A.% Trenholme%null%1,          C.% Wong%null%1,          S.% Lawrence%null%1,          C.% McArthur%null%1,          A.% Stanley%null%1,          S.% Roberts%null%1,          F.% Ranama%null%1,          J.% Bennett%null%1,          C.% Mansell%null%1,          M.% Dilcher%null%1,          A.% Werno%null%1,          J.% Grant%null%1,         couldn't find firstname% v %null%1,        S.%Huang%null%1,        T.% Wood%null%1,        L.% Jelley%null%1,        T.% Jennings%null%1,        S.% Jeffries%null%1,        K.% Daniels%null%1,        A.% Nesdale%null%1,        T.% Dowell%null%1,        N.% Turner%null%1,        P.% Campbell-Stokes%null%1,        M.% Balm%null%1,        H. C.% Dobinson%null%1,        C. C.% Grant%null%1,        S.% James%null%1,        N.% Aminisani%null%1,        J.% Ralston%null%1,        W.% Gunn%null%1,        J.% Bucacao%null%1,        J.% Danielewicz%null%1,        T.% Moncrieff%null%1,        A.% McNeill%null%1,        L.% Lopez%null%1,        B.% Waite%null%1,        T.% Kiedrzynski%null%1,        H.% Schrader%null%1,        R.% Gray%null%1,        K.% Cook%null%1,        D.% Currin%null%1,        C.% Engelbrecht%null%1,        W.% Tapurau%null%1,        L.% Emmerton%null%1,        M.% Martin%null%1,        M. G.% Baker%null%1,        S.% Taylor%null%1,        A.% Trenholme%null%1,        C.% Wong%null%1,        S.% Lawrence%null%1,        C.% McArthur%null%1,        A.% Stanley%null%1,        S.% Roberts%null%1,        F.% Ranama%null%1,        J.% Bennett%null%1,        C.% Mansell%null%1,        M.% Dilcher%null%1,        A.% Werno%null%1,        J.% Grant%null%1,       couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,         Ya%Li%NULL%1,         Mingli%Han%NULL%1,         Zhenhua%Wang%NULL%1,         Yuhang%Zhang%NULL%1,         Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,         Yiran%Hu%NULL%1,         Li%Dong%NULL%1,         Qi%Shu%NULL%1,         Mingyang%Zhu%NULL%1,         Yuping%Li%NULL%1,         Chengshui%Chen%NULL%1,         Hongchang%Gao%gaohc27@wmu.edu.cn%1,         Li%Yang%taiyang2630@163.com%0,         Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,         Yingying%Hu%NULL%2,         Yingying%Hu%NULL%0,         Yuanyuan%Yu%NULL%1,         Xiaodong%Zhang%NULL%1,         Bin%Li%NULL%1,         Jianguo%Wu%NULL%1,         Junyu%Li%NULL%1,         Yingping%Wu%NULL%1,         Xiaoping%Xia%NULL%2,         Xiaoping%Xia%NULL%0,         Huina%Tang%NULL%1,         Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,         Shui-Bao%Xu%NULL%0,         Yi-Xiao%Lin%NULL%0,         Di%Tian%NULL%0,         Zhao-Qin%Zhu%NULL%0,         Fa-Hui%Dai%NULL%0,         Fan%Wu%NULL%0,         Zhi-Gang%Song%NULL%0,         Wei%Huang%NULL%0,         Jun%Chen%NULL%0,         Bi-Jie%Hu%NULL%0,         Sheng%Wang%NULL%0,         En-Qiang%Mao%NULL%0,         Lei%Zhu%NULL%0,         Wen-Hong%Zhang%NULL%0,         Hong-Zhou%Lu%NULL%0,         Peng%Lyu%NULL%0,         Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,         Yi Xin%Tong%NULL%0,         Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,         Wee Chian%Koh%NULL%2,         Wee Chian%Koh%NULL%0,         Riamiza Natalie%Momin%NULL%2,         Riamiza Natalie%Momin%NULL%0,         Mohammad Fathi%Alikhan%NULL%1,         Noraskhin%Fadillah%NULL%1,         Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,         Xinyi%Liu%NULL%1,         Jianjun%Liu%NULL%1,         Han%Liao%NULL%1,         Sixuan%Long%NULL%1,         Ning%Zhou%NULL%0,         Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,         Zhenyu%Pan%NULL%0,         Yunbao%Pan%NULL%0,         Qiaoling%Deng%NULL%0,         Liangjun%Chen%NULL%0,         Jin%Li%NULL%0,         Yirong%Li%NULL%0,         Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,         Zongqiu%Chen%NULL%1,         Chenghua%Gong%NULL%1,         Hui%Liu%NULL%1,         Baisheng%Li%NULL%1,         Kuibiao%Li%NULL%1,         Xi%Chen%NULL%4,         Conghui%Xu%NULL%1,         Qinlong%Jing%NULL%1,         Guocong%Liu%NULL%1,         Pengzhe%Qin%NULL%1,         Yufei%Liu%NULL%1,         Yi%Zhong%NULL%1,         Lijuan%Huang%NULL%1,         Bao-Ping%Zhu%NULL%1,         Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,         Xiao-Bo%Wang%NULL%1,         Xiang-Hong%Jin%NULL%1,         Wen-Yue%Liu%NULL%1,         Feng%Gao%NULL%1,         Yong-Ping%Chen%NULL%1,         Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1035,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1064,7 +1142,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1093,7 +1171,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1122,7 +1200,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1151,7 +1229,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1180,7 +1258,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1209,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1238,7 +1316,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1267,7 +1345,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1296,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1325,7 +1403,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1354,7 +1432,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1383,7 +1461,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="226">
   <si>
     <t>Doi</t>
   </si>
@@ -725,6 +725,84 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,         Xiao-Bo%Wang%NULL%1,         Xiang-Hong%Jin%NULL%1,         Wen-Yue%Liu%NULL%1,         Feng%Gao%NULL%1,         Yong-Ping%Chen%NULL%1,         Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,          Xuejiao%Liao%NULL%1,          Tongyang%Xiao%NULL%1,          Shen%Qian%NULL%1,          Jing%Yuan%NULL%1,          Haocheng%Ye%NULL%1,          Furong%Qi%NULL%1,          Chengguang%Shen%NULL%1,          Lifei%Wang%NULL%1,          Yang%Liu%NULL%1,          Xiaoya%Cheng%NULL%1,          Na%Li%NULL%1,          Qingxian%Cai%NULL%1,          Fang%Wang%NULL%1,          Jun%Chen%NULL%0,          Guojun%Li%NULL%1,          Qiu’e%Cai%NULL%1,          Yingxia%Liu%NULL%0,          Yunfang%Wang%NULL%1,          Feng%Zhang%NULL%1,          Yang%Fu%NULL%1,          Qing%He%NULL%1,          Xiaohua%Tan%NULL%1,          Lei%Liu%NULL%0,          Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,          Xiaoping%Xu%NULL%1,          Jing%Hu%NULL%1,          Qiangda%Chen%NULL%1,          Fengfeng%Xu%NULL%1,          Hui%Liang%NULL%1,          Nanmei%Liu%NULL%1,          Hengmei%Zhu%NULL%1,          Jinlong%Lan%NULL%1,          Lan%Zhou%NULL%1,          Jiajun%Xing%NULL%1,          Ning%Pu%NULL%1,          Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,          Tim%Wood%NULL%1,          Lauren%Jelley%NULL%1,          Tineke%Jennings%NULL%1,          Sarah%Jefferies%NULL%1,          Karen%Daniells%NULL%1,          Annette%Nesdale%NULL%1,          Tony%Dowell%NULL%1,          Nikki%Turner%NULL%1,          Priscilla%Campbell-Stokes%NULL%1,          Michelle%Balm%NULL%1,          Hazel C%Dobinson%NULL%1,          Cameron C.%Grant%NULL%1,          Shelley%James%NULL%1,          Nayyereh%Aminisani%NULL%1,          Jacqui%Ralston%NULL%1,          Wendy%Gunn%NULL%1,          Judy%Bocacao%NULL%1,          Jessica%Danielewicz%NULL%1,          Tessa%Moncrieff%NULL%1,          Andrea%McNeill%NULL%1,          Liza%Lopez%NULL%1,          Ben%Waite%NULL%1,          Tomasz%Kiedrzynski%NULL%1,          Hannah%Schrader%NULL%1,          Rebekah%Gray%NULL%1,          Kayla%Cook%NULL%1,          Danielle%Currin%NULL%1,          Chaune%Engelbrecht%NULL%1,          Whitney%Tapurau%NULL%1,          Leigh%Emmerton%NULL%1,          Maxine%Martin%NULL%1,          Michael G.%Baker%NULL%1,          Susan%Taylor%NULL%1,          Adrian%Trenholme%NULL%1,          Conroy%Wong%NULL%1,          Shirley%Lawrence%NULL%1,          Colin%McArthur%NULL%1,          Alicia%Stanley%NULL%1,          Sally%Roberts%NULL%1,          Fahimeh%Ranama%NULL%1,          Jenny%Bennett%NULL%1,          Chris%Mansell%NULL%1,          Meik%Dilcher%NULL%1,          Anja%Werno%NULL%1,          Jennifer%Grant%NULL%1,          Antje%van der Linden%NULL%1,          Ben%Youngblood%NULL%1,          Paul G.%Thomas%NULL%1,          Richard J.%Webby%NULL%1,           S.%Huang%null%1,           T.% Wood%null%1,           L.% Jelley%null%1,           T.% Jennings%null%1,           S.% Jeffries%null%1,           K.% Daniels%null%1,           A.% Nesdale%null%1,           T.% Dowell%null%1,           N.% Turner%null%1,           P.% Campbell-Stokes%null%1,           M.% Balm%null%1,           H. C.% Dobinson%null%1,           C. C.% Grant%null%1,           S.% James%null%1,           N.% Aminisani%null%1,           J.% Ralston%null%1,           W.% Gunn%null%1,           J.% Bucacao%null%1,           J.% Danielewicz%null%1,           T.% Moncrieff%null%1,           A.% McNeill%null%1,           L.% Lopez%null%1,           B.% Waite%null%1,           T.% Kiedrzynski%null%1,           H.% Schrader%null%1,           R.% Gray%null%1,           K.% Cook%null%1,           D.% Currin%null%1,           C.% Engelbrecht%null%1,           W.% Tapurau%null%1,           L.% Emmerton%null%1,           M.% Martin%null%1,           M. G.% Baker%null%1,           S.% Taylor%null%1,           A.% Trenholme%null%1,           C.% Wong%null%1,           S.% Lawrence%null%1,           C.% McArthur%null%1,           A.% Stanley%null%1,           S.% Roberts%null%1,           F.% Ranama%null%1,           J.% Bennett%null%1,           C.% Mansell%null%1,           M.% Dilcher%null%1,           A.% Werno%null%1,           J.% Grant%null%1,          couldn't find firstname% v %null%1,         S.%Huang%null%1,         T.% Wood%null%1,         L.% Jelley%null%1,         T.% Jennings%null%1,         S.% Jeffries%null%1,         K.% Daniels%null%1,         A.% Nesdale%null%1,         T.% Dowell%null%1,         N.% Turner%null%1,         P.% Campbell-Stokes%null%1,         M.% Balm%null%1,         H. C.% Dobinson%null%1,         C. C.% Grant%null%1,         S.% James%null%1,         N.% Aminisani%null%1,         J.% Ralston%null%1,         W.% Gunn%null%1,         J.% Bucacao%null%1,         J.% Danielewicz%null%1,         T.% Moncrieff%null%1,         A.% McNeill%null%1,         L.% Lopez%null%1,         B.% Waite%null%1,         T.% Kiedrzynski%null%1,         H.% Schrader%null%1,         R.% Gray%null%1,         K.% Cook%null%1,         D.% Currin%null%1,         C.% Engelbrecht%null%1,         W.% Tapurau%null%1,         L.% Emmerton%null%1,         M.% Martin%null%1,         M. G.% Baker%null%1,         S.% Taylor%null%1,         A.% Trenholme%null%1,         C.% Wong%null%1,         S.% Lawrence%null%1,         C.% McArthur%null%1,         A.% Stanley%null%1,         S.% Roberts%null%1,         F.% Ranama%null%1,         J.% Bennett%null%1,         C.% Mansell%null%1,         M.% Dilcher%null%1,         A.% Werno%null%1,         J.% Grant%null%1,        couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,          Ya%Li%NULL%1,          Mingli%Han%NULL%1,          Zhenhua%Wang%NULL%1,          Yuhang%Zhang%NULL%1,          Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,          Yiran%Hu%NULL%1,          Li%Dong%NULL%1,          Qi%Shu%NULL%1,          Mingyang%Zhu%NULL%1,          Yuping%Li%NULL%1,          Chengshui%Chen%NULL%1,          Hongchang%Gao%gaohc27@wmu.edu.cn%1,          Li%Yang%taiyang2630@163.com%0,          Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,          Yingying%Hu%NULL%2,          Yingying%Hu%NULL%0,          Yuanyuan%Yu%NULL%1,          Xiaodong%Zhang%NULL%1,          Bin%Li%NULL%1,          Jianguo%Wu%NULL%1,          Junyu%Li%NULL%1,          Yingping%Wu%NULL%1,          Xiaoping%Xia%NULL%2,          Xiaoping%Xia%NULL%0,          Huina%Tang%NULL%1,          Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,          Shui-Bao%Xu%NULL%0,          Yi-Xiao%Lin%NULL%0,          Di%Tian%NULL%0,          Zhao-Qin%Zhu%NULL%0,          Fa-Hui%Dai%NULL%0,          Fan%Wu%NULL%0,          Zhi-Gang%Song%NULL%0,          Wei%Huang%NULL%0,          Jun%Chen%NULL%0,          Bi-Jie%Hu%NULL%0,          Sheng%Wang%NULL%0,          En-Qiang%Mao%NULL%0,          Lei%Zhu%NULL%0,          Wen-Hong%Zhang%NULL%0,          Hong-Zhou%Lu%NULL%0,          Peng%Lyu%NULL%0,          Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,          Yi Xin%Tong%NULL%0,          Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,          Wee Chian%Koh%NULL%2,          Wee Chian%Koh%NULL%0,          Riamiza Natalie%Momin%NULL%2,          Riamiza Natalie%Momin%NULL%0,          Mohammad Fathi%Alikhan%NULL%1,          Noraskhin%Fadillah%NULL%1,          Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,          Xinyi%Liu%NULL%1,          Jianjun%Liu%NULL%1,          Han%Liao%NULL%1,          Sixuan%Long%NULL%1,          Ning%Zhou%NULL%0,          Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,          Zhenyu%Pan%NULL%0,          Yunbao%Pan%NULL%0,          Qiaoling%Deng%NULL%0,          Liangjun%Chen%NULL%0,          Jin%Li%NULL%0,          Yirong%Li%NULL%0,          Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,          Zongqiu%Chen%NULL%1,          Chenghua%Gong%NULL%1,          Hui%Liu%NULL%1,          Baisheng%Li%NULL%1,          Kuibiao%Li%NULL%1,          Xi%Chen%NULL%4,          Conghui%Xu%NULL%1,          Qinlong%Jing%NULL%1,          Guocong%Liu%NULL%1,          Pengzhe%Qin%NULL%1,          Yufei%Liu%NULL%1,          Yi%Zhong%NULL%1,          Lijuan%Huang%NULL%1,          Bao-Ping%Zhu%NULL%1,          Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,          Xiao-Bo%Wang%NULL%1,          Xiang-Hong%Jin%NULL%1,          Wen-Yue%Liu%NULL%1,          Feng%Gao%NULL%1,          Yong-Ping%Chen%NULL%1,          Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,           Xuejiao%Liao%NULL%1,           Tongyang%Xiao%NULL%1,           Shen%Qian%NULL%1,           Jing%Yuan%NULL%1,           Haocheng%Ye%NULL%1,           Furong%Qi%NULL%1,           Chengguang%Shen%NULL%1,           Lifei%Wang%NULL%1,           Yang%Liu%NULL%1,           Xiaoya%Cheng%NULL%1,           Na%Li%NULL%1,           Qingxian%Cai%NULL%1,           Fang%Wang%NULL%1,           Jun%Chen%NULL%0,           Guojun%Li%NULL%1,           Qiu’e%Cai%NULL%1,           Yingxia%Liu%NULL%0,           Yunfang%Wang%NULL%1,           Feng%Zhang%NULL%1,           Yang%Fu%NULL%1,           Qing%He%NULL%1,           Xiaohua%Tan%NULL%1,           Lei%Liu%NULL%0,           Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,           Xiaoping%Xu%NULL%1,           Jing%Hu%NULL%1,           Qiangda%Chen%NULL%1,           Fengfeng%Xu%NULL%1,           Hui%Liang%NULL%1,           Nanmei%Liu%NULL%1,           Hengmei%Zhu%NULL%1,           Jinlong%Lan%NULL%1,           Lan%Zhou%NULL%1,           Jiajun%Xing%NULL%1,           Ning%Pu%NULL%1,           Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,           Tim%Wood%NULL%1,           Lauren%Jelley%NULL%1,           Tineke%Jennings%NULL%1,           Sarah%Jefferies%NULL%1,           Karen%Daniells%NULL%1,           Annette%Nesdale%NULL%1,           Tony%Dowell%NULL%1,           Nikki%Turner%NULL%1,           Priscilla%Campbell-Stokes%NULL%1,           Michelle%Balm%NULL%1,           Hazel C%Dobinson%NULL%1,           Cameron C.%Grant%NULL%1,           Shelley%James%NULL%1,           Nayyereh%Aminisani%NULL%1,           Jacqui%Ralston%NULL%1,           Wendy%Gunn%NULL%1,           Judy%Bocacao%NULL%1,           Jessica%Danielewicz%NULL%1,           Tessa%Moncrieff%NULL%1,           Andrea%McNeill%NULL%1,           Liza%Lopez%NULL%1,           Ben%Waite%NULL%1,           Tomasz%Kiedrzynski%NULL%1,           Hannah%Schrader%NULL%1,           Rebekah%Gray%NULL%1,           Kayla%Cook%NULL%1,           Danielle%Currin%NULL%1,           Chaune%Engelbrecht%NULL%1,           Whitney%Tapurau%NULL%1,           Leigh%Emmerton%NULL%1,           Maxine%Martin%NULL%1,           Michael G.%Baker%NULL%1,           Susan%Taylor%NULL%1,           Adrian%Trenholme%NULL%1,           Conroy%Wong%NULL%1,           Shirley%Lawrence%NULL%1,           Colin%McArthur%NULL%1,           Alicia%Stanley%NULL%1,           Sally%Roberts%NULL%1,           Fahimeh%Ranama%NULL%1,           Jenny%Bennett%NULL%1,           Chris%Mansell%NULL%1,           Meik%Dilcher%NULL%1,           Anja%Werno%NULL%1,           Jennifer%Grant%NULL%1,           Antje%van der Linden%NULL%1,           Ben%Youngblood%NULL%1,           Paul G.%Thomas%NULL%1,           Richard J.%Webby%NULL%1,            S.%Huang%null%1,            T.% Wood%null%1,            L.% Jelley%null%1,            T.% Jennings%null%1,            S.% Jeffries%null%1,            K.% Daniels%null%1,            A.% Nesdale%null%1,            T.% Dowell%null%1,            N.% Turner%null%1,            P.% Campbell-Stokes%null%1,            M.% Balm%null%1,            H. C.% Dobinson%null%1,            C. C.% Grant%null%1,            S.% James%null%1,            N.% Aminisani%null%1,            J.% Ralston%null%1,            W.% Gunn%null%1,            J.% Bucacao%null%1,            J.% Danielewicz%null%1,            T.% Moncrieff%null%1,            A.% McNeill%null%1,            L.% Lopez%null%1,            B.% Waite%null%1,            T.% Kiedrzynski%null%1,            H.% Schrader%null%1,            R.% Gray%null%1,            K.% Cook%null%1,            D.% Currin%null%1,            C.% Engelbrecht%null%1,            W.% Tapurau%null%1,            L.% Emmerton%null%1,            M.% Martin%null%1,            M. G.% Baker%null%1,            S.% Taylor%null%1,            A.% Trenholme%null%1,            C.% Wong%null%1,            S.% Lawrence%null%1,            C.% McArthur%null%1,            A.% Stanley%null%1,            S.% Roberts%null%1,            F.% Ranama%null%1,            J.% Bennett%null%1,            C.% Mansell%null%1,            M.% Dilcher%null%1,            A.% Werno%null%1,            J.% Grant%null%1,           couldn't find firstname% v %null%1,          S.%Huang%null%1,          T.% Wood%null%1,          L.% Jelley%null%1,          T.% Jennings%null%1,          S.% Jeffries%null%1,          K.% Daniels%null%1,          A.% Nesdale%null%1,          T.% Dowell%null%1,          N.% Turner%null%1,          P.% Campbell-Stokes%null%1,          M.% Balm%null%1,          H. C.% Dobinson%null%1,          C. C.% Grant%null%1,          S.% James%null%1,          N.% Aminisani%null%1,          J.% Ralston%null%1,          W.% Gunn%null%1,          J.% Bucacao%null%1,          J.% Danielewicz%null%1,          T.% Moncrieff%null%1,          A.% McNeill%null%1,          L.% Lopez%null%1,          B.% Waite%null%1,          T.% Kiedrzynski%null%1,          H.% Schrader%null%1,          R.% Gray%null%1,          K.% Cook%null%1,          D.% Currin%null%1,          C.% Engelbrecht%null%1,          W.% Tapurau%null%1,          L.% Emmerton%null%1,          M.% Martin%null%1,          M. G.% Baker%null%1,          S.% Taylor%null%1,          A.% Trenholme%null%1,          C.% Wong%null%1,          S.% Lawrence%null%1,          C.% McArthur%null%1,          A.% Stanley%null%1,          S.% Roberts%null%1,          F.% Ranama%null%1,          J.% Bennett%null%1,          C.% Mansell%null%1,          M.% Dilcher%null%1,          A.% Werno%null%1,          J.% Grant%null%1,         couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,           Ya%Li%NULL%1,           Mingli%Han%NULL%1,           Zhenhua%Wang%NULL%1,           Yuhang%Zhang%NULL%1,           Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,           Yiran%Hu%NULL%1,           Li%Dong%NULL%1,           Qi%Shu%NULL%1,           Mingyang%Zhu%NULL%1,           Yuping%Li%NULL%1,           Chengshui%Chen%NULL%1,           Hongchang%Gao%gaohc27@wmu.edu.cn%1,           Li%Yang%taiyang2630@163.com%0,           Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,           Yingying%Hu%NULL%2,           Yingying%Hu%NULL%0,           Yuanyuan%Yu%NULL%1,           Xiaodong%Zhang%NULL%1,           Bin%Li%NULL%1,           Jianguo%Wu%NULL%1,           Junyu%Li%NULL%1,           Yingping%Wu%NULL%1,           Xiaoping%Xia%NULL%2,           Xiaoping%Xia%NULL%0,           Huina%Tang%NULL%1,           Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,           Shui-Bao%Xu%NULL%0,           Yi-Xiao%Lin%NULL%0,           Di%Tian%NULL%0,           Zhao-Qin%Zhu%NULL%0,           Fa-Hui%Dai%NULL%0,           Fan%Wu%NULL%0,           Zhi-Gang%Song%NULL%0,           Wei%Huang%NULL%0,           Jun%Chen%NULL%0,           Bi-Jie%Hu%NULL%0,           Sheng%Wang%NULL%0,           En-Qiang%Mao%NULL%0,           Lei%Zhu%NULL%0,           Wen-Hong%Zhang%NULL%0,           Hong-Zhou%Lu%NULL%0,           Peng%Lyu%NULL%0,           Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,           Yi Xin%Tong%NULL%0,           Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,           Wee Chian%Koh%NULL%2,           Wee Chian%Koh%NULL%0,           Riamiza Natalie%Momin%NULL%2,           Riamiza Natalie%Momin%NULL%0,           Mohammad Fathi%Alikhan%NULL%1,           Noraskhin%Fadillah%NULL%1,           Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,           Xinyi%Liu%NULL%1,           Jianjun%Liu%NULL%1,           Han%Liao%NULL%1,           Sixuan%Long%NULL%1,           Ning%Zhou%NULL%0,           Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,           Zhenyu%Pan%NULL%0,           Yunbao%Pan%NULL%0,           Qiaoling%Deng%NULL%0,           Liangjun%Chen%NULL%0,           Jin%Li%NULL%0,           Yirong%Li%NULL%0,           Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,           Zongqiu%Chen%NULL%1,           Chenghua%Gong%NULL%1,           Hui%Liu%NULL%1,           Baisheng%Li%NULL%1,           Kuibiao%Li%NULL%1,           Xi%Chen%NULL%4,           Conghui%Xu%NULL%1,           Qinlong%Jing%NULL%1,           Guocong%Liu%NULL%1,           Pengzhe%Qin%NULL%1,           Yufei%Liu%NULL%1,           Yi%Zhong%NULL%1,           Lijuan%Huang%NULL%1,           Bao-Ping%Zhu%NULL%1,           Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,           Xiao-Bo%Wang%NULL%1,           Xiang-Hong%Jin%NULL%1,           Wen-Yue%Liu%NULL%1,           Feng%Gao%NULL%1,           Yong-Ping%Chen%NULL%1,           Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1113,7 +1191,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1142,7 +1220,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1171,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1200,7 +1278,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1229,7 +1307,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1258,7 +1336,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1287,7 +1365,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1316,7 +1394,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1345,7 +1423,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1374,7 +1452,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1403,7 +1481,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1432,7 +1510,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1461,7 +1539,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="252">
   <si>
     <t>Doi</t>
   </si>
@@ -803,6 +803,84 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,           Xiao-Bo%Wang%NULL%1,           Xiang-Hong%Jin%NULL%1,           Wen-Yue%Liu%NULL%1,           Feng%Gao%NULL%1,           Yong-Ping%Chen%NULL%1,           Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,            Xuejiao%Liao%NULL%1,            Tongyang%Xiao%NULL%1,            Shen%Qian%NULL%1,            Jing%Yuan%NULL%1,            Haocheng%Ye%NULL%1,            Furong%Qi%NULL%1,            Chengguang%Shen%NULL%1,            Lifei%Wang%NULL%1,            Yang%Liu%NULL%1,            Xiaoya%Cheng%NULL%1,            Na%Li%NULL%1,            Qingxian%Cai%NULL%1,            Fang%Wang%NULL%1,            Jun%Chen%NULL%0,            Guojun%Li%NULL%1,            Qiu’e%Cai%NULL%1,            Yingxia%Liu%NULL%0,            Yunfang%Wang%NULL%1,            Feng%Zhang%NULL%1,            Yang%Fu%NULL%1,            Qing%He%NULL%1,            Xiaohua%Tan%NULL%1,            Lei%Liu%NULL%0,            Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,            Xiaoping%Xu%NULL%1,            Jing%Hu%NULL%1,            Qiangda%Chen%NULL%1,            Fengfeng%Xu%NULL%1,            Hui%Liang%NULL%1,            Nanmei%Liu%NULL%1,            Hengmei%Zhu%NULL%1,            Jinlong%Lan%NULL%1,            Lan%Zhou%NULL%1,            Jiajun%Xing%NULL%1,            Ning%Pu%NULL%1,            Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,            Tim%Wood%NULL%1,            Lauren%Jelley%NULL%1,            Tineke%Jennings%NULL%1,            Sarah%Jefferies%NULL%1,            Karen%Daniells%NULL%1,            Annette%Nesdale%NULL%1,            Tony%Dowell%NULL%1,            Nikki%Turner%NULL%1,            Priscilla%Campbell-Stokes%NULL%1,            Michelle%Balm%NULL%1,            Hazel C%Dobinson%NULL%1,            Cameron C.%Grant%NULL%1,            Shelley%James%NULL%1,            Nayyereh%Aminisani%NULL%1,            Jacqui%Ralston%NULL%1,            Wendy%Gunn%NULL%1,            Judy%Bocacao%NULL%1,            Jessica%Danielewicz%NULL%1,            Tessa%Moncrieff%NULL%1,            Andrea%McNeill%NULL%1,            Liza%Lopez%NULL%1,            Ben%Waite%NULL%1,            Tomasz%Kiedrzynski%NULL%1,            Hannah%Schrader%NULL%1,            Rebekah%Gray%NULL%1,            Kayla%Cook%NULL%1,            Danielle%Currin%NULL%1,            Chaune%Engelbrecht%NULL%1,            Whitney%Tapurau%NULL%1,            Leigh%Emmerton%NULL%1,            Maxine%Martin%NULL%1,            Michael G.%Baker%NULL%1,            Susan%Taylor%NULL%1,            Adrian%Trenholme%NULL%1,            Conroy%Wong%NULL%1,            Shirley%Lawrence%NULL%1,            Colin%McArthur%NULL%1,            Alicia%Stanley%NULL%1,            Sally%Roberts%NULL%1,            Fahimeh%Ranama%NULL%1,            Jenny%Bennett%NULL%1,            Chris%Mansell%NULL%1,            Meik%Dilcher%NULL%1,            Anja%Werno%NULL%1,            Jennifer%Grant%NULL%1,            Antje%van der Linden%NULL%1,            Ben%Youngblood%NULL%1,            Paul G.%Thomas%NULL%1,            Richard J.%Webby%NULL%1,             S.%Huang%null%1,             T.% Wood%null%1,             L.% Jelley%null%1,             T.% Jennings%null%1,             S.% Jeffries%null%1,             K.% Daniels%null%1,             A.% Nesdale%null%1,             T.% Dowell%null%1,             N.% Turner%null%1,             P.% Campbell-Stokes%null%1,             M.% Balm%null%1,             H. C.% Dobinson%null%1,             C. C.% Grant%null%1,             S.% James%null%1,             N.% Aminisani%null%1,             J.% Ralston%null%1,             W.% Gunn%null%1,             J.% Bucacao%null%1,             J.% Danielewicz%null%1,             T.% Moncrieff%null%1,             A.% McNeill%null%1,             L.% Lopez%null%1,             B.% Waite%null%1,             T.% Kiedrzynski%null%1,             H.% Schrader%null%1,             R.% Gray%null%1,             K.% Cook%null%1,             D.% Currin%null%1,             C.% Engelbrecht%null%1,             W.% Tapurau%null%1,             L.% Emmerton%null%1,             M.% Martin%null%1,             M. G.% Baker%null%1,             S.% Taylor%null%1,             A.% Trenholme%null%1,             C.% Wong%null%1,             S.% Lawrence%null%1,             C.% McArthur%null%1,             A.% Stanley%null%1,             S.% Roberts%null%1,             F.% Ranama%null%1,             J.% Bennett%null%1,             C.% Mansell%null%1,             M.% Dilcher%null%1,             A.% Werno%null%1,             J.% Grant%null%1,            couldn't find firstname% v %null%1,           S.%Huang%null%1,           T.% Wood%null%1,           L.% Jelley%null%1,           T.% Jennings%null%1,           S.% Jeffries%null%1,           K.% Daniels%null%1,           A.% Nesdale%null%1,           T.% Dowell%null%1,           N.% Turner%null%1,           P.% Campbell-Stokes%null%1,           M.% Balm%null%1,           H. C.% Dobinson%null%1,           C. C.% Grant%null%1,           S.% James%null%1,           N.% Aminisani%null%1,           J.% Ralston%null%1,           W.% Gunn%null%1,           J.% Bucacao%null%1,           J.% Danielewicz%null%1,           T.% Moncrieff%null%1,           A.% McNeill%null%1,           L.% Lopez%null%1,           B.% Waite%null%1,           T.% Kiedrzynski%null%1,           H.% Schrader%null%1,           R.% Gray%null%1,           K.% Cook%null%1,           D.% Currin%null%1,           C.% Engelbrecht%null%1,           W.% Tapurau%null%1,           L.% Emmerton%null%1,           M.% Martin%null%1,           M. G.% Baker%null%1,           S.% Taylor%null%1,           A.% Trenholme%null%1,           C.% Wong%null%1,           S.% Lawrence%null%1,           C.% McArthur%null%1,           A.% Stanley%null%1,           S.% Roberts%null%1,           F.% Ranama%null%1,           J.% Bennett%null%1,           C.% Mansell%null%1,           M.% Dilcher%null%1,           A.% Werno%null%1,           J.% Grant%null%1,          couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,            Ya%Li%NULL%1,            Mingli%Han%NULL%1,            Zhenhua%Wang%NULL%1,            Yuhang%Zhang%NULL%1,            Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,            Yiran%Hu%NULL%1,            Li%Dong%NULL%1,            Qi%Shu%NULL%1,            Mingyang%Zhu%NULL%1,            Yuping%Li%NULL%1,            Chengshui%Chen%NULL%1,            Hongchang%Gao%gaohc27@wmu.edu.cn%1,            Li%Yang%taiyang2630@163.com%0,            Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,            Yingying%Hu%NULL%2,            Yingying%Hu%NULL%0,            Yuanyuan%Yu%NULL%1,            Xiaodong%Zhang%NULL%1,            Bin%Li%NULL%1,            Jianguo%Wu%NULL%1,            Junyu%Li%NULL%1,            Yingping%Wu%NULL%1,            Xiaoping%Xia%NULL%2,            Xiaoping%Xia%NULL%0,            Huina%Tang%NULL%1,            Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,            Shui-Bao%Xu%NULL%0,            Yi-Xiao%Lin%NULL%0,            Di%Tian%NULL%0,            Zhao-Qin%Zhu%NULL%0,            Fa-Hui%Dai%NULL%0,            Fan%Wu%NULL%0,            Zhi-Gang%Song%NULL%0,            Wei%Huang%NULL%0,            Jun%Chen%NULL%0,            Bi-Jie%Hu%NULL%0,            Sheng%Wang%NULL%0,            En-Qiang%Mao%NULL%0,            Lei%Zhu%NULL%0,            Wen-Hong%Zhang%NULL%0,            Hong-Zhou%Lu%NULL%0,            Peng%Lyu%NULL%0,            Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,            Yi Xin%Tong%NULL%0,            Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,            Wee Chian%Koh%NULL%2,            Wee Chian%Koh%NULL%0,            Riamiza Natalie%Momin%NULL%2,            Riamiza Natalie%Momin%NULL%0,            Mohammad Fathi%Alikhan%NULL%1,            Noraskhin%Fadillah%NULL%1,            Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,            Xinyi%Liu%NULL%1,            Jianjun%Liu%NULL%1,            Han%Liao%NULL%1,            Sixuan%Long%NULL%1,            Ning%Zhou%NULL%0,            Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,            Zhenyu%Pan%NULL%0,            Yunbao%Pan%NULL%0,            Qiaoling%Deng%NULL%0,            Liangjun%Chen%NULL%0,            Jin%Li%NULL%0,            Yirong%Li%NULL%0,            Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,            Zongqiu%Chen%NULL%1,            Chenghua%Gong%NULL%1,            Hui%Liu%NULL%1,            Baisheng%Li%NULL%1,            Kuibiao%Li%NULL%1,            Xi%Chen%NULL%4,            Conghui%Xu%NULL%1,            Qinlong%Jing%NULL%1,            Guocong%Liu%NULL%1,            Pengzhe%Qin%NULL%1,            Yufei%Liu%NULL%1,            Yi%Zhong%NULL%1,            Lijuan%Huang%NULL%1,            Bao-Ping%Zhu%NULL%1,            Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,            Xiao-Bo%Wang%NULL%1,            Xiang-Hong%Jin%NULL%1,            Wen-Yue%Liu%NULL%1,            Feng%Gao%NULL%1,            Yong-Ping%Chen%NULL%1,            Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,             Xuejiao%Liao%NULL%1,             Tongyang%Xiao%NULL%1,             Shen%Qian%NULL%1,             Jing%Yuan%NULL%1,             Haocheng%Ye%NULL%1,             Furong%Qi%NULL%1,             Chengguang%Shen%NULL%1,             Lifei%Wang%NULL%1,             Yang%Liu%NULL%1,             Xiaoya%Cheng%NULL%1,             Na%Li%NULL%1,             Qingxian%Cai%NULL%1,             Fang%Wang%NULL%1,             Jun%Chen%NULL%0,             Guojun%Li%NULL%1,             Qiu’e%Cai%NULL%1,             Yingxia%Liu%NULL%0,             Yunfang%Wang%NULL%1,             Feng%Zhang%NULL%1,             Yang%Fu%NULL%1,             Qing%He%NULL%1,             Xiaohua%Tan%NULL%1,             Lei%Liu%NULL%0,             Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,             Xiaoping%Xu%NULL%1,             Jing%Hu%NULL%1,             Qiangda%Chen%NULL%1,             Fengfeng%Xu%NULL%1,             Hui%Liang%NULL%1,             Nanmei%Liu%NULL%1,             Hengmei%Zhu%NULL%1,             Jinlong%Lan%NULL%1,             Lan%Zhou%NULL%1,             Jiajun%Xing%NULL%1,             Ning%Pu%NULL%1,             Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,             Tim%Wood%NULL%1,             Lauren%Jelley%NULL%1,             Tineke%Jennings%NULL%1,             Sarah%Jefferies%NULL%1,             Karen%Daniells%NULL%1,             Annette%Nesdale%NULL%1,             Tony%Dowell%NULL%1,             Nikki%Turner%NULL%1,             Priscilla%Campbell-Stokes%NULL%1,             Michelle%Balm%NULL%1,             Hazel C%Dobinson%NULL%1,             Cameron C.%Grant%NULL%1,             Shelley%James%NULL%1,             Nayyereh%Aminisani%NULL%1,             Jacqui%Ralston%NULL%1,             Wendy%Gunn%NULL%1,             Judy%Bocacao%NULL%1,             Jessica%Danielewicz%NULL%1,             Tessa%Moncrieff%NULL%1,             Andrea%McNeill%NULL%1,             Liza%Lopez%NULL%1,             Ben%Waite%NULL%1,             Tomasz%Kiedrzynski%NULL%1,             Hannah%Schrader%NULL%1,             Rebekah%Gray%NULL%1,             Kayla%Cook%NULL%1,             Danielle%Currin%NULL%1,             Chaune%Engelbrecht%NULL%1,             Whitney%Tapurau%NULL%1,             Leigh%Emmerton%NULL%1,             Maxine%Martin%NULL%1,             Michael G.%Baker%NULL%1,             Susan%Taylor%NULL%1,             Adrian%Trenholme%NULL%1,             Conroy%Wong%NULL%1,             Shirley%Lawrence%NULL%1,             Colin%McArthur%NULL%1,             Alicia%Stanley%NULL%1,             Sally%Roberts%NULL%1,             Fahimeh%Ranama%NULL%1,             Jenny%Bennett%NULL%1,             Chris%Mansell%NULL%1,             Meik%Dilcher%NULL%1,             Anja%Werno%NULL%1,             Jennifer%Grant%NULL%1,             Antje%van der Linden%NULL%1,             Ben%Youngblood%NULL%1,             Paul G.%Thomas%NULL%1,             Richard J.%Webby%NULL%1,              S.%Huang%null%1,              T.% Wood%null%1,              L.% Jelley%null%1,              T.% Jennings%null%1,              S.% Jeffries%null%1,              K.% Daniels%null%1,              A.% Nesdale%null%1,              T.% Dowell%null%1,              N.% Turner%null%1,              P.% Campbell-Stokes%null%1,              M.% Balm%null%1,              H. C.% Dobinson%null%1,              C. C.% Grant%null%1,              S.% James%null%1,              N.% Aminisani%null%1,              J.% Ralston%null%1,              W.% Gunn%null%1,              J.% Bucacao%null%1,              J.% Danielewicz%null%1,              T.% Moncrieff%null%1,              A.% McNeill%null%1,              L.% Lopez%null%1,              B.% Waite%null%1,              T.% Kiedrzynski%null%1,              H.% Schrader%null%1,              R.% Gray%null%1,              K.% Cook%null%1,              D.% Currin%null%1,              C.% Engelbrecht%null%1,              W.% Tapurau%null%1,              L.% Emmerton%null%1,              M.% Martin%null%1,              M. G.% Baker%null%1,              S.% Taylor%null%1,              A.% Trenholme%null%1,              C.% Wong%null%1,              S.% Lawrence%null%1,              C.% McArthur%null%1,              A.% Stanley%null%1,              S.% Roberts%null%1,              F.% Ranama%null%1,              J.% Bennett%null%1,              C.% Mansell%null%1,              M.% Dilcher%null%1,              A.% Werno%null%1,              J.% Grant%null%1,             couldn't find firstname% v %null%1,            S.%Huang%null%1,            T.% Wood%null%1,            L.% Jelley%null%1,            T.% Jennings%null%1,            S.% Jeffries%null%1,            K.% Daniels%null%1,            A.% Nesdale%null%1,            T.% Dowell%null%1,            N.% Turner%null%1,            P.% Campbell-Stokes%null%1,            M.% Balm%null%1,            H. C.% Dobinson%null%1,            C. C.% Grant%null%1,            S.% James%null%1,            N.% Aminisani%null%1,            J.% Ralston%null%1,            W.% Gunn%null%1,            J.% Bucacao%null%1,            J.% Danielewicz%null%1,            T.% Moncrieff%null%1,            A.% McNeill%null%1,            L.% Lopez%null%1,            B.% Waite%null%1,            T.% Kiedrzynski%null%1,            H.% Schrader%null%1,            R.% Gray%null%1,            K.% Cook%null%1,            D.% Currin%null%1,            C.% Engelbrecht%null%1,            W.% Tapurau%null%1,            L.% Emmerton%null%1,            M.% Martin%null%1,            M. G.% Baker%null%1,            S.% Taylor%null%1,            A.% Trenholme%null%1,            C.% Wong%null%1,            S.% Lawrence%null%1,            C.% McArthur%null%1,            A.% Stanley%null%1,            S.% Roberts%null%1,            F.% Ranama%null%1,            J.% Bennett%null%1,            C.% Mansell%null%1,            M.% Dilcher%null%1,            A.% Werno%null%1,            J.% Grant%null%1,           couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,             Ya%Li%NULL%1,             Mingli%Han%NULL%1,             Zhenhua%Wang%NULL%1,             Yuhang%Zhang%NULL%1,             Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,             Yiran%Hu%NULL%1,             Li%Dong%NULL%1,             Qi%Shu%NULL%1,             Mingyang%Zhu%NULL%1,             Yuping%Li%NULL%1,             Chengshui%Chen%NULL%1,             Hongchang%Gao%gaohc27@wmu.edu.cn%1,             Li%Yang%taiyang2630@163.com%0,             Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,             Yingying%Hu%NULL%2,             Yingying%Hu%NULL%0,             Yuanyuan%Yu%NULL%1,             Xiaodong%Zhang%NULL%1,             Bin%Li%NULL%1,             Jianguo%Wu%NULL%1,             Junyu%Li%NULL%1,             Yingping%Wu%NULL%1,             Xiaoping%Xia%NULL%2,             Xiaoping%Xia%NULL%0,             Huina%Tang%NULL%1,             Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,             Shui-Bao%Xu%NULL%0,             Yi-Xiao%Lin%NULL%0,             Di%Tian%NULL%0,             Zhao-Qin%Zhu%NULL%0,             Fa-Hui%Dai%NULL%0,             Fan%Wu%NULL%0,             Zhi-Gang%Song%NULL%0,             Wei%Huang%NULL%0,             Jun%Chen%NULL%0,             Bi-Jie%Hu%NULL%0,             Sheng%Wang%NULL%0,             En-Qiang%Mao%NULL%0,             Lei%Zhu%NULL%0,             Wen-Hong%Zhang%NULL%0,             Hong-Zhou%Lu%NULL%0,             Peng%Lyu%NULL%0,             Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,             Yi Xin%Tong%NULL%0,             Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,             Wee Chian%Koh%NULL%2,             Wee Chian%Koh%NULL%0,             Riamiza Natalie%Momin%NULL%2,             Riamiza Natalie%Momin%NULL%0,             Mohammad Fathi%Alikhan%NULL%1,             Noraskhin%Fadillah%NULL%1,             Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,             Xinyi%Liu%NULL%1,             Jianjun%Liu%NULL%1,             Han%Liao%NULL%1,             Sixuan%Long%NULL%1,             Ning%Zhou%NULL%0,             Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,             Zhenyu%Pan%NULL%0,             Yunbao%Pan%NULL%0,             Qiaoling%Deng%NULL%0,             Liangjun%Chen%NULL%0,             Jin%Li%NULL%0,             Yirong%Li%NULL%0,             Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,             Zongqiu%Chen%NULL%1,             Chenghua%Gong%NULL%1,             Hui%Liu%NULL%1,             Baisheng%Li%NULL%1,             Kuibiao%Li%NULL%1,             Xi%Chen%NULL%4,             Conghui%Xu%NULL%1,             Qinlong%Jing%NULL%1,             Guocong%Liu%NULL%1,             Pengzhe%Qin%NULL%1,             Yufei%Liu%NULL%1,             Yi%Zhong%NULL%1,             Lijuan%Huang%NULL%1,             Bao-Ping%Zhu%NULL%1,             Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,             Xiao-Bo%Wang%NULL%1,             Xiang-Hong%Jin%NULL%1,             Wen-Yue%Liu%NULL%1,             Feng%Gao%NULL%1,             Yong-Ping%Chen%NULL%1,             Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1240,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1191,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1220,7 +1298,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1249,7 +1327,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1278,7 +1356,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1307,7 +1385,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1336,7 +1414,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1365,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1394,7 +1472,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1423,7 +1501,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1452,7 +1530,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1481,7 +1559,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1510,7 +1588,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1539,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="265">
   <si>
     <t>Doi</t>
   </si>
@@ -881,6 +881,45 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,             Xiao-Bo%Wang%NULL%1,             Xiang-Hong%Jin%NULL%1,             Wen-Yue%Liu%NULL%1,             Feng%Gao%NULL%1,             Yong-Ping%Chen%NULL%1,             Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,              Xuejiao%Liao%NULL%1,              Tongyang%Xiao%NULL%1,              Shen%Qian%NULL%1,              Jing%Yuan%NULL%1,              Haocheng%Ye%NULL%1,              Furong%Qi%NULL%1,              Chengguang%Shen%NULL%1,              Lifei%Wang%NULL%1,              Yang%Liu%NULL%1,              Xiaoya%Cheng%NULL%1,              Na%Li%NULL%1,              Qingxian%Cai%NULL%1,              Fang%Wang%NULL%1,              Jun%Chen%NULL%0,              Guojun%Li%NULL%1,              Qiu’e%Cai%NULL%1,              Yingxia%Liu%NULL%0,              Yunfang%Wang%NULL%1,              Feng%Zhang%NULL%1,              Yang%Fu%NULL%1,              Qing%He%NULL%1,              Xiaohua%Tan%NULL%1,              Lei%Liu%NULL%0,              Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,              Xiaoping%Xu%NULL%1,              Jing%Hu%NULL%1,              Qiangda%Chen%NULL%1,              Fengfeng%Xu%NULL%1,              Hui%Liang%NULL%1,              Nanmei%Liu%NULL%1,              Hengmei%Zhu%NULL%1,              Jinlong%Lan%NULL%1,              Lan%Zhou%NULL%1,              Jiajun%Xing%NULL%1,              Ning%Pu%NULL%1,              Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,              Tim%Wood%NULL%1,              Lauren%Jelley%NULL%1,              Tineke%Jennings%NULL%1,              Sarah%Jefferies%NULL%1,              Karen%Daniells%NULL%1,              Annette%Nesdale%NULL%1,              Tony%Dowell%NULL%1,              Nikki%Turner%NULL%1,              Priscilla%Campbell-Stokes%NULL%1,              Michelle%Balm%NULL%1,              Hazel C%Dobinson%NULL%1,              Cameron C.%Grant%NULL%1,              Shelley%James%NULL%1,              Nayyereh%Aminisani%NULL%1,              Jacqui%Ralston%NULL%1,              Wendy%Gunn%NULL%1,              Judy%Bocacao%NULL%1,              Jessica%Danielewicz%NULL%1,              Tessa%Moncrieff%NULL%1,              Andrea%McNeill%NULL%1,              Liza%Lopez%NULL%1,              Ben%Waite%NULL%1,              Tomasz%Kiedrzynski%NULL%1,              Hannah%Schrader%NULL%1,              Rebekah%Gray%NULL%1,              Kayla%Cook%NULL%1,              Danielle%Currin%NULL%1,              Chaune%Engelbrecht%NULL%1,              Whitney%Tapurau%NULL%1,              Leigh%Emmerton%NULL%1,              Maxine%Martin%NULL%1,              Michael G.%Baker%NULL%1,              Susan%Taylor%NULL%1,              Adrian%Trenholme%NULL%1,              Conroy%Wong%NULL%1,              Shirley%Lawrence%NULL%1,              Colin%McArthur%NULL%1,              Alicia%Stanley%NULL%1,              Sally%Roberts%NULL%1,              Fahimeh%Ranama%NULL%1,              Jenny%Bennett%NULL%1,              Chris%Mansell%NULL%1,              Meik%Dilcher%NULL%1,              Anja%Werno%NULL%1,              Jennifer%Grant%NULL%1,              Antje%van der Linden%NULL%1,              Ben%Youngblood%NULL%1,              Paul G.%Thomas%NULL%1,              Richard J.%Webby%NULL%1,               S.%Huang%null%1,               T.% Wood%null%1,               L.% Jelley%null%1,               T.% Jennings%null%1,               S.% Jeffries%null%1,               K.% Daniels%null%1,               A.% Nesdale%null%1,               T.% Dowell%null%1,               N.% Turner%null%1,               P.% Campbell-Stokes%null%1,               M.% Balm%null%1,               H. C.% Dobinson%null%1,               C. C.% Grant%null%1,               S.% James%null%1,               N.% Aminisani%null%1,               J.% Ralston%null%1,               W.% Gunn%null%1,               J.% Bucacao%null%1,               J.% Danielewicz%null%1,               T.% Moncrieff%null%1,               A.% McNeill%null%1,               L.% Lopez%null%1,               B.% Waite%null%1,               T.% Kiedrzynski%null%1,               H.% Schrader%null%1,               R.% Gray%null%1,               K.% Cook%null%1,               D.% Currin%null%1,               C.% Engelbrecht%null%1,               W.% Tapurau%null%1,               L.% Emmerton%null%1,               M.% Martin%null%1,               M. G.% Baker%null%1,               S.% Taylor%null%1,               A.% Trenholme%null%1,               C.% Wong%null%1,               S.% Lawrence%null%1,               C.% McArthur%null%1,               A.% Stanley%null%1,               S.% Roberts%null%1,               F.% Ranama%null%1,               J.% Bennett%null%1,               C.% Mansell%null%1,               M.% Dilcher%null%1,               A.% Werno%null%1,               J.% Grant%null%1,              couldn't find firstname% v %null%1,             S.%Huang%null%1,             T.% Wood%null%1,             L.% Jelley%null%1,             T.% Jennings%null%1,             S.% Jeffries%null%1,             K.% Daniels%null%1,             A.% Nesdale%null%1,             T.% Dowell%null%1,             N.% Turner%null%1,             P.% Campbell-Stokes%null%1,             M.% Balm%null%1,             H. C.% Dobinson%null%1,             C. C.% Grant%null%1,             S.% James%null%1,             N.% Aminisani%null%1,             J.% Ralston%null%1,             W.% Gunn%null%1,             J.% Bucacao%null%1,             J.% Danielewicz%null%1,             T.% Moncrieff%null%1,             A.% McNeill%null%1,             L.% Lopez%null%1,             B.% Waite%null%1,             T.% Kiedrzynski%null%1,             H.% Schrader%null%1,             R.% Gray%null%1,             K.% Cook%null%1,             D.% Currin%null%1,             C.% Engelbrecht%null%1,             W.% Tapurau%null%1,             L.% Emmerton%null%1,             M.% Martin%null%1,             M. G.% Baker%null%1,             S.% Taylor%null%1,             A.% Trenholme%null%1,             C.% Wong%null%1,             S.% Lawrence%null%1,             C.% McArthur%null%1,             A.% Stanley%null%1,             S.% Roberts%null%1,             F.% Ranama%null%1,             J.% Bennett%null%1,             C.% Mansell%null%1,             M.% Dilcher%null%1,             A.% Werno%null%1,             J.% Grant%null%1,            couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,              Ya%Li%NULL%1,              Mingli%Han%NULL%1,              Zhenhua%Wang%NULL%1,              Yuhang%Zhang%NULL%1,              Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,              Yiran%Hu%NULL%1,              Li%Dong%NULL%1,              Qi%Shu%NULL%1,              Mingyang%Zhu%NULL%1,              Yuping%Li%NULL%1,              Chengshui%Chen%NULL%1,              Hongchang%Gao%gaohc27@wmu.edu.cn%1,              Li%Yang%taiyang2630@163.com%0,              Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,              Yingying%Hu%NULL%2,              Yingying%Hu%NULL%0,              Yuanyuan%Yu%NULL%1,              Xiaodong%Zhang%NULL%1,              Bin%Li%NULL%1,              Jianguo%Wu%NULL%1,              Junyu%Li%NULL%1,              Yingping%Wu%NULL%1,              Xiaoping%Xia%NULL%2,              Xiaoping%Xia%NULL%0,              Huina%Tang%NULL%1,              Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,              Shui-Bao%Xu%NULL%0,              Yi-Xiao%Lin%NULL%0,              Di%Tian%NULL%0,              Zhao-Qin%Zhu%NULL%0,              Fa-Hui%Dai%NULL%0,              Fan%Wu%NULL%0,              Zhi-Gang%Song%NULL%0,              Wei%Huang%NULL%0,              Jun%Chen%NULL%0,              Bi-Jie%Hu%NULL%0,              Sheng%Wang%NULL%0,              En-Qiang%Mao%NULL%0,              Lei%Zhu%NULL%0,              Wen-Hong%Zhang%NULL%0,              Hong-Zhou%Lu%NULL%0,              Peng%Lyu%NULL%0,              Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,              Yi Xin%Tong%NULL%0,              Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,              Wee Chian%Koh%NULL%2,              Wee Chian%Koh%NULL%0,              Riamiza Natalie%Momin%NULL%2,              Riamiza Natalie%Momin%NULL%0,              Mohammad Fathi%Alikhan%NULL%1,              Noraskhin%Fadillah%NULL%1,              Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,              Xinyi%Liu%NULL%1,              Jianjun%Liu%NULL%1,              Han%Liao%NULL%1,              Sixuan%Long%NULL%1,              Ning%Zhou%NULL%0,              Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,              Zhenyu%Pan%NULL%0,              Yunbao%Pan%NULL%0,              Qiaoling%Deng%NULL%0,              Liangjun%Chen%NULL%0,              Jin%Li%NULL%0,              Yirong%Li%NULL%0,              Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,              Zongqiu%Chen%NULL%1,              Chenghua%Gong%NULL%1,              Hui%Liu%NULL%1,              Baisheng%Li%NULL%1,              Kuibiao%Li%NULL%1,              Xi%Chen%NULL%4,              Conghui%Xu%NULL%1,              Qinlong%Jing%NULL%1,              Guocong%Liu%NULL%1,              Pengzhe%Qin%NULL%1,              Yufei%Liu%NULL%1,              Yi%Zhong%NULL%1,              Lijuan%Huang%NULL%1,              Bao-Ping%Zhu%NULL%1,              Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,              Xiao-Bo%Wang%NULL%1,              Xiang-Hong%Jin%NULL%1,              Wen-Yue%Liu%NULL%1,              Feng%Gao%NULL%1,              Yong-Ping%Chen%NULL%1,              Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1279,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1269,7 +1308,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1298,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1327,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1356,7 +1395,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1385,7 +1424,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1414,7 +1453,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1443,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1472,7 +1511,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1501,7 +1540,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1530,7 +1569,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1559,7 +1598,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1588,7 +1627,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1617,7 +1656,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="278">
   <si>
     <t>Doi</t>
   </si>
@@ -920,6 +920,45 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,              Xiao-Bo%Wang%NULL%1,              Xiang-Hong%Jin%NULL%1,              Wen-Yue%Liu%NULL%1,              Feng%Gao%NULL%1,              Yong-Ping%Chen%NULL%1,              Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,               Xuejiao%Liao%NULL%1,               Tongyang%Xiao%NULL%1,               Shen%Qian%NULL%1,               Jing%Yuan%NULL%1,               Haocheng%Ye%NULL%1,               Furong%Qi%NULL%1,               Chengguang%Shen%NULL%1,               Lifei%Wang%NULL%1,               Yang%Liu%NULL%1,               Xiaoya%Cheng%NULL%1,               Na%Li%NULL%1,               Qingxian%Cai%NULL%1,               Fang%Wang%NULL%1,               Jun%Chen%NULL%0,               Guojun%Li%NULL%1,               Qiu’e%Cai%NULL%1,               Yingxia%Liu%NULL%0,               Yunfang%Wang%NULL%1,               Feng%Zhang%NULL%1,               Yang%Fu%NULL%1,               Qing%He%NULL%1,               Xiaohua%Tan%NULL%1,               Lei%Liu%NULL%0,               Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,               Xiaoping%Xu%NULL%1,               Jing%Hu%NULL%1,               Qiangda%Chen%NULL%1,               Fengfeng%Xu%NULL%1,               Hui%Liang%NULL%1,               Nanmei%Liu%NULL%1,               Hengmei%Zhu%NULL%1,               Jinlong%Lan%NULL%1,               Lan%Zhou%NULL%1,               Jiajun%Xing%NULL%1,               Ning%Pu%NULL%1,               Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,               Tim%Wood%NULL%1,               Lauren%Jelley%NULL%1,               Tineke%Jennings%NULL%1,               Sarah%Jefferies%NULL%1,               Karen%Daniells%NULL%1,               Annette%Nesdale%NULL%1,               Tony%Dowell%NULL%1,               Nikki%Turner%NULL%1,               Priscilla%Campbell-Stokes%NULL%1,               Michelle%Balm%NULL%1,               Hazel C%Dobinson%NULL%1,               Cameron C.%Grant%NULL%1,               Shelley%James%NULL%1,               Nayyereh%Aminisani%NULL%1,               Jacqui%Ralston%NULL%1,               Wendy%Gunn%NULL%1,               Judy%Bocacao%NULL%1,               Jessica%Danielewicz%NULL%1,               Tessa%Moncrieff%NULL%1,               Andrea%McNeill%NULL%1,               Liza%Lopez%NULL%1,               Ben%Waite%NULL%1,               Tomasz%Kiedrzynski%NULL%1,               Hannah%Schrader%NULL%1,               Rebekah%Gray%NULL%1,               Kayla%Cook%NULL%1,               Danielle%Currin%NULL%1,               Chaune%Engelbrecht%NULL%1,               Whitney%Tapurau%NULL%1,               Leigh%Emmerton%NULL%1,               Maxine%Martin%NULL%1,               Michael G.%Baker%NULL%1,               Susan%Taylor%NULL%1,               Adrian%Trenholme%NULL%1,               Conroy%Wong%NULL%1,               Shirley%Lawrence%NULL%1,               Colin%McArthur%NULL%1,               Alicia%Stanley%NULL%1,               Sally%Roberts%NULL%1,               Fahimeh%Ranama%NULL%1,               Jenny%Bennett%NULL%1,               Chris%Mansell%NULL%1,               Meik%Dilcher%NULL%1,               Anja%Werno%NULL%1,               Jennifer%Grant%NULL%1,               Antje%van der Linden%NULL%1,               Ben%Youngblood%NULL%1,               Paul G.%Thomas%NULL%1,               Richard J.%Webby%NULL%1,                S.%Huang%null%1,                T.% Wood%null%1,                L.% Jelley%null%1,                T.% Jennings%null%1,                S.% Jeffries%null%1,                K.% Daniels%null%1,                A.% Nesdale%null%1,                T.% Dowell%null%1,                N.% Turner%null%1,                P.% Campbell-Stokes%null%1,                M.% Balm%null%1,                H. C.% Dobinson%null%1,                C. C.% Grant%null%1,                S.% James%null%1,                N.% Aminisani%null%1,                J.% Ralston%null%1,                W.% Gunn%null%1,                J.% Bucacao%null%1,                J.% Danielewicz%null%1,                T.% Moncrieff%null%1,                A.% McNeill%null%1,                L.% Lopez%null%1,                B.% Waite%null%1,                T.% Kiedrzynski%null%1,                H.% Schrader%null%1,                R.% Gray%null%1,                K.% Cook%null%1,                D.% Currin%null%1,                C.% Engelbrecht%null%1,                W.% Tapurau%null%1,                L.% Emmerton%null%1,                M.% Martin%null%1,                M. G.% Baker%null%1,                S.% Taylor%null%1,                A.% Trenholme%null%1,                C.% Wong%null%1,                S.% Lawrence%null%1,                C.% McArthur%null%1,                A.% Stanley%null%1,                S.% Roberts%null%1,                F.% Ranama%null%1,                J.% Bennett%null%1,                C.% Mansell%null%1,                M.% Dilcher%null%1,                A.% Werno%null%1,                J.% Grant%null%1,               couldn't find firstname% v %null%1,              S.%Huang%null%1,              T.% Wood%null%1,              L.% Jelley%null%1,              T.% Jennings%null%1,              S.% Jeffries%null%1,              K.% Daniels%null%1,              A.% Nesdale%null%1,              T.% Dowell%null%1,              N.% Turner%null%1,              P.% Campbell-Stokes%null%1,              M.% Balm%null%1,              H. C.% Dobinson%null%1,              C. C.% Grant%null%1,              S.% James%null%1,              N.% Aminisani%null%1,              J.% Ralston%null%1,              W.% Gunn%null%1,              J.% Bucacao%null%1,              J.% Danielewicz%null%1,              T.% Moncrieff%null%1,              A.% McNeill%null%1,              L.% Lopez%null%1,              B.% Waite%null%1,              T.% Kiedrzynski%null%1,              H.% Schrader%null%1,              R.% Gray%null%1,              K.% Cook%null%1,              D.% Currin%null%1,              C.% Engelbrecht%null%1,              W.% Tapurau%null%1,              L.% Emmerton%null%1,              M.% Martin%null%1,              M. G.% Baker%null%1,              S.% Taylor%null%1,              A.% Trenholme%null%1,              C.% Wong%null%1,              S.% Lawrence%null%1,              C.% McArthur%null%1,              A.% Stanley%null%1,              S.% Roberts%null%1,              F.% Ranama%null%1,              J.% Bennett%null%1,              C.% Mansell%null%1,              M.% Dilcher%null%1,              A.% Werno%null%1,              J.% Grant%null%1,             couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,               Ya%Li%NULL%1,               Mingli%Han%NULL%1,               Zhenhua%Wang%NULL%1,               Yuhang%Zhang%NULL%1,               Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,               Yiran%Hu%NULL%1,               Li%Dong%NULL%1,               Qi%Shu%NULL%1,               Mingyang%Zhu%NULL%1,               Yuping%Li%NULL%1,               Chengshui%Chen%NULL%1,               Hongchang%Gao%gaohc27@wmu.edu.cn%1,               Li%Yang%taiyang2630@163.com%0,               Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,               Yingying%Hu%NULL%2,               Yingying%Hu%NULL%0,               Yuanyuan%Yu%NULL%1,               Xiaodong%Zhang%NULL%1,               Bin%Li%NULL%1,               Jianguo%Wu%NULL%1,               Junyu%Li%NULL%1,               Yingping%Wu%NULL%1,               Xiaoping%Xia%NULL%2,               Xiaoping%Xia%NULL%0,               Huina%Tang%NULL%1,               Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,               Shui-Bao%Xu%NULL%0,               Yi-Xiao%Lin%NULL%0,               Di%Tian%NULL%0,               Zhao-Qin%Zhu%NULL%0,               Fa-Hui%Dai%NULL%0,               Fan%Wu%NULL%0,               Zhi-Gang%Song%NULL%0,               Wei%Huang%NULL%0,               Jun%Chen%NULL%0,               Bi-Jie%Hu%NULL%0,               Sheng%Wang%NULL%0,               En-Qiang%Mao%NULL%0,               Lei%Zhu%NULL%0,               Wen-Hong%Zhang%NULL%0,               Hong-Zhou%Lu%NULL%0,               Peng%Lyu%NULL%0,               Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,               Yi Xin%Tong%NULL%0,               Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,               Wee Chian%Koh%NULL%2,               Wee Chian%Koh%NULL%0,               Riamiza Natalie%Momin%NULL%2,               Riamiza Natalie%Momin%NULL%0,               Mohammad Fathi%Alikhan%NULL%1,               Noraskhin%Fadillah%NULL%1,               Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,               Xinyi%Liu%NULL%1,               Jianjun%Liu%NULL%1,               Han%Liao%NULL%1,               Sixuan%Long%NULL%1,               Ning%Zhou%NULL%0,               Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,               Zhenyu%Pan%NULL%0,               Yunbao%Pan%NULL%0,               Qiaoling%Deng%NULL%0,               Liangjun%Chen%NULL%0,               Jin%Li%NULL%0,               Yirong%Li%NULL%0,               Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,               Zongqiu%Chen%NULL%1,               Chenghua%Gong%NULL%1,               Hui%Liu%NULL%1,               Baisheng%Li%NULL%1,               Kuibiao%Li%NULL%1,               Xi%Chen%NULL%4,               Conghui%Xu%NULL%1,               Qinlong%Jing%NULL%1,               Guocong%Liu%NULL%1,               Pengzhe%Qin%NULL%1,               Yufei%Liu%NULL%1,               Yi%Zhong%NULL%1,               Lijuan%Huang%NULL%1,               Bao-Ping%Zhu%NULL%1,               Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,               Xiao-Bo%Wang%NULL%1,               Xiang-Hong%Jin%NULL%1,               Wen-Yue%Liu%NULL%1,               Feng%Gao%NULL%1,               Yong-Ping%Chen%NULL%1,               Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1308,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1337,7 +1376,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1366,7 +1405,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1395,7 +1434,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1424,7 +1463,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1453,7 +1492,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1482,7 +1521,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1511,7 +1550,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1540,7 +1579,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1569,7 +1608,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1598,7 +1637,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1627,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1656,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="304">
   <si>
     <t>Doi</t>
   </si>
@@ -959,6 +959,84 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,               Xiao-Bo%Wang%NULL%1,               Xiang-Hong%Jin%NULL%1,               Wen-Yue%Liu%NULL%1,               Feng%Gao%NULL%1,               Yong-Ping%Chen%NULL%1,               Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                Xuejiao%Liao%NULL%1,                Tongyang%Xiao%NULL%1,                Shen%Qian%NULL%1,                Jing%Yuan%NULL%1,                Haocheng%Ye%NULL%1,                Furong%Qi%NULL%1,                Chengguang%Shen%NULL%1,                Lifei%Wang%NULL%1,                Yang%Liu%NULL%1,                Xiaoya%Cheng%NULL%1,                Na%Li%NULL%1,                Qingxian%Cai%NULL%1,                Fang%Wang%NULL%1,                Jun%Chen%NULL%0,                Guojun%Li%NULL%1,                Qiu’e%Cai%NULL%1,                Yingxia%Liu%NULL%0,                Yunfang%Wang%NULL%1,                Feng%Zhang%NULL%1,                Yang%Fu%NULL%1,                Qing%He%NULL%1,                Xiaohua%Tan%NULL%1,                Lei%Liu%NULL%0,                Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%4,                Xiaoping%Xu%NULL%1,                Jing%Hu%NULL%1,                Qiangda%Chen%NULL%1,                Fengfeng%Xu%NULL%1,                Hui%Liang%NULL%1,                Nanmei%Liu%NULL%1,                Hengmei%Zhu%NULL%1,                Jinlong%Lan%NULL%1,                Lan%Zhou%NULL%1,                Jiajun%Xing%NULL%1,                Ning%Pu%NULL%1,                Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                Tim%Wood%NULL%1,                Lauren%Jelley%NULL%1,                Tineke%Jennings%NULL%1,                Sarah%Jefferies%NULL%1,                Karen%Daniells%NULL%1,                Annette%Nesdale%NULL%1,                Tony%Dowell%NULL%1,                Nikki%Turner%NULL%1,                Priscilla%Campbell-Stokes%NULL%1,                Michelle%Balm%NULL%1,                Hazel C%Dobinson%NULL%1,                Cameron C.%Grant%NULL%1,                Shelley%James%NULL%1,                Nayyereh%Aminisani%NULL%1,                Jacqui%Ralston%NULL%1,                Wendy%Gunn%NULL%1,                Judy%Bocacao%NULL%1,                Jessica%Danielewicz%NULL%1,                Tessa%Moncrieff%NULL%1,                Andrea%McNeill%NULL%1,                Liza%Lopez%NULL%1,                Ben%Waite%NULL%1,                Tomasz%Kiedrzynski%NULL%1,                Hannah%Schrader%NULL%1,                Rebekah%Gray%NULL%1,                Kayla%Cook%NULL%1,                Danielle%Currin%NULL%1,                Chaune%Engelbrecht%NULL%1,                Whitney%Tapurau%NULL%1,                Leigh%Emmerton%NULL%1,                Maxine%Martin%NULL%1,                Michael G.%Baker%NULL%1,                Susan%Taylor%NULL%1,                Adrian%Trenholme%NULL%1,                Conroy%Wong%NULL%1,                Shirley%Lawrence%NULL%1,                Colin%McArthur%NULL%1,                Alicia%Stanley%NULL%1,                Sally%Roberts%NULL%1,                Fahimeh%Ranama%NULL%1,                Jenny%Bennett%NULL%1,                Chris%Mansell%NULL%1,                Meik%Dilcher%NULL%1,                Anja%Werno%NULL%1,                Jennifer%Grant%NULL%1,                Antje%van der Linden%NULL%1,                Ben%Youngblood%NULL%1,                Paul G.%Thomas%NULL%1,                Richard J.%Webby%NULL%1,                 S.%Huang%null%1,                 T.% Wood%null%1,                 L.% Jelley%null%1,                 T.% Jennings%null%1,                 S.% Jeffries%null%1,                 K.% Daniels%null%1,                 A.% Nesdale%null%1,                 T.% Dowell%null%1,                 N.% Turner%null%1,                 P.% Campbell-Stokes%null%1,                 M.% Balm%null%1,                 H. C.% Dobinson%null%1,                 C. C.% Grant%null%1,                 S.% James%null%1,                 N.% Aminisani%null%1,                 J.% Ralston%null%1,                 W.% Gunn%null%1,                 J.% Bucacao%null%1,                 J.% Danielewicz%null%1,                 T.% Moncrieff%null%1,                 A.% McNeill%null%1,                 L.% Lopez%null%1,                 B.% Waite%null%1,                 T.% Kiedrzynski%null%1,                 H.% Schrader%null%1,                 R.% Gray%null%1,                 K.% Cook%null%1,                 D.% Currin%null%1,                 C.% Engelbrecht%null%1,                 W.% Tapurau%null%1,                 L.% Emmerton%null%1,                 M.% Martin%null%1,                 M. G.% Baker%null%1,                 S.% Taylor%null%1,                 A.% Trenholme%null%1,                 C.% Wong%null%1,                 S.% Lawrence%null%1,                 C.% McArthur%null%1,                 A.% Stanley%null%1,                 S.% Roberts%null%1,                 F.% Ranama%null%1,                 J.% Bennett%null%1,                 C.% Mansell%null%1,                 M.% Dilcher%null%1,                 A.% Werno%null%1,                 J.% Grant%null%1,                couldn't find firstname% v %null%1,               S.%Huang%null%1,               T.% Wood%null%1,               L.% Jelley%null%1,               T.% Jennings%null%1,               S.% Jeffries%null%1,               K.% Daniels%null%1,               A.% Nesdale%null%1,               T.% Dowell%null%1,               N.% Turner%null%1,               P.% Campbell-Stokes%null%1,               M.% Balm%null%1,               H. C.% Dobinson%null%1,               C. C.% Grant%null%1,               S.% James%null%1,               N.% Aminisani%null%1,               J.% Ralston%null%1,               W.% Gunn%null%1,               J.% Bucacao%null%1,               J.% Danielewicz%null%1,               T.% Moncrieff%null%1,               A.% McNeill%null%1,               L.% Lopez%null%1,               B.% Waite%null%1,               T.% Kiedrzynski%null%1,               H.% Schrader%null%1,               R.% Gray%null%1,               K.% Cook%null%1,               D.% Currin%null%1,               C.% Engelbrecht%null%1,               W.% Tapurau%null%1,               L.% Emmerton%null%1,               M.% Martin%null%1,               M. G.% Baker%null%1,               S.% Taylor%null%1,               A.% Trenholme%null%1,               C.% Wong%null%1,               S.% Lawrence%null%1,               C.% McArthur%null%1,               A.% Stanley%null%1,               S.% Roberts%null%1,               F.% Ranama%null%1,               J.% Bennett%null%1,               C.% Mansell%null%1,               M.% Dilcher%null%1,               A.% Werno%null%1,               J.% Grant%null%1,              couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                Ya%Li%NULL%1,                Mingli%Han%NULL%1,                Zhenhua%Wang%NULL%1,                Yuhang%Zhang%NULL%1,                Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                Yiran%Hu%NULL%1,                Li%Dong%NULL%1,                Qi%Shu%NULL%1,                Mingyang%Zhu%NULL%1,                Yuping%Li%NULL%1,                Chengshui%Chen%NULL%1,                Hongchang%Gao%gaohc27@wmu.edu.cn%1,                Li%Yang%taiyang2630@163.com%0,                Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                Yingying%Hu%NULL%2,                Yingying%Hu%NULL%0,                Yuanyuan%Yu%NULL%1,                Xiaodong%Zhang%NULL%1,                Bin%Li%NULL%1,                Jianguo%Wu%NULL%1,                Junyu%Li%NULL%1,                Yingping%Wu%NULL%1,                Xiaoping%Xia%NULL%2,                Xiaoping%Xia%NULL%0,                Huina%Tang%NULL%1,                Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                Shui-Bao%Xu%NULL%0,                Yi-Xiao%Lin%NULL%0,                Di%Tian%NULL%0,                Zhao-Qin%Zhu%NULL%0,                Fa-Hui%Dai%NULL%0,                Fan%Wu%NULL%0,                Zhi-Gang%Song%NULL%0,                Wei%Huang%NULL%0,                Jun%Chen%NULL%0,                Bi-Jie%Hu%NULL%0,                Sheng%Wang%NULL%0,                En-Qiang%Mao%NULL%0,                Lei%Zhu%NULL%0,                Wen-Hong%Zhang%NULL%0,                Hong-Zhou%Lu%NULL%0,                Peng%Lyu%NULL%0,                Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                Yi Xin%Tong%NULL%0,                Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                Wee Chian%Koh%NULL%2,                Wee Chian%Koh%NULL%0,                Riamiza Natalie%Momin%NULL%2,                Riamiza Natalie%Momin%NULL%0,                Mohammad Fathi%Alikhan%NULL%1,                Noraskhin%Fadillah%NULL%1,                Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                Xinyi%Liu%NULL%1,                Jianjun%Liu%NULL%1,                Han%Liao%NULL%1,                Sixuan%Long%NULL%1,                Ning%Zhou%NULL%0,                Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                Zhenyu%Pan%NULL%0,                Yunbao%Pan%NULL%0,                Qiaoling%Deng%NULL%0,                Liangjun%Chen%NULL%0,                Jin%Li%NULL%0,                Yirong%Li%NULL%0,                Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                Zongqiu%Chen%NULL%1,                Chenghua%Gong%NULL%1,                Hui%Liu%NULL%1,                Baisheng%Li%NULL%1,                Kuibiao%Li%NULL%1,                Xi%Chen%NULL%4,                Conghui%Xu%NULL%1,                Qinlong%Jing%NULL%1,                Guocong%Liu%NULL%1,                Pengzhe%Qin%NULL%1,                Yufei%Liu%NULL%1,                Yi%Zhong%NULL%1,                Lijuan%Huang%NULL%1,                Bao-Ping%Zhu%NULL%1,                Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                Xiao-Bo%Wang%NULL%1,                Xiang-Hong%Jin%NULL%1,                Wen-Yue%Liu%NULL%1,                Feng%Gao%NULL%1,                Yong-Ping%Chen%NULL%1,                Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                 Xuejiao%Liao%NULL%1,                 Tongyang%Xiao%NULL%1,                 Shen%Qian%NULL%1,                 Jing%Yuan%NULL%1,                 Haocheng%Ye%NULL%1,                 Furong%Qi%NULL%1,                 Chengguang%Shen%NULL%1,                 Lifei%Wang%NULL%1,                 Yang%Liu%NULL%1,                 Xiaoya%Cheng%NULL%1,                 Na%Li%NULL%1,                 Qingxian%Cai%NULL%1,                 Fang%Wang%NULL%1,                 Jun%Chen%NULL%0,                 Guojun%Li%NULL%1,                 Qiu’e%Cai%NULL%1,                 Yingxia%Liu%NULL%0,                 Yunfang%Wang%NULL%1,                 Feng%Zhang%NULL%1,                 Yang%Fu%NULL%1,                 Qing%He%NULL%1,                 Xiaohua%Tan%NULL%1,                 Lei%Liu%NULL%0,                 Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                 Xiaoping%Xu%NULL%1,                 Jing%Hu%NULL%1,                 Qiangda%Chen%NULL%1,                 Fengfeng%Xu%NULL%1,                 Hui%Liang%NULL%1,                 Nanmei%Liu%NULL%1,                 Hengmei%Zhu%NULL%1,                 Jinlong%Lan%NULL%1,                 Lan%Zhou%NULL%1,                 Jiajun%Xing%NULL%1,                 Ning%Pu%NULL%1,                 Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                 Tim%Wood%NULL%1,                 Lauren%Jelley%NULL%1,                 Tineke%Jennings%NULL%1,                 Sarah%Jefferies%NULL%1,                 Karen%Daniells%NULL%1,                 Annette%Nesdale%NULL%1,                 Tony%Dowell%NULL%1,                 Nikki%Turner%NULL%1,                 Priscilla%Campbell-Stokes%NULL%1,                 Michelle%Balm%NULL%1,                 Hazel C%Dobinson%NULL%1,                 Cameron C.%Grant%NULL%1,                 Shelley%James%NULL%1,                 Nayyereh%Aminisani%NULL%1,                 Jacqui%Ralston%NULL%1,                 Wendy%Gunn%NULL%1,                 Judy%Bocacao%NULL%1,                 Jessica%Danielewicz%NULL%1,                 Tessa%Moncrieff%NULL%1,                 Andrea%McNeill%NULL%1,                 Liza%Lopez%NULL%1,                 Ben%Waite%NULL%1,                 Tomasz%Kiedrzynski%NULL%1,                 Hannah%Schrader%NULL%1,                 Rebekah%Gray%NULL%1,                 Kayla%Cook%NULL%1,                 Danielle%Currin%NULL%1,                 Chaune%Engelbrecht%NULL%1,                 Whitney%Tapurau%NULL%1,                 Leigh%Emmerton%NULL%1,                 Maxine%Martin%NULL%1,                 Michael G.%Baker%NULL%1,                 Susan%Taylor%NULL%1,                 Adrian%Trenholme%NULL%1,                 Conroy%Wong%NULL%1,                 Shirley%Lawrence%NULL%1,                 Colin%McArthur%NULL%1,                 Alicia%Stanley%NULL%1,                 Sally%Roberts%NULL%1,                 Fahimeh%Ranama%NULL%1,                 Jenny%Bennett%NULL%1,                 Chris%Mansell%NULL%1,                 Meik%Dilcher%NULL%1,                 Anja%Werno%NULL%1,                 Jennifer%Grant%NULL%1,                 Antje%van der Linden%NULL%1,                 Ben%Youngblood%NULL%1,                 Paul G.%Thomas%NULL%1,                 Richard J.%Webby%NULL%1,                  S.%Huang%null%1,                  T.% Wood%null%1,                  L.% Jelley%null%1,                  T.% Jennings%null%1,                  S.% Jeffries%null%1,                  K.% Daniels%null%1,                  A.% Nesdale%null%1,                  T.% Dowell%null%1,                  N.% Turner%null%1,                  P.% Campbell-Stokes%null%1,                  M.% Balm%null%1,                  H. C.% Dobinson%null%1,                  C. C.% Grant%null%1,                  S.% James%null%1,                  N.% Aminisani%null%1,                  J.% Ralston%null%1,                  W.% Gunn%null%1,                  J.% Bucacao%null%1,                  J.% Danielewicz%null%1,                  T.% Moncrieff%null%1,                  A.% McNeill%null%1,                  L.% Lopez%null%1,                  B.% Waite%null%1,                  T.% Kiedrzynski%null%1,                  H.% Schrader%null%1,                  R.% Gray%null%1,                  K.% Cook%null%1,                  D.% Currin%null%1,                  C.% Engelbrecht%null%1,                  W.% Tapurau%null%1,                  L.% Emmerton%null%1,                  M.% Martin%null%1,                  M. G.% Baker%null%1,                  S.% Taylor%null%1,                  A.% Trenholme%null%1,                  C.% Wong%null%1,                  S.% Lawrence%null%1,                  C.% McArthur%null%1,                  A.% Stanley%null%1,                  S.% Roberts%null%1,                  F.% Ranama%null%1,                  J.% Bennett%null%1,                  C.% Mansell%null%1,                  M.% Dilcher%null%1,                  A.% Werno%null%1,                  J.% Grant%null%1,                 couldn't find firstname% v %null%1,                S.%Huang%null%1,                T.% Wood%null%1,                L.% Jelley%null%1,                T.% Jennings%null%1,                S.% Jeffries%null%1,                K.% Daniels%null%1,                A.% Nesdale%null%1,                T.% Dowell%null%1,                N.% Turner%null%1,                P.% Campbell-Stokes%null%1,                M.% Balm%null%1,                H. C.% Dobinson%null%1,                C. C.% Grant%null%1,                S.% James%null%1,                N.% Aminisani%null%1,                J.% Ralston%null%1,                W.% Gunn%null%1,                J.% Bucacao%null%1,                J.% Danielewicz%null%1,                T.% Moncrieff%null%1,                A.% McNeill%null%1,                L.% Lopez%null%1,                B.% Waite%null%1,                T.% Kiedrzynski%null%1,                H.% Schrader%null%1,                R.% Gray%null%1,                K.% Cook%null%1,                D.% Currin%null%1,                C.% Engelbrecht%null%1,                W.% Tapurau%null%1,                L.% Emmerton%null%1,                M.% Martin%null%1,                M. G.% Baker%null%1,                S.% Taylor%null%1,                A.% Trenholme%null%1,                C.% Wong%null%1,                S.% Lawrence%null%1,                C.% McArthur%null%1,                A.% Stanley%null%1,                S.% Roberts%null%1,                F.% Ranama%null%1,                J.% Bennett%null%1,                C.% Mansell%null%1,                M.% Dilcher%null%1,                A.% Werno%null%1,                J.% Grant%null%1,               couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                 Ya%Li%NULL%1,                 Mingli%Han%NULL%1,                 Zhenhua%Wang%NULL%1,                 Yuhang%Zhang%NULL%1,                 Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                 Yiran%Hu%NULL%1,                 Li%Dong%NULL%1,                 Qi%Shu%NULL%1,                 Mingyang%Zhu%NULL%1,                 Yuping%Li%NULL%1,                 Chengshui%Chen%NULL%1,                 Hongchang%Gao%gaohc27@wmu.edu.cn%1,                 Li%Yang%taiyang2630@163.com%0,                 Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                 Yingying%Hu%NULL%2,                 Yingying%Hu%NULL%0,                 Yuanyuan%Yu%NULL%1,                 Xiaodong%Zhang%NULL%1,                 Bin%Li%NULL%1,                 Jianguo%Wu%NULL%1,                 Junyu%Li%NULL%1,                 Yingping%Wu%NULL%1,                 Xiaoping%Xia%NULL%2,                 Xiaoping%Xia%NULL%0,                 Huina%Tang%NULL%1,                 Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                 Shui-Bao%Xu%NULL%0,                 Yi-Xiao%Lin%NULL%0,                 Di%Tian%NULL%0,                 Zhao-Qin%Zhu%NULL%0,                 Fa-Hui%Dai%NULL%0,                 Fan%Wu%NULL%0,                 Zhi-Gang%Song%NULL%0,                 Wei%Huang%NULL%0,                 Jun%Chen%NULL%0,                 Bi-Jie%Hu%NULL%0,                 Sheng%Wang%NULL%0,                 En-Qiang%Mao%NULL%0,                 Lei%Zhu%NULL%0,                 Wen-Hong%Zhang%NULL%0,                 Hong-Zhou%Lu%NULL%0,                 Peng%Lyu%NULL%0,                 Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                 Yi Xin%Tong%NULL%0,                 Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                 Wee Chian%Koh%NULL%2,                 Wee Chian%Koh%NULL%0,                 Riamiza Natalie%Momin%NULL%2,                 Riamiza Natalie%Momin%NULL%0,                 Mohammad Fathi%Alikhan%NULL%1,                 Noraskhin%Fadillah%NULL%1,                 Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                 Xinyi%Liu%NULL%1,                 Jianjun%Liu%NULL%1,                 Han%Liao%NULL%1,                 Sixuan%Long%NULL%1,                 Ning%Zhou%NULL%0,                 Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                 Zhenyu%Pan%NULL%0,                 Yunbao%Pan%NULL%0,                 Qiaoling%Deng%NULL%0,                 Liangjun%Chen%NULL%0,                 Jin%Li%NULL%0,                 Yirong%Li%NULL%0,                 Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                 Zongqiu%Chen%NULL%1,                 Chenghua%Gong%NULL%1,                 Hui%Liu%NULL%1,                 Baisheng%Li%NULL%1,                 Kuibiao%Li%NULL%1,                 Xi%Chen%NULL%4,                 Conghui%Xu%NULL%1,                 Qinlong%Jing%NULL%1,                 Guocong%Liu%NULL%1,                 Pengzhe%Qin%NULL%1,                 Yufei%Liu%NULL%1,                 Yi%Zhong%NULL%1,                 Lijuan%Huang%NULL%1,                 Bao-Ping%Zhu%NULL%1,                 Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                 Xiao-Bo%Wang%NULL%1,                 Xiang-Hong%Jin%NULL%1,                 Wen-Yue%Liu%NULL%1,                 Feng%Gao%NULL%1,                 Yong-Ping%Chen%NULL%1,                 Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1347,7 +1425,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1376,7 +1454,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1405,7 +1483,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1434,7 +1512,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1463,7 +1541,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1492,7 +1570,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1521,7 +1599,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1550,7 +1628,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1579,7 +1657,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1608,7 +1686,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1637,7 +1715,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1666,7 +1744,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1695,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="317">
   <si>
     <t>Doi</t>
   </si>
@@ -1037,6 +1037,45 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,                 Xiao-Bo%Wang%NULL%1,                 Xiang-Hong%Jin%NULL%1,                 Wen-Yue%Liu%NULL%1,                 Feng%Gao%NULL%1,                 Yong-Ping%Chen%NULL%1,                 Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                  Xuejiao%Liao%NULL%1,                  Tongyang%Xiao%NULL%1,                  Shen%Qian%NULL%1,                  Jing%Yuan%NULL%1,                  Haocheng%Ye%NULL%1,                  Furong%Qi%NULL%1,                  Chengguang%Shen%NULL%1,                  Lifei%Wang%NULL%1,                  Yang%Liu%NULL%1,                  Xiaoya%Cheng%NULL%1,                  Na%Li%NULL%1,                  Qingxian%Cai%NULL%1,                  Fang%Wang%NULL%1,                  Jun%Chen%NULL%0,                  Guojun%Li%NULL%1,                  Qiu’e%Cai%NULL%1,                  Yingxia%Liu%NULL%0,                  Yunfang%Wang%NULL%1,                  Feng%Zhang%NULL%1,                  Yang%Fu%NULL%1,                  Qing%He%NULL%1,                  Xiaohua%Tan%NULL%1,                  Lei%Liu%NULL%0,                  Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                  Xiaoping%Xu%NULL%1,                  Jing%Hu%NULL%1,                  Qiangda%Chen%NULL%1,                  Fengfeng%Xu%NULL%1,                  Hui%Liang%NULL%1,                  Nanmei%Liu%NULL%1,                  Hengmei%Zhu%NULL%1,                  Jinlong%Lan%NULL%1,                  Lan%Zhou%NULL%1,                  Jiajun%Xing%NULL%1,                  Ning%Pu%NULL%1,                  Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                  Tim%Wood%NULL%1,                  Lauren%Jelley%NULL%1,                  Tineke%Jennings%NULL%1,                  Sarah%Jefferies%NULL%1,                  Karen%Daniells%NULL%1,                  Annette%Nesdale%NULL%1,                  Tony%Dowell%NULL%1,                  Nikki%Turner%NULL%1,                  Priscilla%Campbell-Stokes%NULL%1,                  Michelle%Balm%NULL%1,                  Hazel C%Dobinson%NULL%1,                  Cameron C.%Grant%NULL%1,                  Shelley%James%NULL%1,                  Nayyereh%Aminisani%NULL%1,                  Jacqui%Ralston%NULL%1,                  Wendy%Gunn%NULL%1,                  Judy%Bocacao%NULL%1,                  Jessica%Danielewicz%NULL%1,                  Tessa%Moncrieff%NULL%1,                  Andrea%McNeill%NULL%1,                  Liza%Lopez%NULL%1,                  Ben%Waite%NULL%1,                  Tomasz%Kiedrzynski%NULL%1,                  Hannah%Schrader%NULL%1,                  Rebekah%Gray%NULL%1,                  Kayla%Cook%NULL%1,                  Danielle%Currin%NULL%1,                  Chaune%Engelbrecht%NULL%1,                  Whitney%Tapurau%NULL%1,                  Leigh%Emmerton%NULL%1,                  Maxine%Martin%NULL%1,                  Michael G.%Baker%NULL%1,                  Susan%Taylor%NULL%1,                  Adrian%Trenholme%NULL%1,                  Conroy%Wong%NULL%1,                  Shirley%Lawrence%NULL%1,                  Colin%McArthur%NULL%1,                  Alicia%Stanley%NULL%1,                  Sally%Roberts%NULL%1,                  Fahimeh%Ranama%NULL%1,                  Jenny%Bennett%NULL%1,                  Chris%Mansell%NULL%1,                  Meik%Dilcher%NULL%1,                  Anja%Werno%NULL%1,                  Jennifer%Grant%NULL%1,                  Antje%van der Linden%NULL%1,                  Ben%Youngblood%NULL%1,                  Paul G.%Thomas%NULL%1,                  Richard J.%Webby%NULL%1,                   S.%Huang%null%1,                   T.% Wood%null%1,                   L.% Jelley%null%1,                   T.% Jennings%null%1,                   S.% Jeffries%null%1,                   K.% Daniels%null%1,                   A.% Nesdale%null%1,                   T.% Dowell%null%1,                   N.% Turner%null%1,                   P.% Campbell-Stokes%null%1,                   M.% Balm%null%1,                   H. C.% Dobinson%null%1,                   C. C.% Grant%null%1,                   S.% James%null%1,                   N.% Aminisani%null%1,                   J.% Ralston%null%1,                   W.% Gunn%null%1,                   J.% Bucacao%null%1,                   J.% Danielewicz%null%1,                   T.% Moncrieff%null%1,                   A.% McNeill%null%1,                   L.% Lopez%null%1,                   B.% Waite%null%1,                   T.% Kiedrzynski%null%1,                   H.% Schrader%null%1,                   R.% Gray%null%1,                   K.% Cook%null%1,                   D.% Currin%null%1,                   C.% Engelbrecht%null%1,                   W.% Tapurau%null%1,                   L.% Emmerton%null%1,                   M.% Martin%null%1,                   M. G.% Baker%null%1,                   S.% Taylor%null%1,                   A.% Trenholme%null%1,                   C.% Wong%null%1,                   S.% Lawrence%null%1,                   C.% McArthur%null%1,                   A.% Stanley%null%1,                   S.% Roberts%null%1,                   F.% Ranama%null%1,                   J.% Bennett%null%1,                   C.% Mansell%null%1,                   M.% Dilcher%null%1,                   A.% Werno%null%1,                   J.% Grant%null%1,                  couldn't find firstname% v %null%1,                 S.%Huang%null%1,                 T.% Wood%null%1,                 L.% Jelley%null%1,                 T.% Jennings%null%1,                 S.% Jeffries%null%1,                 K.% Daniels%null%1,                 A.% Nesdale%null%1,                 T.% Dowell%null%1,                 N.% Turner%null%1,                 P.% Campbell-Stokes%null%1,                 M.% Balm%null%1,                 H. C.% Dobinson%null%1,                 C. C.% Grant%null%1,                 S.% James%null%1,                 N.% Aminisani%null%1,                 J.% Ralston%null%1,                 W.% Gunn%null%1,                 J.% Bucacao%null%1,                 J.% Danielewicz%null%1,                 T.% Moncrieff%null%1,                 A.% McNeill%null%1,                 L.% Lopez%null%1,                 B.% Waite%null%1,                 T.% Kiedrzynski%null%1,                 H.% Schrader%null%1,                 R.% Gray%null%1,                 K.% Cook%null%1,                 D.% Currin%null%1,                 C.% Engelbrecht%null%1,                 W.% Tapurau%null%1,                 L.% Emmerton%null%1,                 M.% Martin%null%1,                 M. G.% Baker%null%1,                 S.% Taylor%null%1,                 A.% Trenholme%null%1,                 C.% Wong%null%1,                 S.% Lawrence%null%1,                 C.% McArthur%null%1,                 A.% Stanley%null%1,                 S.% Roberts%null%1,                 F.% Ranama%null%1,                 J.% Bennett%null%1,                 C.% Mansell%null%1,                 M.% Dilcher%null%1,                 A.% Werno%null%1,                 J.% Grant%null%1,                couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                  Ya%Li%NULL%1,                  Mingli%Han%NULL%1,                  Zhenhua%Wang%NULL%1,                  Yuhang%Zhang%NULL%1,                  Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                  Yiran%Hu%NULL%1,                  Li%Dong%NULL%1,                  Qi%Shu%NULL%1,                  Mingyang%Zhu%NULL%1,                  Yuping%Li%NULL%1,                  Chengshui%Chen%NULL%1,                  Hongchang%Gao%gaohc27@wmu.edu.cn%1,                  Li%Yang%taiyang2630@163.com%0,                  Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                  Yingying%Hu%NULL%2,                  Yingying%Hu%NULL%0,                  Yuanyuan%Yu%NULL%1,                  Xiaodong%Zhang%NULL%1,                  Bin%Li%NULL%1,                  Jianguo%Wu%NULL%1,                  Junyu%Li%NULL%1,                  Yingping%Wu%NULL%1,                  Xiaoping%Xia%NULL%2,                  Xiaoping%Xia%NULL%0,                  Huina%Tang%NULL%1,                  Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                  Shui-Bao%Xu%NULL%0,                  Yi-Xiao%Lin%NULL%0,                  Di%Tian%NULL%0,                  Zhao-Qin%Zhu%NULL%0,                  Fa-Hui%Dai%NULL%0,                  Fan%Wu%NULL%0,                  Zhi-Gang%Song%NULL%0,                  Wei%Huang%NULL%0,                  Jun%Chen%NULL%0,                  Bi-Jie%Hu%NULL%0,                  Sheng%Wang%NULL%0,                  En-Qiang%Mao%NULL%0,                  Lei%Zhu%NULL%0,                  Wen-Hong%Zhang%NULL%0,                  Hong-Zhou%Lu%NULL%0,                  Peng%Lyu%NULL%0,                  Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                  Yi Xin%Tong%NULL%0,                  Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                  Wee Chian%Koh%NULL%2,                  Wee Chian%Koh%NULL%0,                  Riamiza Natalie%Momin%NULL%2,                  Riamiza Natalie%Momin%NULL%0,                  Mohammad Fathi%Alikhan%NULL%1,                  Noraskhin%Fadillah%NULL%1,                  Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                  Xinyi%Liu%NULL%1,                  Jianjun%Liu%NULL%1,                  Han%Liao%NULL%1,                  Sixuan%Long%NULL%1,                  Ning%Zhou%NULL%0,                  Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                  Zhenyu%Pan%NULL%0,                  Yunbao%Pan%NULL%0,                  Qiaoling%Deng%NULL%0,                  Liangjun%Chen%NULL%0,                  Jin%Li%NULL%0,                  Yirong%Li%NULL%0,                  Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                  Zongqiu%Chen%NULL%1,                  Chenghua%Gong%NULL%1,                  Hui%Liu%NULL%1,                  Baisheng%Li%NULL%1,                  Kuibiao%Li%NULL%1,                  Xi%Chen%NULL%4,                  Conghui%Xu%NULL%1,                  Qinlong%Jing%NULL%1,                  Guocong%Liu%NULL%1,                  Pengzhe%Qin%NULL%1,                  Yufei%Liu%NULL%1,                  Yi%Zhong%NULL%1,                  Lijuan%Huang%NULL%1,                  Bao-Ping%Zhu%NULL%1,                  Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                  Xiao-Bo%Wang%NULL%1,                  Xiang-Hong%Jin%NULL%1,                  Wen-Yue%Liu%NULL%1,                  Feng%Gao%NULL%1,                  Yong-Ping%Chen%NULL%1,                  Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1425,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1454,7 +1493,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1483,7 +1522,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1512,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1541,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1570,7 +1609,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1599,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1628,7 +1667,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1657,7 +1696,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1686,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1715,7 +1754,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1744,7 +1783,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1773,7 +1812,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1076,6 +1076,54 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,                  Xiao-Bo%Wang%NULL%1,                  Xiang-Hong%Jin%NULL%1,                  Wen-Yue%Liu%NULL%1,                  Feng%Gao%NULL%1,                  Yong-Ping%Chen%NULL%1,                  Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                   Xuejiao%Liao%NULL%1,                   Tongyang%Xiao%NULL%1,                   Shen%Qian%NULL%1,                   Jing%Yuan%NULL%1,                   Haocheng%Ye%NULL%1,                   Furong%Qi%NULL%1,                   Chengguang%Shen%NULL%1,                   Lifei%Wang%NULL%1,                   Yang%Liu%NULL%1,                   Xiaoya%Cheng%NULL%1,                   Na%Li%NULL%1,                   Qingxian%Cai%NULL%1,                   Fang%Wang%NULL%1,                   Jun%Chen%NULL%0,                   Guojun%Li%NULL%1,                   Qiu’e%Cai%NULL%1,                   Yingxia%Liu%NULL%1,                   Yunfang%Wang%NULL%1,                   Feng%Zhang%NULL%1,                   Yang%Fu%NULL%1,                   Qing%He%NULL%1,                   Xiaohua%Tan%NULL%1,                   Lei%Liu%NULL%0,                   Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                   Xiaoping%Xu%NULL%1,                   Jing%Hu%NULL%1,                   Qiangda%Chen%NULL%1,                   Fengfeng%Xu%NULL%1,                   Hui%Liang%NULL%1,                   Nanmei%Liu%NULL%1,                   Hengmei%Zhu%NULL%1,                   Jinlong%Lan%NULL%1,                   Lan%Zhou%NULL%1,                   Jiajun%Xing%NULL%1,                   Ning%Pu%NULL%1,                   Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                   Tim%Wood%NULL%1,                   Lauren%Jelley%NULL%1,                   Tineke%Jennings%NULL%1,                   Sarah%Jefferies%NULL%1,                   Karen%Daniells%NULL%1,                   Annette%Nesdale%NULL%1,                   Tony%Dowell%NULL%1,                   Nikki%Turner%NULL%1,                   Priscilla%Campbell-Stokes%NULL%1,                   Michelle%Balm%NULL%1,                   Hazel C%Dobinson%NULL%1,                   Cameron C.%Grant%NULL%1,                   Shelley%James%NULL%1,                   Nayyereh%Aminisani%NULL%1,                   Jacqui%Ralston%NULL%1,                   Wendy%Gunn%NULL%1,                   Judy%Bocacao%NULL%1,                   Jessica%Danielewicz%NULL%1,                   Tessa%Moncrieff%NULL%1,                   Andrea%McNeill%NULL%1,                   Liza%Lopez%NULL%1,                   Ben%Waite%NULL%1,                   Tomasz%Kiedrzynski%NULL%1,                   Hannah%Schrader%NULL%1,                   Rebekah%Gray%NULL%1,                   Kayla%Cook%NULL%1,                   Danielle%Currin%NULL%1,                   Chaune%Engelbrecht%NULL%1,                   Whitney%Tapurau%NULL%1,                   Leigh%Emmerton%NULL%1,                   Maxine%Martin%NULL%1,                   Michael G.%Baker%NULL%1,                   Susan%Taylor%NULL%1,                   Adrian%Trenholme%NULL%1,                   Conroy%Wong%NULL%1,                   Shirley%Lawrence%NULL%1,                   Colin%McArthur%NULL%1,                   Alicia%Stanley%NULL%1,                   Sally%Roberts%NULL%1,                   Fahimeh%Ranama%NULL%1,                   Jenny%Bennett%NULL%1,                   Chris%Mansell%NULL%1,                   Meik%Dilcher%NULL%1,                   Anja%Werno%NULL%1,                   Jennifer%Grant%NULL%1,                   Antje%van der Linden%NULL%1,                   Ben%Youngblood%NULL%1,                   Paul G.%Thomas%NULL%1,                   Richard J.%Webby%NULL%1,                    S.%Huang%null%1,                    T.% Wood%null%1,                    L.% Jelley%null%1,                    T.% Jennings%null%1,                    S.% Jeffries%null%1,                    K.% Daniels%null%1,                    A.% Nesdale%null%1,                    T.% Dowell%null%1,                    N.% Turner%null%1,                    P.% Campbell-Stokes%null%1,                    M.% Balm%null%1,                    H. C.% Dobinson%null%1,                    C. C.% Grant%null%1,                    S.% James%null%1,                    N.% Aminisani%null%1,                    J.% Ralston%null%1,                    W.% Gunn%null%1,                    J.% Bucacao%null%1,                    J.% Danielewicz%null%1,                    T.% Moncrieff%null%1,                    A.% McNeill%null%1,                    L.% Lopez%null%1,                    B.% Waite%null%1,                    T.% Kiedrzynski%null%1,                    H.% Schrader%null%1,                    R.% Gray%null%1,                    K.% Cook%null%1,                    D.% Currin%null%1,                    C.% Engelbrecht%null%1,                    W.% Tapurau%null%1,                    L.% Emmerton%null%1,                    M.% Martin%null%1,                    M. G.% Baker%null%1,                    S.% Taylor%null%1,                    A.% Trenholme%null%1,                    C.% Wong%null%1,                    S.% Lawrence%null%1,                    C.% McArthur%null%1,                    A.% Stanley%null%1,                    S.% Roberts%null%1,                    F.% Ranama%null%1,                    J.% Bennett%null%1,                    C.% Mansell%null%1,                    M.% Dilcher%null%1,                    A.% Werno%null%1,                    J.% Grant%null%1,                   couldn't find firstname% v %null%1,                  S.%Huang%null%1,                  T.% Wood%null%1,                  L.% Jelley%null%1,                  T.% Jennings%null%1,                  S.% Jeffries%null%1,                  K.% Daniels%null%1,                  A.% Nesdale%null%1,                  T.% Dowell%null%1,                  N.% Turner%null%1,                  P.% Campbell-Stokes%null%1,                  M.% Balm%null%1,                  H. C.% Dobinson%null%1,                  C. C.% Grant%null%1,                  S.% James%null%1,                  N.% Aminisani%null%1,                  J.% Ralston%null%1,                  W.% Gunn%null%1,                  J.% Bucacao%null%1,                  J.% Danielewicz%null%1,                  T.% Moncrieff%null%1,                  A.% McNeill%null%1,                  L.% Lopez%null%1,                  B.% Waite%null%1,                  T.% Kiedrzynski%null%1,                  H.% Schrader%null%1,                  R.% Gray%null%1,                  K.% Cook%null%1,                  D.% Currin%null%1,                  C.% Engelbrecht%null%1,                  W.% Tapurau%null%1,                  L.% Emmerton%null%1,                  M.% Martin%null%1,                  M. G.% Baker%null%1,                  S.% Taylor%null%1,                  A.% Trenholme%null%1,                  C.% Wong%null%1,                  S.% Lawrence%null%1,                  C.% McArthur%null%1,                  A.% Stanley%null%1,                  S.% Roberts%null%1,                  F.% Ranama%null%1,                  J.% Bennett%null%1,                  C.% Mansell%null%1,                  M.% Dilcher%null%1,                  A.% Werno%null%1,                  J.% Grant%null%1,                 couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                   Ya%Li%NULL%1,                   Mingli%Han%NULL%1,                   Zhenhua%Wang%NULL%1,                   Yuhang%Zhang%NULL%1,                   Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                   Yiran%Hu%NULL%1,                   Li%Dong%NULL%1,                   Qi%Shu%NULL%1,                   Mingyang%Zhu%NULL%1,                   Yuping%Li%NULL%1,                   Chengshui%Chen%NULL%1,                   Hongchang%Gao%gaohc27@wmu.edu.cn%1,                   Li%Yang%taiyang2630@163.com%0,                   Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                   Yingying%Hu%NULL%2,                   Yingying%Hu%NULL%0,                   Yuanyuan%Yu%NULL%1,                   Xiaodong%Zhang%NULL%1,                   Bin%Li%NULL%1,                   Jianguo%Wu%NULL%1,                   Junyu%Li%NULL%1,                   Yingping%Wu%NULL%1,                   Xiaoping%Xia%NULL%2,                   Xiaoping%Xia%NULL%0,                   Huina%Tang%NULL%1,                   Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                   Shui-Bao%Xu%NULL%0,                   Yi-Xiao%Lin%NULL%0,                   Di%Tian%NULL%0,                   Zhao-Qin%Zhu%NULL%0,                   Fa-Hui%Dai%NULL%0,                   Fan%Wu%NULL%0,                   Zhi-Gang%Song%NULL%0,                   Wei%Huang%NULL%0,                   Jun%Chen%NULL%0,                   Bi-Jie%Hu%NULL%0,                   Sheng%Wang%NULL%0,                   En-Qiang%Mao%NULL%0,                   Lei%Zhu%NULL%0,                   Wen-Hong%Zhang%NULL%0,                   Hong-Zhou%Lu%NULL%0,                   Peng%Lyu%NULL%0,                   Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                   Yi Xin%Tong%NULL%0,                   Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                   Wee Chian%Koh%NULL%2,                   Wee Chian%Koh%NULL%0,                   Riamiza Natalie%Momin%NULL%2,                   Riamiza Natalie%Momin%NULL%0,                   Mohammad Fathi%Alikhan%NULL%1,                   Noraskhin%Fadillah%NULL%1,                   Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                   Xinyi%Liu%NULL%1,                   Jianjun%Liu%NULL%1,                   Han%Liao%NULL%1,                   Sixuan%Long%NULL%1,                   Ning%Zhou%NULL%0,                   Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                   Zhenyu%Pan%NULL%0,                   Yunbao%Pan%NULL%0,                   Qiaoling%Deng%NULL%0,                   Liangjun%Chen%NULL%0,                   Jin%Li%NULL%0,                   Yirong%Li%NULL%0,                   Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                   Zongqiu%Chen%NULL%1,                   Chenghua%Gong%NULL%1,                   Hui%Liu%NULL%1,                   Baisheng%Li%NULL%1,                   Kuibiao%Li%NULL%1,                   Xi%Chen%NULL%4,                   Conghui%Xu%NULL%1,                   Qinlong%Jing%NULL%1,                   Guocong%Liu%NULL%1,                   Pengzhe%Qin%NULL%1,                   Yufei%Liu%NULL%1,                   Yi%Zhong%NULL%1,                   Lijuan%Huang%NULL%1,                   Bao-Ping%Zhu%NULL%1,                   Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                   Xiao-Bo%Wang%NULL%1,                   Xiang-Hong%Jin%NULL%1,                   Wen-Yue%Liu%NULL%1,                   Feng%Gao%NULL%1,                   Yong-Ping%Chen%NULL%1,                   Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1483,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1447,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
@@ -1464,7 +1512,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1476,7 +1524,7 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
@@ -1493,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1505,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1570,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1534,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
@@ -1551,7 +1599,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1563,7 +1611,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
@@ -1580,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1592,7 +1640,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
@@ -1609,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1621,7 +1669,7 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
@@ -1638,7 +1686,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1650,7 +1698,7 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
@@ -1667,7 +1715,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1679,7 +1727,7 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
@@ -1696,7 +1744,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1708,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12">
@@ -1725,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1737,7 +1785,7 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13">
@@ -1754,7 +1802,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1766,7 +1814,7 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
@@ -1783,7 +1831,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1795,7 +1843,7 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15">
@@ -1812,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
@@ -1824,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16">

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="346">
   <si>
     <t>Doi</t>
   </si>
@@ -1124,6 +1124,45 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                    Xuejiao%Liao%NULL%1,                    Tongyang%Xiao%NULL%1,                    Shen%Qian%NULL%1,                    Jing%Yuan%NULL%1,                    Haocheng%Ye%NULL%1,                    Furong%Qi%NULL%1,                    Chengguang%Shen%NULL%1,                    Lifei%Wang%NULL%1,                    Yang%Liu%NULL%1,                    Xiaoya%Cheng%NULL%1,                    Na%Li%NULL%1,                    Qingxian%Cai%NULL%1,                    Fang%Wang%NULL%1,                    Jun%Chen%NULL%0,                    Guojun%Li%NULL%1,                    Qiu’e%Cai%NULL%1,                    Yingxia%Liu%NULL%1,                    Yunfang%Wang%NULL%1,                    Feng%Zhang%NULL%1,                    Yang%Fu%NULL%1,                    Qing%He%NULL%1,                    Xiaohua%Tan%NULL%1,                    Lei%Liu%NULL%0,                    Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                    Xiaoping%Xu%NULL%1,                    Jing%Hu%NULL%1,                    Qiangda%Chen%NULL%1,                    Fengfeng%Xu%NULL%1,                    Hui%Liang%NULL%1,                    Nanmei%Liu%NULL%1,                    Hengmei%Zhu%NULL%1,                    Jinlong%Lan%NULL%1,                    Lan%Zhou%NULL%1,                    Jiajun%Xing%NULL%1,                    Ning%Pu%NULL%1,                    Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                    Tim%Wood%NULL%1,                    Lauren%Jelley%NULL%1,                    Tineke%Jennings%NULL%1,                    Sarah%Jefferies%NULL%1,                    Karen%Daniells%NULL%1,                    Annette%Nesdale%NULL%1,                    Tony%Dowell%NULL%1,                    Nikki%Turner%NULL%1,                    Priscilla%Campbell-Stokes%NULL%1,                    Michelle%Balm%NULL%1,                    Hazel C%Dobinson%NULL%1,                    Cameron C.%Grant%NULL%1,                    Shelley%James%NULL%1,                    Nayyereh%Aminisani%NULL%1,                    Jacqui%Ralston%NULL%1,                    Wendy%Gunn%NULL%1,                    Judy%Bocacao%NULL%1,                    Jessica%Danielewicz%NULL%1,                    Tessa%Moncrieff%NULL%1,                    Andrea%McNeill%NULL%1,                    Liza%Lopez%NULL%1,                    Ben%Waite%NULL%1,                    Tomasz%Kiedrzynski%NULL%1,                    Hannah%Schrader%NULL%1,                    Rebekah%Gray%NULL%1,                    Kayla%Cook%NULL%1,                    Danielle%Currin%NULL%1,                    Chaune%Engelbrecht%NULL%1,                    Whitney%Tapurau%NULL%1,                    Leigh%Emmerton%NULL%1,                    Maxine%Martin%NULL%1,                    Michael G.%Baker%NULL%1,                    Susan%Taylor%NULL%1,                    Adrian%Trenholme%NULL%1,                    Conroy%Wong%NULL%1,                    Shirley%Lawrence%NULL%1,                    Colin%McArthur%NULL%1,                    Alicia%Stanley%NULL%1,                    Sally%Roberts%NULL%1,                    Fahimeh%Ranama%NULL%1,                    Jenny%Bennett%NULL%1,                    Chris%Mansell%NULL%1,                    Meik%Dilcher%NULL%1,                    Anja%Werno%NULL%1,                    Jennifer%Grant%NULL%1,                    Antje%van der Linden%NULL%1,                    Ben%Youngblood%NULL%1,                    Paul G.%Thomas%NULL%1,                    Richard J.%Webby%NULL%1,                     S.%Huang%null%1,                     T.% Wood%null%1,                     L.% Jelley%null%1,                     T.% Jennings%null%1,                     S.% Jeffries%null%1,                     K.% Daniels%null%1,                     A.% Nesdale%null%1,                     T.% Dowell%null%1,                     N.% Turner%null%1,                     P.% Campbell-Stokes%null%1,                     M.% Balm%null%1,                     H. C.% Dobinson%null%1,                     C. C.% Grant%null%1,                     S.% James%null%1,                     N.% Aminisani%null%1,                     J.% Ralston%null%1,                     W.% Gunn%null%1,                     J.% Bucacao%null%1,                     J.% Danielewicz%null%1,                     T.% Moncrieff%null%1,                     A.% McNeill%null%1,                     L.% Lopez%null%1,                     B.% Waite%null%1,                     T.% Kiedrzynski%null%1,                     H.% Schrader%null%1,                     R.% Gray%null%1,                     K.% Cook%null%1,                     D.% Currin%null%1,                     C.% Engelbrecht%null%1,                     W.% Tapurau%null%1,                     L.% Emmerton%null%1,                     M.% Martin%null%1,                     M. G.% Baker%null%1,                     S.% Taylor%null%1,                     A.% Trenholme%null%1,                     C.% Wong%null%1,                     S.% Lawrence%null%1,                     C.% McArthur%null%1,                     A.% Stanley%null%1,                     S.% Roberts%null%1,                     F.% Ranama%null%1,                     J.% Bennett%null%1,                     C.% Mansell%null%1,                     M.% Dilcher%null%1,                     A.% Werno%null%1,                     J.% Grant%null%1,                    couldn't find firstname% v %null%1,                   S.%Huang%null%1,                   T.% Wood%null%1,                   L.% Jelley%null%1,                   T.% Jennings%null%1,                   S.% Jeffries%null%1,                   K.% Daniels%null%1,                   A.% Nesdale%null%1,                   T.% Dowell%null%1,                   N.% Turner%null%1,                   P.% Campbell-Stokes%null%1,                   M.% Balm%null%1,                   H. C.% Dobinson%null%1,                   C. C.% Grant%null%1,                   S.% James%null%1,                   N.% Aminisani%null%1,                   J.% Ralston%null%1,                   W.% Gunn%null%1,                   J.% Bucacao%null%1,                   J.% Danielewicz%null%1,                   T.% Moncrieff%null%1,                   A.% McNeill%null%1,                   L.% Lopez%null%1,                   B.% Waite%null%1,                   T.% Kiedrzynski%null%1,                   H.% Schrader%null%1,                   R.% Gray%null%1,                   K.% Cook%null%1,                   D.% Currin%null%1,                   C.% Engelbrecht%null%1,                   W.% Tapurau%null%1,                   L.% Emmerton%null%1,                   M.% Martin%null%1,                   M. G.% Baker%null%1,                   S.% Taylor%null%1,                   A.% Trenholme%null%1,                   C.% Wong%null%1,                   S.% Lawrence%null%1,                   C.% McArthur%null%1,                   A.% Stanley%null%1,                   S.% Roberts%null%1,                   F.% Ranama%null%1,                   J.% Bennett%null%1,                   C.% Mansell%null%1,                   M.% Dilcher%null%1,                   A.% Werno%null%1,                   J.% Grant%null%1,                  couldn't find firstname% v %null%1,  S.%Huang%null%1,  T.% Wood%null%1,  L.% Jelley%null%1,  T.% Jennings%null%1,  S.% Jeffries%null%1,  K.% Daniels%null%1,  A.% Nesdale%null%1,  T.% Dowell%null%1,  N.% Turner%null%1,  P.% Campbell-Stokes%null%1,  M.% Balm%null%1,  H. C.% Dobinson%null%1,  C. C.% Grant%null%1,  S.% James%null%1,  N.% Aminisani%null%1,  J.% Ralston%null%1,  W.% Gunn%null%1,  J.% Bucacao%null%1,  J.% Danielewicz%null%1,  T.% Moncrieff%null%1,  A.% McNeill%null%1,  L.% Lopez%null%1,  B.% Waite%null%1,  T.% Kiedrzynski%null%1,  H.% Schrader%null%1,  R.% Gray%null%1,  K.% Cook%null%1,  D.% Currin%null%1,  C.% Engelbrecht%null%1,  W.% Tapurau%null%1,  L.% Emmerton%null%1,  M.% Martin%null%1,  M. G.% Baker%null%1,  S.% Taylor%null%1,  A.% Trenholme%null%1,  C.% Wong%null%1,  S.% Lawrence%null%1,  C.% McArthur%null%1,  A.% Stanley%null%1,  S.% Roberts%null%1,  F.% Ranama%null%1,  J.% Bennett%null%1,  C.% Mansell%null%1,  M.% Dilcher%null%1,  A.% Werno%null%1,  J.% Grant%null%1, couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                    Ya%Li%NULL%1,                    Mingli%Han%NULL%1,                    Zhenhua%Wang%NULL%1,                    Yuhang%Zhang%NULL%1,                    Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                    Yiran%Hu%NULL%1,                    Li%Dong%NULL%1,                    Qi%Shu%NULL%1,                    Mingyang%Zhu%NULL%1,                    Yuping%Li%NULL%1,                    Chengshui%Chen%NULL%1,                    Hongchang%Gao%gaohc27@wmu.edu.cn%1,                    Li%Yang%taiyang2630@163.com%0,                    Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                    Yingying%Hu%NULL%2,                    Yingying%Hu%NULL%0,                    Yuanyuan%Yu%NULL%1,                    Xiaodong%Zhang%NULL%1,                    Bin%Li%NULL%1,                    Jianguo%Wu%NULL%1,                    Junyu%Li%NULL%1,                    Yingping%Wu%NULL%1,                    Xiaoping%Xia%NULL%2,                    Xiaoping%Xia%NULL%0,                    Huina%Tang%NULL%1,                    Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                    Shui-Bao%Xu%NULL%0,                    Yi-Xiao%Lin%NULL%0,                    Di%Tian%NULL%0,                    Zhao-Qin%Zhu%NULL%0,                    Fa-Hui%Dai%NULL%0,                    Fan%Wu%NULL%0,                    Zhi-Gang%Song%NULL%0,                    Wei%Huang%NULL%0,                    Jun%Chen%NULL%0,                    Bi-Jie%Hu%NULL%0,                    Sheng%Wang%NULL%0,                    En-Qiang%Mao%NULL%0,                    Lei%Zhu%NULL%0,                    Wen-Hong%Zhang%NULL%0,                    Hong-Zhou%Lu%NULL%0,                    Peng%Lyu%NULL%0,                    Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                    Yi Xin%Tong%NULL%0,                    Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                    Wee Chian%Koh%NULL%2,                    Wee Chian%Koh%NULL%0,                    Riamiza Natalie%Momin%NULL%2,                    Riamiza Natalie%Momin%NULL%0,                    Mohammad Fathi%Alikhan%NULL%1,                    Noraskhin%Fadillah%NULL%1,                    Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                    Xinyi%Liu%NULL%1,                    Jianjun%Liu%NULL%1,                    Han%Liao%NULL%1,                    Sixuan%Long%NULL%1,                    Ning%Zhou%NULL%0,                    Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                    Zhenyu%Pan%NULL%0,                    Yunbao%Pan%NULL%0,                    Qiaoling%Deng%NULL%0,                    Liangjun%Chen%NULL%0,                    Jin%Li%NULL%0,                    Yirong%Li%NULL%0,                    Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                    Zongqiu%Chen%NULL%1,                    Chenghua%Gong%NULL%1,                    Hui%Liu%NULL%1,                    Baisheng%Li%NULL%1,                    Kuibiao%Li%NULL%1,                    Xi%Chen%NULL%4,                    Conghui%Xu%NULL%1,                    Qinlong%Jing%NULL%1,                    Guocong%Liu%NULL%1,                    Pengzhe%Qin%NULL%1,                    Yufei%Liu%NULL%1,                    Yi%Zhong%NULL%1,                    Lijuan%Huang%NULL%1,                    Bao-Ping%Zhu%NULL%1,                    Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                    Xiao-Bo%Wang%NULL%1,                    Xiang-Hong%Jin%NULL%1,                    Wen-Yue%Liu%NULL%1,                    Feng%Gao%NULL%1,                    Yong-Ping%Chen%NULL%1,                    Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1512,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1541,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1570,7 +1609,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1599,7 +1638,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1628,7 +1667,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1657,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1686,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1715,7 +1754,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1744,7 +1783,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1773,7 +1812,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1802,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1831,7 +1870,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1860,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="412">
   <si>
     <t>Doi</t>
   </si>
@@ -1163,6 +1163,204 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,                    Xiao-Bo%Wang%NULL%1,                    Xiang-Hong%Jin%NULL%1,                    Wen-Yue%Liu%NULL%1,                    Feng%Gao%NULL%1,                    Yong-Ping%Chen%NULL%1,                    Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                     Xuejiao%Liao%NULL%1,                     Tongyang%Xiao%NULL%1,                     Shen%Qian%NULL%1,                     Jing%Yuan%NULL%1,                     Haocheng%Ye%NULL%1,                     Furong%Qi%NULL%1,                     Chengguang%Shen%NULL%1,                     Lifei%Wang%NULL%1,                     Yang%Liu%NULL%1,                     Xiaoya%Cheng%NULL%1,                     Na%Li%NULL%1,                     Qingxian%Cai%NULL%1,                     Fang%Wang%NULL%1,                     Jun%Chen%NULL%0,                     Guojun%Li%NULL%1,                     Qiu’e%Cai%NULL%1,                     Yingxia%Liu%NULL%1,                     Yunfang%Wang%NULL%1,                     Feng%Zhang%NULL%1,                     Yang%Fu%NULL%1,                     Qing%He%NULL%1,                     Xiaohua%Tan%NULL%1,                     Lei%Liu%NULL%0,                     Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                     Xiaoping%Xu%NULL%1,                     Jing%Hu%NULL%1,                     Qiangda%Chen%NULL%1,                     Fengfeng%Xu%NULL%1,                     Hui%Liang%NULL%1,                     Nanmei%Liu%NULL%1,                     Hengmei%Zhu%NULL%1,                     Jinlong%Lan%NULL%1,                     Lan%Zhou%NULL%1,                     Jiajun%Xing%NULL%1,                     Ning%Pu%NULL%1,                     Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                     Tim%Wood%NULL%1,                     Lauren%Jelley%NULL%1,                     Tineke%Jennings%NULL%1,                     Sarah%Jefferies%NULL%1,                     Karen%Daniells%NULL%1,                     Annette%Nesdale%NULL%1,                     Tony%Dowell%NULL%1,                     Nikki%Turner%NULL%1,                     Priscilla%Campbell-Stokes%NULL%1,                     Michelle%Balm%NULL%1,                     Hazel C%Dobinson%NULL%1,                     Cameron C.%Grant%NULL%1,                     Shelley%James%NULL%1,                     Nayyereh%Aminisani%NULL%1,                     Jacqui%Ralston%NULL%1,                     Wendy%Gunn%NULL%1,                     Judy%Bocacao%NULL%1,                     Jessica%Danielewicz%NULL%1,                     Tessa%Moncrieff%NULL%1,                     Andrea%McNeill%NULL%1,                     Liza%Lopez%NULL%1,                     Ben%Waite%NULL%1,                     Tomasz%Kiedrzynski%NULL%1,                     Hannah%Schrader%NULL%1,                     Rebekah%Gray%NULL%1,                     Kayla%Cook%NULL%1,                     Danielle%Currin%NULL%1,                     Chaune%Engelbrecht%NULL%1,                     Whitney%Tapurau%NULL%1,                     Leigh%Emmerton%NULL%1,                     Maxine%Martin%NULL%1,                     Michael G.%Baker%NULL%1,                     Susan%Taylor%NULL%1,                     Adrian%Trenholme%NULL%1,                     Conroy%Wong%NULL%1,                     Shirley%Lawrence%NULL%1,                     Colin%McArthur%NULL%1,                     Alicia%Stanley%NULL%1,                     Sally%Roberts%NULL%1,                     Fahimeh%Ranama%NULL%1,                     Jenny%Bennett%NULL%1,                     Chris%Mansell%NULL%1,                     Meik%Dilcher%NULL%1,                     Anja%Werno%NULL%1,                     Jennifer%Grant%NULL%1,                     Antje%van der Linden%NULL%1,                     Ben%Youngblood%NULL%1,                     Paul G.%Thomas%NULL%1,                     Richard J.%Webby%NULL%1,                      S.%Huang%null%1,                      T.% Wood%null%1,                      L.% Jelley%null%1,                      T.% Jennings%null%1,                      S.% Jeffries%null%1,                      K.% Daniels%null%1,                      A.% Nesdale%null%1,                      T.% Dowell%null%1,                      N.% Turner%null%1,                      P.% Campbell-Stokes%null%1,                      M.% Balm%null%1,                      H. C.% Dobinson%null%1,                      C. C.% Grant%null%1,                      S.% James%null%1,                      N.% Aminisani%null%1,                      J.% Ralston%null%1,                      W.% Gunn%null%1,                      J.% Bucacao%null%1,                      J.% Danielewicz%null%1,                      T.% Moncrieff%null%1,                      A.% McNeill%null%1,                      L.% Lopez%null%1,                      B.% Waite%null%1,                      T.% Kiedrzynski%null%1,                      H.% Schrader%null%1,                      R.% Gray%null%1,                      K.% Cook%null%1,                      D.% Currin%null%1,                      C.% Engelbrecht%null%1,                      W.% Tapurau%null%1,                      L.% Emmerton%null%1,                      M.% Martin%null%1,                      M. G.% Baker%null%1,                      S.% Taylor%null%1,                      A.% Trenholme%null%1,                      C.% Wong%null%1,                      S.% Lawrence%null%1,                      C.% McArthur%null%1,                      A.% Stanley%null%1,                      S.% Roberts%null%1,                      F.% Ranama%null%1,                      J.% Bennett%null%1,                      C.% Mansell%null%1,                      M.% Dilcher%null%1,                      A.% Werno%null%1,                      J.% Grant%null%1,                     couldn't find firstname% v %null%1,                    S.%Huang%null%1,                    T.% Wood%null%1,                    L.% Jelley%null%1,                    T.% Jennings%null%1,                    S.% Jeffries%null%1,                    K.% Daniels%null%1,                    A.% Nesdale%null%1,                    T.% Dowell%null%1,                    N.% Turner%null%1,                    P.% Campbell-Stokes%null%1,                    M.% Balm%null%1,                    H. C.% Dobinson%null%1,                    C. C.% Grant%null%1,                    S.% James%null%1,                    N.% Aminisani%null%1,                    J.% Ralston%null%1,                    W.% Gunn%null%1,                    J.% Bucacao%null%1,                    J.% Danielewicz%null%1,                    T.% Moncrieff%null%1,                    A.% McNeill%null%1,                    L.% Lopez%null%1,                    B.% Waite%null%1,                    T.% Kiedrzynski%null%1,                    H.% Schrader%null%1,                    R.% Gray%null%1,                    K.% Cook%null%1,                    D.% Currin%null%1,                    C.% Engelbrecht%null%1,                    W.% Tapurau%null%1,                    L.% Emmerton%null%1,                    M.% Martin%null%1,                    M. G.% Baker%null%1,                    S.% Taylor%null%1,                    A.% Trenholme%null%1,                    C.% Wong%null%1,                    S.% Lawrence%null%1,                    C.% McArthur%null%1,                    A.% Stanley%null%1,                    S.% Roberts%null%1,                    F.% Ranama%null%1,                    J.% Bennett%null%1,                    C.% Mansell%null%1,                    M.% Dilcher%null%1,                    A.% Werno%null%1,                    J.% Grant%null%1,                   couldn't find firstname% v %null%1,   S.%Huang%null%1,   T.% Wood%null%1,   L.% Jelley%null%1,   T.% Jennings%null%1,   S.% Jeffries%null%1,   K.% Daniels%null%1,   A.% Nesdale%null%1,   T.% Dowell%null%1,   N.% Turner%null%1,   P.% Campbell-Stokes%null%1,   M.% Balm%null%1,   H. C.% Dobinson%null%1,   C. C.% Grant%null%1,   S.% James%null%1,   N.% Aminisani%null%1,   J.% Ralston%null%1,   W.% Gunn%null%1,   J.% Bucacao%null%1,   J.% Danielewicz%null%1,   T.% Moncrieff%null%1,   A.% McNeill%null%1,   L.% Lopez%null%1,   B.% Waite%null%1,   T.% Kiedrzynski%null%1,   H.% Schrader%null%1,   R.% Gray%null%1,   K.% Cook%null%1,   D.% Currin%null%1,   C.% Engelbrecht%null%1,   W.% Tapurau%null%1,   L.% Emmerton%null%1,   M.% Martin%null%1,   M. G.% Baker%null%1,   S.% Taylor%null%1,   A.% Trenholme%null%1,   C.% Wong%null%1,   S.% Lawrence%null%1,   C.% McArthur%null%1,   A.% Stanley%null%1,   S.% Roberts%null%1,   F.% Ranama%null%1,   J.% Bennett%null%1,   C.% Mansell%null%1,   M.% Dilcher%null%1,   A.% Werno%null%1,   J.% Grant%null%1,  couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                     Ya%Li%NULL%1,                     Mingli%Han%NULL%1,                     Zhenhua%Wang%NULL%1,                     Yuhang%Zhang%NULL%1,                     Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                     Yiran%Hu%NULL%1,                     Li%Dong%NULL%1,                     Qi%Shu%NULL%1,                     Mingyang%Zhu%NULL%1,                     Yuping%Li%NULL%1,                     Chengshui%Chen%NULL%1,                     Hongchang%Gao%gaohc27@wmu.edu.cn%1,                     Li%Yang%taiyang2630@163.com%0,                     Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                     Yingying%Hu%NULL%2,                     Yingying%Hu%NULL%0,                     Yuanyuan%Yu%NULL%1,                     Xiaodong%Zhang%NULL%1,                     Bin%Li%NULL%1,                     Jianguo%Wu%NULL%1,                     Junyu%Li%NULL%1,                     Yingping%Wu%NULL%1,                     Xiaoping%Xia%NULL%2,                     Xiaoping%Xia%NULL%0,                     Huina%Tang%NULL%1,                     Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                     Shui-Bao%Xu%NULL%0,                     Yi-Xiao%Lin%NULL%0,                     Di%Tian%NULL%0,                     Zhao-Qin%Zhu%NULL%0,                     Fa-Hui%Dai%NULL%0,                     Fan%Wu%NULL%0,                     Zhi-Gang%Song%NULL%0,                     Wei%Huang%NULL%0,                     Jun%Chen%NULL%0,                     Bi-Jie%Hu%NULL%0,                     Sheng%Wang%NULL%0,                     En-Qiang%Mao%NULL%0,                     Lei%Zhu%NULL%0,                     Wen-Hong%Zhang%NULL%0,                     Hong-Zhou%Lu%NULL%0,                     Peng%Lyu%NULL%0,                     Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                     Yi Xin%Tong%NULL%0,                     Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                     Wee Chian%Koh%NULL%2,                     Wee Chian%Koh%NULL%0,                     Riamiza Natalie%Momin%NULL%2,                     Riamiza Natalie%Momin%NULL%0,                     Mohammad Fathi%Alikhan%NULL%1,                     Noraskhin%Fadillah%NULL%1,                     Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                     Xinyi%Liu%NULL%1,                     Jianjun%Liu%NULL%1,                     Han%Liao%NULL%1,                     Sixuan%Long%NULL%1,                     Ning%Zhou%NULL%0,                     Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                     Zhenyu%Pan%NULL%0,                     Yunbao%Pan%NULL%0,                     Qiaoling%Deng%NULL%0,                     Liangjun%Chen%NULL%0,                     Jin%Li%NULL%0,                     Yirong%Li%NULL%0,                     Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                     Zongqiu%Chen%NULL%1,                     Chenghua%Gong%NULL%1,                     Hui%Liu%NULL%1,                     Baisheng%Li%NULL%1,                     Kuibiao%Li%NULL%1,                     Xi%Chen%NULL%4,                     Conghui%Xu%NULL%1,                     Qinlong%Jing%NULL%1,                     Guocong%Liu%NULL%1,                     Pengzhe%Qin%NULL%1,                     Yufei%Liu%NULL%1,                     Yi%Zhong%NULL%1,                     Lijuan%Huang%NULL%1,                     Bao-Ping%Zhu%NULL%1,                     Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                     Xiao-Bo%Wang%NULL%1,                     Xiang-Hong%Jin%NULL%1,                     Wen-Yue%Liu%NULL%1,                     Feng%Gao%NULL%1,                     Yong-Ping%Chen%NULL%1,                     Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                      Xuejiao%Liao%NULL%1,                      Tongyang%Xiao%NULL%1,                      Shen%Qian%NULL%1,                      Jing%Yuan%NULL%1,                      Haocheng%Ye%NULL%1,                      Furong%Qi%NULL%1,                      Chengguang%Shen%NULL%1,                      Lifei%Wang%NULL%1,                      Yang%Liu%NULL%1,                      Xiaoya%Cheng%NULL%1,                      Na%Li%NULL%1,                      Qingxian%Cai%NULL%1,                      Fang%Wang%NULL%1,                      Jun%Chen%NULL%0,                      Guojun%Li%NULL%1,                      Qiu’e%Cai%NULL%1,                      Yingxia%Liu%NULL%1,                      Yunfang%Wang%NULL%1,                      Feng%Zhang%NULL%1,                      Yang%Fu%NULL%1,                      Qing%He%NULL%1,                      Xiaohua%Tan%NULL%1,                      Lei%Liu%NULL%0,                      Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                      Xiaoping%Xu%NULL%1,                      Jing%Hu%NULL%1,                      Qiangda%Chen%NULL%1,                      Fengfeng%Xu%NULL%1,                      Hui%Liang%NULL%1,                      Nanmei%Liu%NULL%1,                      Hengmei%Zhu%NULL%1,                      Jinlong%Lan%NULL%1,                      Lan%Zhou%NULL%1,                      Jiajun%Xing%NULL%1,                      Ning%Pu%NULL%1,                      Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                      Tim%Wood%NULL%1,                      Lauren%Jelley%NULL%1,                      Tineke%Jennings%NULL%1,                      Sarah%Jefferies%NULL%1,                      Karen%Daniells%NULL%1,                      Annette%Nesdale%NULL%1,                      Tony%Dowell%NULL%1,                      Nikki%Turner%NULL%1,                      Priscilla%Campbell-Stokes%NULL%1,                      Michelle%Balm%NULL%1,                      Hazel C%Dobinson%NULL%1,                      Cameron C.%Grant%NULL%1,                      Shelley%James%NULL%1,                      Nayyereh%Aminisani%NULL%1,                      Jacqui%Ralston%NULL%1,                      Wendy%Gunn%NULL%1,                      Judy%Bocacao%NULL%1,                      Jessica%Danielewicz%NULL%1,                      Tessa%Moncrieff%NULL%1,                      Andrea%McNeill%NULL%1,                      Liza%Lopez%NULL%1,                      Ben%Waite%NULL%1,                      Tomasz%Kiedrzynski%NULL%1,                      Hannah%Schrader%NULL%1,                      Rebekah%Gray%NULL%1,                      Kayla%Cook%NULL%1,                      Danielle%Currin%NULL%1,                      Chaune%Engelbrecht%NULL%1,                      Whitney%Tapurau%NULL%1,                      Leigh%Emmerton%NULL%1,                      Maxine%Martin%NULL%1,                      Michael G.%Baker%NULL%1,                      Susan%Taylor%NULL%1,                      Adrian%Trenholme%NULL%1,                      Conroy%Wong%NULL%1,                      Shirley%Lawrence%NULL%1,                      Colin%McArthur%NULL%1,                      Alicia%Stanley%NULL%1,                      Sally%Roberts%NULL%1,                      Fahimeh%Ranama%NULL%1,                      Jenny%Bennett%NULL%1,                      Chris%Mansell%NULL%1,                      Meik%Dilcher%NULL%1,                      Anja%Werno%NULL%1,                      Jennifer%Grant%NULL%1,                      Antje%van der Linden%NULL%1,                      Ben%Youngblood%NULL%1,                      Paul G.%Thomas%NULL%1,                      Richard J.%Webby%NULL%1,                       S.%Huang%null%1,                       T.% Wood%null%1,                       L.% Jelley%null%1,                       T.% Jennings%null%1,                       S.% Jeffries%null%1,                       K.% Daniels%null%1,                       A.% Nesdale%null%1,                       T.% Dowell%null%1,                       N.% Turner%null%1,                       P.% Campbell-Stokes%null%1,                       M.% Balm%null%1,                       H. C.% Dobinson%null%1,                       C. C.% Grant%null%1,                       S.% James%null%1,                       N.% Aminisani%null%1,                       J.% Ralston%null%1,                       W.% Gunn%null%1,                       J.% Bucacao%null%1,                       J.% Danielewicz%null%1,                       T.% Moncrieff%null%1,                       A.% McNeill%null%1,                       L.% Lopez%null%1,                       B.% Waite%null%1,                       T.% Kiedrzynski%null%1,                       H.% Schrader%null%1,                       R.% Gray%null%1,                       K.% Cook%null%1,                       D.% Currin%null%1,                       C.% Engelbrecht%null%1,                       W.% Tapurau%null%1,                       L.% Emmerton%null%1,                       M.% Martin%null%1,                       M. G.% Baker%null%1,                       S.% Taylor%null%1,                       A.% Trenholme%null%1,                       C.% Wong%null%1,                       S.% Lawrence%null%1,                       C.% McArthur%null%1,                       A.% Stanley%null%1,                       S.% Roberts%null%1,                       F.% Ranama%null%1,                       J.% Bennett%null%1,                       C.% Mansell%null%1,                       M.% Dilcher%null%1,                       A.% Werno%null%1,                       J.% Grant%null%1,                      couldn't find firstname% v %null%1,                     S.%Huang%null%1,                     T.% Wood%null%1,                     L.% Jelley%null%1,                     T.% Jennings%null%1,                     S.% Jeffries%null%1,                     K.% Daniels%null%1,                     A.% Nesdale%null%1,                     T.% Dowell%null%1,                     N.% Turner%null%1,                     P.% Campbell-Stokes%null%1,                     M.% Balm%null%1,                     H. C.% Dobinson%null%1,                     C. C.% Grant%null%1,                     S.% James%null%1,                     N.% Aminisani%null%1,                     J.% Ralston%null%1,                     W.% Gunn%null%1,                     J.% Bucacao%null%1,                     J.% Danielewicz%null%1,                     T.% Moncrieff%null%1,                     A.% McNeill%null%1,                     L.% Lopez%null%1,                     B.% Waite%null%1,                     T.% Kiedrzynski%null%1,                     H.% Schrader%null%1,                     R.% Gray%null%1,                     K.% Cook%null%1,                     D.% Currin%null%1,                     C.% Engelbrecht%null%1,                     W.% Tapurau%null%1,                     L.% Emmerton%null%1,                     M.% Martin%null%1,                     M. G.% Baker%null%1,                     S.% Taylor%null%1,                     A.% Trenholme%null%1,                     C.% Wong%null%1,                     S.% Lawrence%null%1,                     C.% McArthur%null%1,                     A.% Stanley%null%1,                     S.% Roberts%null%1,                     F.% Ranama%null%1,                     J.% Bennett%null%1,                     C.% Mansell%null%1,                     M.% Dilcher%null%1,                     A.% Werno%null%1,                     J.% Grant%null%1,                    couldn't find firstname% v %null%1,    S.%Huang%null%1,    T.% Wood%null%1,    L.% Jelley%null%1,    T.% Jennings%null%1,    S.% Jeffries%null%1,    K.% Daniels%null%1,    A.% Nesdale%null%1,    T.% Dowell%null%1,    N.% Turner%null%1,    P.% Campbell-Stokes%null%1,    M.% Balm%null%1,    H. C.% Dobinson%null%1,    C. C.% Grant%null%1,    S.% James%null%1,    N.% Aminisani%null%1,    J.% Ralston%null%1,    W.% Gunn%null%1,    J.% Bucacao%null%1,    J.% Danielewicz%null%1,    T.% Moncrieff%null%1,    A.% McNeill%null%1,    L.% Lopez%null%1,    B.% Waite%null%1,    T.% Kiedrzynski%null%1,    H.% Schrader%null%1,    R.% Gray%null%1,    K.% Cook%null%1,    D.% Currin%null%1,    C.% Engelbrecht%null%1,    W.% Tapurau%null%1,    L.% Emmerton%null%1,    M.% Martin%null%1,    M. G.% Baker%null%1,    S.% Taylor%null%1,    A.% Trenholme%null%1,    C.% Wong%null%1,    S.% Lawrence%null%1,    C.% McArthur%null%1,    A.% Stanley%null%1,    S.% Roberts%null%1,    F.% Ranama%null%1,    J.% Bennett%null%1,    C.% Mansell%null%1,    M.% Dilcher%null%1,    A.% Werno%null%1,    J.% Grant%null%1,   couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                      Ya%Li%NULL%1,                      Mingli%Han%NULL%1,                      Zhenhua%Wang%NULL%1,                      Yuhang%Zhang%NULL%1,                      Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                      Yiran%Hu%NULL%1,                      Li%Dong%NULL%1,                      Qi%Shu%NULL%1,                      Mingyang%Zhu%NULL%1,                      Yuping%Li%NULL%1,                      Chengshui%Chen%NULL%1,                      Hongchang%Gao%gaohc27@wmu.edu.cn%1,                      Li%Yang%taiyang2630@163.com%0,                      Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                      Yingying%Hu%NULL%2,                      Yingying%Hu%NULL%0,                      Yuanyuan%Yu%NULL%1,                      Xiaodong%Zhang%NULL%1,                      Bin%Li%NULL%1,                      Jianguo%Wu%NULL%1,                      Junyu%Li%NULL%1,                      Yingping%Wu%NULL%1,                      Xiaoping%Xia%NULL%2,                      Xiaoping%Xia%NULL%0,                      Huina%Tang%NULL%1,                      Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                      Shui-Bao%Xu%NULL%0,                      Yi-Xiao%Lin%NULL%0,                      Di%Tian%NULL%0,                      Zhao-Qin%Zhu%NULL%0,                      Fa-Hui%Dai%NULL%0,                      Fan%Wu%NULL%0,                      Zhi-Gang%Song%NULL%0,                      Wei%Huang%NULL%0,                      Jun%Chen%NULL%0,                      Bi-Jie%Hu%NULL%0,                      Sheng%Wang%NULL%0,                      En-Qiang%Mao%NULL%0,                      Lei%Zhu%NULL%0,                      Wen-Hong%Zhang%NULL%0,                      Hong-Zhou%Lu%NULL%0,                      Peng%Lyu%NULL%0,                      Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                      Yi Xin%Tong%NULL%0,                      Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                      Wee Chian%Koh%NULL%2,                      Wee Chian%Koh%NULL%0,                      Riamiza Natalie%Momin%NULL%2,                      Riamiza Natalie%Momin%NULL%0,                      Mohammad Fathi%Alikhan%NULL%1,                      Noraskhin%Fadillah%NULL%1,                      Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                      Xinyi%Liu%NULL%1,                      Jianjun%Liu%NULL%1,                      Han%Liao%NULL%1,                      Sixuan%Long%NULL%1,                      Ning%Zhou%NULL%0,                      Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                      Zhenyu%Pan%NULL%0,                      Yunbao%Pan%NULL%0,                      Qiaoling%Deng%NULL%0,                      Liangjun%Chen%NULL%0,                      Jin%Li%NULL%0,                      Yirong%Li%NULL%0,                      Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                      Zongqiu%Chen%NULL%1,                      Chenghua%Gong%NULL%1,                      Hui%Liu%NULL%1,                      Baisheng%Li%NULL%1,                      Kuibiao%Li%NULL%1,                      Xi%Chen%NULL%4,                      Conghui%Xu%NULL%1,                      Qinlong%Jing%NULL%1,                      Guocong%Liu%NULL%1,                      Pengzhe%Qin%NULL%1,                      Yufei%Liu%NULL%1,                      Yi%Zhong%NULL%1,                      Lijuan%Huang%NULL%1,                      Bao-Ping%Zhu%NULL%1,                      Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                      Xiao-Bo%Wang%NULL%1,                      Xiang-Hong%Jin%NULL%1,                      Wen-Yue%Liu%NULL%1,                      Feng%Gao%NULL%1,                      Yong-Ping%Chen%NULL%1,                      Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                       Xuejiao%Liao%NULL%1,                       Tongyang%Xiao%NULL%1,                       Shen%Qian%NULL%1,                       Jing%Yuan%NULL%1,                       Haocheng%Ye%NULL%1,                       Furong%Qi%NULL%1,                       Chengguang%Shen%NULL%1,                       Lifei%Wang%NULL%1,                       Yang%Liu%NULL%1,                       Xiaoya%Cheng%NULL%1,                       Na%Li%NULL%1,                       Qingxian%Cai%NULL%1,                       Fang%Wang%NULL%1,                       Jun%Chen%NULL%0,                       Guojun%Li%NULL%1,                       Qiu’e%Cai%NULL%1,                       Yingxia%Liu%NULL%1,                       Yunfang%Wang%NULL%1,                       Feng%Zhang%NULL%1,                       Yang%Fu%NULL%1,                       Qing%He%NULL%1,                       Xiaohua%Tan%NULL%1,                       Lei%Liu%NULL%0,                       Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                       Xiaoping%Xu%NULL%1,                       Jing%Hu%NULL%1,                       Qiangda%Chen%NULL%1,                       Fengfeng%Xu%NULL%1,                       Hui%Liang%NULL%1,                       Nanmei%Liu%NULL%1,                       Hengmei%Zhu%NULL%1,                       Jinlong%Lan%NULL%1,                       Lan%Zhou%NULL%1,                       Jiajun%Xing%NULL%1,                       Ning%Pu%NULL%1,                       Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                       Tim%Wood%NULL%1,                       Lauren%Jelley%NULL%1,                       Tineke%Jennings%NULL%1,                       Sarah%Jefferies%NULL%1,                       Karen%Daniells%NULL%1,                       Annette%Nesdale%NULL%1,                       Tony%Dowell%NULL%1,                       Nikki%Turner%NULL%1,                       Priscilla%Campbell-Stokes%NULL%1,                       Michelle%Balm%NULL%1,                       Hazel C%Dobinson%NULL%1,                       Cameron C.%Grant%NULL%1,                       Shelley%James%NULL%1,                       Nayyereh%Aminisani%NULL%1,                       Jacqui%Ralston%NULL%1,                       Wendy%Gunn%NULL%1,                       Judy%Bocacao%NULL%1,                       Jessica%Danielewicz%NULL%1,                       Tessa%Moncrieff%NULL%1,                       Andrea%McNeill%NULL%1,                       Liza%Lopez%NULL%1,                       Ben%Waite%NULL%1,                       Tomasz%Kiedrzynski%NULL%1,                       Hannah%Schrader%NULL%1,                       Rebekah%Gray%NULL%1,                       Kayla%Cook%NULL%1,                       Danielle%Currin%NULL%1,                       Chaune%Engelbrecht%NULL%1,                       Whitney%Tapurau%NULL%1,                       Leigh%Emmerton%NULL%1,                       Maxine%Martin%NULL%1,                       Michael G.%Baker%NULL%1,                       Susan%Taylor%NULL%1,                       Adrian%Trenholme%NULL%1,                       Conroy%Wong%NULL%1,                       Shirley%Lawrence%NULL%1,                       Colin%McArthur%NULL%1,                       Alicia%Stanley%NULL%1,                       Sally%Roberts%NULL%1,                       Fahimeh%Ranama%NULL%1,                       Jenny%Bennett%NULL%1,                       Chris%Mansell%NULL%1,                       Meik%Dilcher%NULL%1,                       Anja%Werno%NULL%1,                       Jennifer%Grant%NULL%1,                       Antje%van der Linden%NULL%1,                       Ben%Youngblood%NULL%1,                       Paul G.%Thomas%NULL%1,                       Richard J.%Webby%NULL%1,                        S.%Huang%null%1,                        T.% Wood%null%1,                        L.% Jelley%null%1,                        T.% Jennings%null%1,                        S.% Jeffries%null%1,                        K.% Daniels%null%1,                        A.% Nesdale%null%1,                        T.% Dowell%null%1,                        N.% Turner%null%1,                        P.% Campbell-Stokes%null%1,                        M.% Balm%null%1,                        H. C.% Dobinson%null%1,                        C. C.% Grant%null%1,                        S.% James%null%1,                        N.% Aminisani%null%1,                        J.% Ralston%null%1,                        W.% Gunn%null%1,                        J.% Bucacao%null%1,                        J.% Danielewicz%null%1,                        T.% Moncrieff%null%1,                        A.% McNeill%null%1,                        L.% Lopez%null%1,                        B.% Waite%null%1,                        T.% Kiedrzynski%null%1,                        H.% Schrader%null%1,                        R.% Gray%null%1,                        K.% Cook%null%1,                        D.% Currin%null%1,                        C.% Engelbrecht%null%1,                        W.% Tapurau%null%1,                        L.% Emmerton%null%1,                        M.% Martin%null%1,                        M. G.% Baker%null%1,                        S.% Taylor%null%1,                        A.% Trenholme%null%1,                        C.% Wong%null%1,                        S.% Lawrence%null%1,                        C.% McArthur%null%1,                        A.% Stanley%null%1,                        S.% Roberts%null%1,                        F.% Ranama%null%1,                        J.% Bennett%null%1,                        C.% Mansell%null%1,                        M.% Dilcher%null%1,                        A.% Werno%null%1,                        J.% Grant%null%1,                       couldn't find firstname% v %null%1,                      S.%Huang%null%1,                      T.% Wood%null%1,                      L.% Jelley%null%1,                      T.% Jennings%null%1,                      S.% Jeffries%null%1,                      K.% Daniels%null%1,                      A.% Nesdale%null%1,                      T.% Dowell%null%1,                      N.% Turner%null%1,                      P.% Campbell-Stokes%null%1,                      M.% Balm%null%1,                      H. C.% Dobinson%null%1,                      C. C.% Grant%null%1,                      S.% James%null%1,                      N.% Aminisani%null%1,                      J.% Ralston%null%1,                      W.% Gunn%null%1,                      J.% Bucacao%null%1,                      J.% Danielewicz%null%1,                      T.% Moncrieff%null%1,                      A.% McNeill%null%1,                      L.% Lopez%null%1,                      B.% Waite%null%1,                      T.% Kiedrzynski%null%1,                      H.% Schrader%null%1,                      R.% Gray%null%1,                      K.% Cook%null%1,                      D.% Currin%null%1,                      C.% Engelbrecht%null%1,                      W.% Tapurau%null%1,                      L.% Emmerton%null%1,                      M.% Martin%null%1,                      M. G.% Baker%null%1,                      S.% Taylor%null%1,                      A.% Trenholme%null%1,                      C.% Wong%null%1,                      S.% Lawrence%null%1,                      C.% McArthur%null%1,                      A.% Stanley%null%1,                      S.% Roberts%null%1,                      F.% Ranama%null%1,                      J.% Bennett%null%1,                      C.% Mansell%null%1,                      M.% Dilcher%null%1,                      A.% Werno%null%1,                      J.% Grant%null%1,                     couldn't find firstname% v %null%1,     S.%Huang%null%1,     T.% Wood%null%1,     L.% Jelley%null%1,     T.% Jennings%null%1,     S.% Jeffries%null%1,     K.% Daniels%null%1,     A.% Nesdale%null%1,     T.% Dowell%null%1,     N.% Turner%null%1,     P.% Campbell-Stokes%null%1,     M.% Balm%null%1,     H. C.% Dobinson%null%1,     C. C.% Grant%null%1,     S.% James%null%1,     N.% Aminisani%null%1,     J.% Ralston%null%1,     W.% Gunn%null%1,     J.% Bucacao%null%1,     J.% Danielewicz%null%1,     T.% Moncrieff%null%1,     A.% McNeill%null%1,     L.% Lopez%null%1,     B.% Waite%null%1,     T.% Kiedrzynski%null%1,     H.% Schrader%null%1,     R.% Gray%null%1,     K.% Cook%null%1,     D.% Currin%null%1,     C.% Engelbrecht%null%1,     W.% Tapurau%null%1,     L.% Emmerton%null%1,     M.% Martin%null%1,     M. G.% Baker%null%1,     S.% Taylor%null%1,     A.% Trenholme%null%1,     C.% Wong%null%1,     S.% Lawrence%null%1,     C.% McArthur%null%1,     A.% Stanley%null%1,     S.% Roberts%null%1,     F.% Ranama%null%1,     J.% Bennett%null%1,     C.% Mansell%null%1,     M.% Dilcher%null%1,     A.% Werno%null%1,     J.% Grant%null%1,    couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                       Ya%Li%NULL%1,                       Mingli%Han%NULL%1,                       Zhenhua%Wang%NULL%1,                       Yuhang%Zhang%NULL%1,                       Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                       Yiran%Hu%NULL%1,                       Li%Dong%NULL%1,                       Qi%Shu%NULL%1,                       Mingyang%Zhu%NULL%1,                       Yuping%Li%NULL%1,                       Chengshui%Chen%NULL%1,                       Hongchang%Gao%gaohc27@wmu.edu.cn%1,                       Li%Yang%taiyang2630@163.com%0,                       Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                       Yingying%Hu%NULL%2,                       Yingying%Hu%NULL%0,                       Yuanyuan%Yu%NULL%1,                       Xiaodong%Zhang%NULL%1,                       Bin%Li%NULL%1,                       Jianguo%Wu%NULL%1,                       Junyu%Li%NULL%1,                       Yingping%Wu%NULL%1,                       Xiaoping%Xia%NULL%2,                       Xiaoping%Xia%NULL%0,                       Huina%Tang%NULL%1,                       Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                       Shui-Bao%Xu%NULL%0,                       Yi-Xiao%Lin%NULL%0,                       Di%Tian%NULL%0,                       Zhao-Qin%Zhu%NULL%0,                       Fa-Hui%Dai%NULL%0,                       Fan%Wu%NULL%0,                       Zhi-Gang%Song%NULL%0,                       Wei%Huang%NULL%0,                       Jun%Chen%NULL%0,                       Bi-Jie%Hu%NULL%0,                       Sheng%Wang%NULL%0,                       En-Qiang%Mao%NULL%0,                       Lei%Zhu%NULL%0,                       Wen-Hong%Zhang%NULL%0,                       Hong-Zhou%Lu%NULL%0,                       Peng%Lyu%NULL%0,                       Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                       Yi Xin%Tong%NULL%0,                       Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                       Wee Chian%Koh%NULL%2,                       Wee Chian%Koh%NULL%0,                       Riamiza Natalie%Momin%NULL%2,                       Riamiza Natalie%Momin%NULL%0,                       Mohammad Fathi%Alikhan%NULL%1,                       Noraskhin%Fadillah%NULL%1,                       Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                       Xinyi%Liu%NULL%1,                       Jianjun%Liu%NULL%1,                       Han%Liao%NULL%1,                       Sixuan%Long%NULL%1,                       Ning%Zhou%NULL%0,                       Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                       Zhenyu%Pan%NULL%0,                       Yunbao%Pan%NULL%0,                       Qiaoling%Deng%NULL%0,                       Liangjun%Chen%NULL%0,                       Jin%Li%NULL%0,                       Yirong%Li%NULL%0,                       Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                       Zongqiu%Chen%NULL%1,                       Chenghua%Gong%NULL%1,                       Hui%Liu%NULL%1,                       Baisheng%Li%NULL%1,                       Kuibiao%Li%NULL%1,                       Xi%Chen%NULL%4,                       Conghui%Xu%NULL%1,                       Qinlong%Jing%NULL%1,                       Guocong%Liu%NULL%1,                       Pengzhe%Qin%NULL%1,                       Yufei%Liu%NULL%1,                       Yi%Zhong%NULL%1,                       Lijuan%Huang%NULL%1,                       Bao-Ping%Zhu%NULL%1,                       Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                       Xiao-Bo%Wang%NULL%1,                       Xiang-Hong%Jin%NULL%1,                       Wen-Yue%Liu%NULL%1,                       Feng%Gao%NULL%1,                       Yong-Ping%Chen%NULL%1,                       Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                        Xuejiao%Liao%NULL%1,                        Tongyang%Xiao%NULL%1,                        Shen%Qian%NULL%1,                        Jing%Yuan%NULL%1,                        Haocheng%Ye%NULL%1,                        Furong%Qi%NULL%1,                        Chengguang%Shen%NULL%1,                        Lifei%Wang%NULL%1,                        Yang%Liu%NULL%1,                        Xiaoya%Cheng%NULL%1,                        Na%Li%NULL%1,                        Qingxian%Cai%NULL%1,                        Fang%Wang%NULL%1,                        Jun%Chen%NULL%0,                        Guojun%Li%NULL%1,                        Qiu’e%Cai%NULL%1,                        Yingxia%Liu%NULL%1,                        Yunfang%Wang%NULL%1,                        Feng%Zhang%NULL%1,                        Yang%Fu%NULL%1,                        Qing%He%NULL%1,                        Xiaohua%Tan%NULL%1,                        Lei%Liu%NULL%0,                        Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                        Xiaoping%Xu%NULL%1,                        Jing%Hu%NULL%1,                        Qiangda%Chen%NULL%1,                        Fengfeng%Xu%NULL%1,                        Hui%Liang%NULL%1,                        Nanmei%Liu%NULL%1,                        Hengmei%Zhu%NULL%1,                        Jinlong%Lan%NULL%1,                        Lan%Zhou%NULL%1,                        Jiajun%Xing%NULL%1,                        Ning%Pu%NULL%1,                        Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                        Tim%Wood%NULL%1,                        Lauren%Jelley%NULL%1,                        Tineke%Jennings%NULL%1,                        Sarah%Jefferies%NULL%1,                        Karen%Daniells%NULL%1,                        Annette%Nesdale%NULL%1,                        Tony%Dowell%NULL%1,                        Nikki%Turner%NULL%1,                        Priscilla%Campbell-Stokes%NULL%1,                        Michelle%Balm%NULL%1,                        Hazel C%Dobinson%NULL%1,                        Cameron C.%Grant%NULL%1,                        Shelley%James%NULL%1,                        Nayyereh%Aminisani%NULL%1,                        Jacqui%Ralston%NULL%1,                        Wendy%Gunn%NULL%1,                        Judy%Bocacao%NULL%1,                        Jessica%Danielewicz%NULL%1,                        Tessa%Moncrieff%NULL%1,                        Andrea%McNeill%NULL%1,                        Liza%Lopez%NULL%1,                        Ben%Waite%NULL%1,                        Tomasz%Kiedrzynski%NULL%1,                        Hannah%Schrader%NULL%1,                        Rebekah%Gray%NULL%1,                        Kayla%Cook%NULL%1,                        Danielle%Currin%NULL%1,                        Chaune%Engelbrecht%NULL%1,                        Whitney%Tapurau%NULL%1,                        Leigh%Emmerton%NULL%1,                        Maxine%Martin%NULL%1,                        Michael G.%Baker%NULL%1,                        Susan%Taylor%NULL%1,                        Adrian%Trenholme%NULL%1,                        Conroy%Wong%NULL%1,                        Shirley%Lawrence%NULL%1,                        Colin%McArthur%NULL%1,                        Alicia%Stanley%NULL%1,                        Sally%Roberts%NULL%1,                        Fahimeh%Ranama%NULL%1,                        Jenny%Bennett%NULL%1,                        Chris%Mansell%NULL%1,                        Meik%Dilcher%NULL%1,                        Anja%Werno%NULL%1,                        Jennifer%Grant%NULL%1,                        Antje%van der Linden%NULL%1,                        Ben%Youngblood%NULL%1,                        Paul G.%Thomas%NULL%1,                        Richard J.%Webby%NULL%1,                         S.%Huang%null%1,                         T.% Wood%null%1,                         L.% Jelley%null%1,                         T.% Jennings%null%1,                         S.% Jeffries%null%1,                         K.% Daniels%null%1,                         A.% Nesdale%null%1,                         T.% Dowell%null%1,                         N.% Turner%null%1,                         P.% Campbell-Stokes%null%1,                         M.% Balm%null%1,                         H. C.% Dobinson%null%1,                         C. C.% Grant%null%1,                         S.% James%null%1,                         N.% Aminisani%null%1,                         J.% Ralston%null%1,                         W.% Gunn%null%1,                         J.% Bucacao%null%1,                         J.% Danielewicz%null%1,                         T.% Moncrieff%null%1,                         A.% McNeill%null%1,                         L.% Lopez%null%1,                         B.% Waite%null%1,                         T.% Kiedrzynski%null%1,                         H.% Schrader%null%1,                         R.% Gray%null%1,                         K.% Cook%null%1,                         D.% Currin%null%1,                         C.% Engelbrecht%null%1,                         W.% Tapurau%null%1,                         L.% Emmerton%null%1,                         M.% Martin%null%1,                         M. G.% Baker%null%1,                         S.% Taylor%null%1,                         A.% Trenholme%null%1,                         C.% Wong%null%1,                         S.% Lawrence%null%1,                         C.% McArthur%null%1,                         A.% Stanley%null%1,                         S.% Roberts%null%1,                         F.% Ranama%null%1,                         J.% Bennett%null%1,                         C.% Mansell%null%1,                         M.% Dilcher%null%1,                         A.% Werno%null%1,                         J.% Grant%null%1,                        couldn't find firstname% v %null%1,                       S.%Huang%null%1,                       T.% Wood%null%1,                       L.% Jelley%null%1,                       T.% Jennings%null%1,                       S.% Jeffries%null%1,                       K.% Daniels%null%1,                       A.% Nesdale%null%1,                       T.% Dowell%null%1,                       N.% Turner%null%1,                       P.% Campbell-Stokes%null%1,                       M.% Balm%null%1,                       H. C.% Dobinson%null%1,                       C. C.% Grant%null%1,                       S.% James%null%1,                       N.% Aminisani%null%1,                       J.% Ralston%null%1,                       W.% Gunn%null%1,                       J.% Bucacao%null%1,                       J.% Danielewicz%null%1,                       T.% Moncrieff%null%1,                       A.% McNeill%null%1,                       L.% Lopez%null%1,                       B.% Waite%null%1,                       T.% Kiedrzynski%null%1,                       H.% Schrader%null%1,                       R.% Gray%null%1,                       K.% Cook%null%1,                       D.% Currin%null%1,                       C.% Engelbrecht%null%1,                       W.% Tapurau%null%1,                       L.% Emmerton%null%1,                       M.% Martin%null%1,                       M. G.% Baker%null%1,                       S.% Taylor%null%1,                       A.% Trenholme%null%1,                       C.% Wong%null%1,                       S.% Lawrence%null%1,                       C.% McArthur%null%1,                       A.% Stanley%null%1,                       S.% Roberts%null%1,                       F.% Ranama%null%1,                       J.% Bennett%null%1,                       C.% Mansell%null%1,                       M.% Dilcher%null%1,                       A.% Werno%null%1,                       J.% Grant%null%1,                      couldn't find firstname% v %null%1,      S.%Huang%null%1,      T.% Wood%null%1,      L.% Jelley%null%1,      T.% Jennings%null%1,      S.% Jeffries%null%1,      K.% Daniels%null%1,      A.% Nesdale%null%1,      T.% Dowell%null%1,      N.% Turner%null%1,      P.% Campbell-Stokes%null%1,      M.% Balm%null%1,      H. C.% Dobinson%null%1,      C. C.% Grant%null%1,      S.% James%null%1,      N.% Aminisani%null%1,      J.% Ralston%null%1,      W.% Gunn%null%1,      J.% Bucacao%null%1,      J.% Danielewicz%null%1,      T.% Moncrieff%null%1,      A.% McNeill%null%1,      L.% Lopez%null%1,      B.% Waite%null%1,      T.% Kiedrzynski%null%1,      H.% Schrader%null%1,      R.% Gray%null%1,      K.% Cook%null%1,      D.% Currin%null%1,      C.% Engelbrecht%null%1,      W.% Tapurau%null%1,      L.% Emmerton%null%1,      M.% Martin%null%1,      M. G.% Baker%null%1,      S.% Taylor%null%1,      A.% Trenholme%null%1,      C.% Wong%null%1,      S.% Lawrence%null%1,      C.% McArthur%null%1,      A.% Stanley%null%1,      S.% Roberts%null%1,      F.% Ranama%null%1,      J.% Bennett%null%1,      C.% Mansell%null%1,      M.% Dilcher%null%1,      A.% Werno%null%1,      J.% Grant%null%1,     couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                        Ya%Li%NULL%1,                        Mingli%Han%NULL%1,                        Zhenhua%Wang%NULL%1,                        Yuhang%Zhang%NULL%1,                        Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                        Yiran%Hu%NULL%1,                        Li%Dong%NULL%1,                        Qi%Shu%NULL%1,                        Mingyang%Zhu%NULL%1,                        Yuping%Li%NULL%1,                        Chengshui%Chen%NULL%1,                        Hongchang%Gao%gaohc27@wmu.edu.cn%1,                        Li%Yang%taiyang2630@163.com%0,                        Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                        Yingying%Hu%NULL%2,                        Yingying%Hu%NULL%0,                        Yuanyuan%Yu%NULL%1,                        Xiaodong%Zhang%NULL%1,                        Bin%Li%NULL%1,                        Jianguo%Wu%NULL%1,                        Junyu%Li%NULL%1,                        Yingping%Wu%NULL%1,                        Xiaoping%Xia%NULL%2,                        Xiaoping%Xia%NULL%0,                        Huina%Tang%NULL%1,                        Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                        Shui-Bao%Xu%NULL%0,                        Yi-Xiao%Lin%NULL%0,                        Di%Tian%NULL%0,                        Zhao-Qin%Zhu%NULL%0,                        Fa-Hui%Dai%NULL%0,                        Fan%Wu%NULL%0,                        Zhi-Gang%Song%NULL%0,                        Wei%Huang%NULL%0,                        Jun%Chen%NULL%0,                        Bi-Jie%Hu%NULL%0,                        Sheng%Wang%NULL%0,                        En-Qiang%Mao%NULL%0,                        Lei%Zhu%NULL%0,                        Wen-Hong%Zhang%NULL%0,                        Hong-Zhou%Lu%NULL%0,                        Peng%Lyu%NULL%0,                        Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                        Yi Xin%Tong%NULL%0,                        Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                        Wee Chian%Koh%NULL%2,                        Wee Chian%Koh%NULL%0,                        Riamiza Natalie%Momin%NULL%2,                        Riamiza Natalie%Momin%NULL%0,                        Mohammad Fathi%Alikhan%NULL%1,                        Noraskhin%Fadillah%NULL%1,                        Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                        Xinyi%Liu%NULL%1,                        Jianjun%Liu%NULL%1,                        Han%Liao%NULL%1,                        Sixuan%Long%NULL%1,                        Ning%Zhou%NULL%0,                        Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                        Zhenyu%Pan%NULL%0,                        Yunbao%Pan%NULL%0,                        Qiaoling%Deng%NULL%0,                        Liangjun%Chen%NULL%0,                        Jin%Li%NULL%0,                        Yirong%Li%NULL%0,                        Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                        Zongqiu%Chen%NULL%1,                        Chenghua%Gong%NULL%1,                        Hui%Liu%NULL%1,                        Baisheng%Li%NULL%1,                        Kuibiao%Li%NULL%1,                        Xi%Chen%NULL%4,                        Conghui%Xu%NULL%1,                        Qinlong%Jing%NULL%1,                        Guocong%Liu%NULL%1,                        Pengzhe%Qin%NULL%1,                        Yufei%Liu%NULL%1,                        Yi%Zhong%NULL%1,                        Lijuan%Huang%NULL%1,                        Bao-Ping%Zhu%NULL%1,                        Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                        Xiao-Bo%Wang%NULL%1,                        Xiang-Hong%Jin%NULL%1,                        Wen-Yue%Liu%NULL%1,                        Feng%Gao%NULL%1,                        Yong-Ping%Chen%NULL%1,                        Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                         Xuejiao%Liao%NULL%1,                         Tongyang%Xiao%NULL%1,                         Shen%Qian%NULL%1,                         Jing%Yuan%NULL%1,                         Haocheng%Ye%NULL%1,                         Furong%Qi%NULL%1,                         Chengguang%Shen%NULL%1,                         Lifei%Wang%NULL%1,                         Yang%Liu%NULL%1,                         Xiaoya%Cheng%NULL%1,                         Na%Li%NULL%1,                         Qingxian%Cai%NULL%1,                         Fang%Wang%NULL%1,                         Jun%Chen%NULL%0,                         Guojun%Li%NULL%1,                         Qiu’e%Cai%NULL%1,                         Yingxia%Liu%NULL%1,                         Yunfang%Wang%NULL%1,                         Feng%Zhang%NULL%1,                         Yang%Fu%NULL%1,                         Qing%He%NULL%1,                         Xiaohua%Tan%NULL%1,                         Lei%Liu%NULL%0,                         Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                         Xiaoping%Xu%NULL%1,                         Jing%Hu%NULL%1,                         Qiangda%Chen%NULL%1,                         Fengfeng%Xu%NULL%1,                         Hui%Liang%NULL%1,                         Nanmei%Liu%NULL%1,                         Hengmei%Zhu%NULL%1,                         Jinlong%Lan%NULL%1,                         Lan%Zhou%NULL%1,                         Jiajun%Xing%NULL%1,                         Ning%Pu%NULL%1,                         Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                         Tim%Wood%NULL%1,                         Lauren%Jelley%NULL%1,                         Tineke%Jennings%NULL%1,                         Sarah%Jefferies%NULL%1,                         Karen%Daniells%NULL%1,                         Annette%Nesdale%NULL%1,                         Tony%Dowell%NULL%1,                         Nikki%Turner%NULL%1,                         Priscilla%Campbell-Stokes%NULL%1,                         Michelle%Balm%NULL%1,                         Hazel C%Dobinson%NULL%1,                         Cameron C.%Grant%NULL%1,                         Shelley%James%NULL%1,                         Nayyereh%Aminisani%NULL%1,                         Jacqui%Ralston%NULL%1,                         Wendy%Gunn%NULL%1,                         Judy%Bocacao%NULL%1,                         Jessica%Danielewicz%NULL%1,                         Tessa%Moncrieff%NULL%1,                         Andrea%McNeill%NULL%1,                         Liza%Lopez%NULL%1,                         Ben%Waite%NULL%1,                         Tomasz%Kiedrzynski%NULL%1,                         Hannah%Schrader%NULL%1,                         Rebekah%Gray%NULL%1,                         Kayla%Cook%NULL%1,                         Danielle%Currin%NULL%1,                         Chaune%Engelbrecht%NULL%1,                         Whitney%Tapurau%NULL%1,                         Leigh%Emmerton%NULL%1,                         Maxine%Martin%NULL%1,                         Michael G.%Baker%NULL%1,                         Susan%Taylor%NULL%1,                         Adrian%Trenholme%NULL%1,                         Conroy%Wong%NULL%1,                         Shirley%Lawrence%NULL%1,                         Colin%McArthur%NULL%1,                         Alicia%Stanley%NULL%1,                         Sally%Roberts%NULL%1,                         Fahimeh%Ranama%NULL%1,                         Jenny%Bennett%NULL%1,                         Chris%Mansell%NULL%1,                         Meik%Dilcher%NULL%1,                         Anja%Werno%NULL%1,                         Jennifer%Grant%NULL%1,                         Antje%van der Linden%NULL%1,                         Ben%Youngblood%NULL%1,                         Paul G.%Thomas%NULL%1,                         Richard J.%Webby%NULL%1,                          S.%Huang%null%1,                          T.% Wood%null%1,                          L.% Jelley%null%1,                          T.% Jennings%null%1,                          S.% Jeffries%null%1,                          K.% Daniels%null%1,                          A.% Nesdale%null%1,                          T.% Dowell%null%1,                          N.% Turner%null%1,                          P.% Campbell-Stokes%null%1,                          M.% Balm%null%1,                          H. C.% Dobinson%null%1,                          C. C.% Grant%null%1,                          S.% James%null%1,                          N.% Aminisani%null%1,                          J.% Ralston%null%1,                          W.% Gunn%null%1,                          J.% Bucacao%null%1,                          J.% Danielewicz%null%1,                          T.% Moncrieff%null%1,                          A.% McNeill%null%1,                          L.% Lopez%null%1,                          B.% Waite%null%1,                          T.% Kiedrzynski%null%1,                          H.% Schrader%null%1,                          R.% Gray%null%1,                          K.% Cook%null%1,                          D.% Currin%null%1,                          C.% Engelbrecht%null%1,                          W.% Tapurau%null%1,                          L.% Emmerton%null%1,                          M.% Martin%null%1,                          M. G.% Baker%null%1,                          S.% Taylor%null%1,                          A.% Trenholme%null%1,                          C.% Wong%null%1,                          S.% Lawrence%null%1,                          C.% McArthur%null%1,                          A.% Stanley%null%1,                          S.% Roberts%null%1,                          F.% Ranama%null%1,                          J.% Bennett%null%1,                          C.% Mansell%null%1,                          M.% Dilcher%null%1,                          A.% Werno%null%1,                          J.% Grant%null%1,                         couldn't find firstname% v %null%1,                        S.%Huang%null%1,                        T.% Wood%null%1,                        L.% Jelley%null%1,                        T.% Jennings%null%1,                        S.% Jeffries%null%1,                        K.% Daniels%null%1,                        A.% Nesdale%null%1,                        T.% Dowell%null%1,                        N.% Turner%null%1,                        P.% Campbell-Stokes%null%1,                        M.% Balm%null%1,                        H. C.% Dobinson%null%1,                        C. C.% Grant%null%1,                        S.% James%null%1,                        N.% Aminisani%null%1,                        J.% Ralston%null%1,                        W.% Gunn%null%1,                        J.% Bucacao%null%1,                        J.% Danielewicz%null%1,                        T.% Moncrieff%null%1,                        A.% McNeill%null%1,                        L.% Lopez%null%1,                        B.% Waite%null%1,                        T.% Kiedrzynski%null%1,                        H.% Schrader%null%1,                        R.% Gray%null%1,                        K.% Cook%null%1,                        D.% Currin%null%1,                        C.% Engelbrecht%null%1,                        W.% Tapurau%null%1,                        L.% Emmerton%null%1,                        M.% Martin%null%1,                        M. G.% Baker%null%1,                        S.% Taylor%null%1,                        A.% Trenholme%null%1,                        C.% Wong%null%1,                        S.% Lawrence%null%1,                        C.% McArthur%null%1,                        A.% Stanley%null%1,                        S.% Roberts%null%1,                        F.% Ranama%null%1,                        J.% Bennett%null%1,                        C.% Mansell%null%1,                        M.% Dilcher%null%1,                        A.% Werno%null%1,                        J.% Grant%null%1,                       couldn't find firstname% v %null%1,       S.%Huang%null%1,       T.% Wood%null%1,       L.% Jelley%null%1,       T.% Jennings%null%1,       S.% Jeffries%null%1,       K.% Daniels%null%1,       A.% Nesdale%null%1,       T.% Dowell%null%1,       N.% Turner%null%1,       P.% Campbell-Stokes%null%1,       M.% Balm%null%1,       H. C.% Dobinson%null%1,       C. C.% Grant%null%1,       S.% James%null%1,       N.% Aminisani%null%1,       J.% Ralston%null%1,       W.% Gunn%null%1,       J.% Bucacao%null%1,       J.% Danielewicz%null%1,       T.% Moncrieff%null%1,       A.% McNeill%null%1,       L.% Lopez%null%1,       B.% Waite%null%1,       T.% Kiedrzynski%null%1,       H.% Schrader%null%1,       R.% Gray%null%1,       K.% Cook%null%1,       D.% Currin%null%1,       C.% Engelbrecht%null%1,       W.% Tapurau%null%1,       L.% Emmerton%null%1,       M.% Martin%null%1,       M. G.% Baker%null%1,       S.% Taylor%null%1,       A.% Trenholme%null%1,       C.% Wong%null%1,       S.% Lawrence%null%1,       C.% McArthur%null%1,       A.% Stanley%null%1,       S.% Roberts%null%1,       F.% Ranama%null%1,       J.% Bennett%null%1,       C.% Mansell%null%1,       M.% Dilcher%null%1,       A.% Werno%null%1,       J.% Grant%null%1,      couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                         Ya%Li%NULL%1,                         Mingli%Han%NULL%1,                         Zhenhua%Wang%NULL%1,                         Yuhang%Zhang%NULL%1,                         Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                         Yiran%Hu%NULL%1,                         Li%Dong%NULL%1,                         Qi%Shu%NULL%1,                         Mingyang%Zhu%NULL%1,                         Yuping%Li%NULL%1,                         Chengshui%Chen%NULL%1,                         Hongchang%Gao%gaohc27@wmu.edu.cn%1,                         Li%Yang%taiyang2630@163.com%0,                         Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                         Yingying%Hu%NULL%2,                         Yingying%Hu%NULL%0,                         Yuanyuan%Yu%NULL%1,                         Xiaodong%Zhang%NULL%1,                         Bin%Li%NULL%1,                         Jianguo%Wu%NULL%1,                         Junyu%Li%NULL%1,                         Yingping%Wu%NULL%1,                         Xiaoping%Xia%NULL%2,                         Xiaoping%Xia%NULL%0,                         Huina%Tang%NULL%1,                         Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                         Shui-Bao%Xu%NULL%0,                         Yi-Xiao%Lin%NULL%0,                         Di%Tian%NULL%0,                         Zhao-Qin%Zhu%NULL%0,                         Fa-Hui%Dai%NULL%0,                         Fan%Wu%NULL%0,                         Zhi-Gang%Song%NULL%0,                         Wei%Huang%NULL%0,                         Jun%Chen%NULL%0,                         Bi-Jie%Hu%NULL%0,                         Sheng%Wang%NULL%0,                         En-Qiang%Mao%NULL%0,                         Lei%Zhu%NULL%0,                         Wen-Hong%Zhang%NULL%0,                         Hong-Zhou%Lu%NULL%0,                         Peng%Lyu%NULL%0,                         Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                         Yi Xin%Tong%NULL%0,                         Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                         Wee Chian%Koh%NULL%2,                         Wee Chian%Koh%NULL%0,                         Riamiza Natalie%Momin%NULL%2,                         Riamiza Natalie%Momin%NULL%0,                         Mohammad Fathi%Alikhan%NULL%1,                         Noraskhin%Fadillah%NULL%1,                         Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                         Xinyi%Liu%NULL%1,                         Jianjun%Liu%NULL%1,                         Han%Liao%NULL%1,                         Sixuan%Long%NULL%1,                         Ning%Zhou%NULL%0,                         Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                         Zhenyu%Pan%NULL%0,                         Yunbao%Pan%NULL%0,                         Qiaoling%Deng%NULL%0,                         Liangjun%Chen%NULL%0,                         Jin%Li%NULL%0,                         Yirong%Li%NULL%0,                         Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                         Zongqiu%Chen%NULL%1,                         Chenghua%Gong%NULL%1,                         Hui%Liu%NULL%1,                         Baisheng%Li%NULL%1,                         Kuibiao%Li%NULL%1,                         Xi%Chen%NULL%4,                         Conghui%Xu%NULL%1,                         Qinlong%Jing%NULL%1,                         Guocong%Liu%NULL%1,                         Pengzhe%Qin%NULL%1,                         Yufei%Liu%NULL%1,                         Yi%Zhong%NULL%1,                         Lijuan%Huang%NULL%1,                         Bao-Ping%Zhu%NULL%1,                         Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                         Xiao-Bo%Wang%NULL%1,                         Xiang-Hong%Jin%NULL%1,                         Wen-Yue%Liu%NULL%1,                         Feng%Gao%NULL%1,                         Yong-Ping%Chen%NULL%1,                         Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1507,6 +1705,9 @@
       <c r="I1" t="s">
         <v>102</v>
       </c>
+      <c r="J1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1522,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1535,6 +1736,9 @@
       </c>
       <c r="I2" t="s">
         <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1551,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1564,6 +1768,9 @@
       </c>
       <c r="I3" t="s">
         <v>318</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1580,7 +1787,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1593,6 +1800,9 @@
       </c>
       <c r="I4" t="s">
         <v>318</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1819,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1622,6 +1832,9 @@
       </c>
       <c r="I5" t="s">
         <v>322</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -1638,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1651,6 +1864,9 @@
       </c>
       <c r="I6" t="s">
         <v>318</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -1667,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1680,6 +1896,9 @@
       </c>
       <c r="I7" t="s">
         <v>318</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -1696,7 +1915,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1709,6 +1928,9 @@
       </c>
       <c r="I8" t="s">
         <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1947,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1738,6 +1960,9 @@
       </c>
       <c r="I9" t="s">
         <v>318</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1754,7 +1979,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1767,6 +1992,9 @@
       </c>
       <c r="I10" t="s">
         <v>318</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1783,7 +2011,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1796,6 +2024,9 @@
       </c>
       <c r="I11" t="s">
         <v>318</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -1812,7 +2043,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1825,6 +2056,9 @@
       </c>
       <c r="I12" t="s">
         <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1841,7 +2075,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1854,6 +2088,9 @@
       </c>
       <c r="I13" t="s">
         <v>322</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -1870,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1883,6 +2120,9 @@
       </c>
       <c r="I14" t="s">
         <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -1899,7 +2139,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
@@ -1912,6 +2152,9 @@
       </c>
       <c r="I15" t="s">
         <v>332</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">

--- a/Covid_19_Dataset_and_References/References/61.xlsx
+++ b/Covid_19_Dataset_and_References/References/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="438">
   <si>
     <t>Doi</t>
   </si>
@@ -1361,6 +1361,84 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,                         Xiao-Bo%Wang%NULL%1,                         Xiang-Hong%Jin%NULL%1,                         Wen-Yue%Liu%NULL%1,                         Feng%Gao%NULL%1,                         Yong-Ping%Chen%NULL%1,                         Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                          Xuejiao%Liao%NULL%1,                          Tongyang%Xiao%NULL%1,                          Shen%Qian%NULL%1,                          Jing%Yuan%NULL%1,                          Haocheng%Ye%NULL%1,                          Furong%Qi%NULL%1,                          Chengguang%Shen%NULL%1,                          Lifei%Wang%NULL%1,                          Yang%Liu%NULL%1,                          Xiaoya%Cheng%NULL%1,                          Na%Li%NULL%1,                          Qingxian%Cai%NULL%1,                          Fang%Wang%NULL%1,                          Jun%Chen%NULL%0,                          Guojun%Li%NULL%1,                          Qiu’e%Cai%NULL%1,                          Yingxia%Liu%NULL%1,                          Yunfang%Wang%NULL%1,                          Feng%Zhang%NULL%1,                          Yang%Fu%NULL%1,                          Qing%He%NULL%1,                          Xiaohua%Tan%NULL%1,                          Lei%Liu%NULL%0,                          Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                          Xiaoping%Xu%NULL%1,                          Jing%Hu%NULL%1,                          Qiangda%Chen%NULL%1,                          Fengfeng%Xu%NULL%1,                          Hui%Liang%NULL%1,                          Nanmei%Liu%NULL%1,                          Hengmei%Zhu%NULL%1,                          Jinlong%Lan%NULL%1,                          Lan%Zhou%NULL%1,                          Jiajun%Xing%NULL%1,                          Ning%Pu%NULL%1,                          Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                          Tim%Wood%NULL%1,                          Lauren%Jelley%NULL%1,                          Tineke%Jennings%NULL%1,                          Sarah%Jefferies%NULL%1,                          Karen%Daniells%NULL%1,                          Annette%Nesdale%NULL%1,                          Tony%Dowell%NULL%1,                          Nikki%Turner%NULL%1,                          Priscilla%Campbell-Stokes%NULL%1,                          Michelle%Balm%NULL%1,                          Hazel C%Dobinson%NULL%1,                          Cameron C.%Grant%NULL%1,                          Shelley%James%NULL%1,                          Nayyereh%Aminisani%NULL%1,                          Jacqui%Ralston%NULL%1,                          Wendy%Gunn%NULL%1,                          Judy%Bocacao%NULL%1,                          Jessica%Danielewicz%NULL%1,                          Tessa%Moncrieff%NULL%1,                          Andrea%McNeill%NULL%1,                          Liza%Lopez%NULL%1,                          Ben%Waite%NULL%1,                          Tomasz%Kiedrzynski%NULL%1,                          Hannah%Schrader%NULL%1,                          Rebekah%Gray%NULL%1,                          Kayla%Cook%NULL%1,                          Danielle%Currin%NULL%1,                          Chaune%Engelbrecht%NULL%1,                          Whitney%Tapurau%NULL%1,                          Leigh%Emmerton%NULL%1,                          Maxine%Martin%NULL%1,                          Michael G.%Baker%NULL%1,                          Susan%Taylor%NULL%1,                          Adrian%Trenholme%NULL%1,                          Conroy%Wong%NULL%1,                          Shirley%Lawrence%NULL%1,                          Colin%McArthur%NULL%1,                          Alicia%Stanley%NULL%1,                          Sally%Roberts%NULL%1,                          Fahimeh%Ranama%NULL%1,                          Jenny%Bennett%NULL%1,                          Chris%Mansell%NULL%1,                          Meik%Dilcher%NULL%1,                          Anja%Werno%NULL%1,                          Jennifer%Grant%NULL%1,                          Antje%van der Linden%NULL%1,                          Ben%Youngblood%NULL%1,                          Paul G.%Thomas%NULL%1,                          Richard J.%Webby%NULL%1,                           S.%Huang%null%1,                           T.% Wood%null%1,                           L.% Jelley%null%1,                           T.% Jennings%null%1,                           S.% Jeffries%null%1,                           K.% Daniels%null%1,                           A.% Nesdale%null%1,                           T.% Dowell%null%1,                           N.% Turner%null%1,                           P.% Campbell-Stokes%null%1,                           M.% Balm%null%1,                           H. C.% Dobinson%null%1,                           C. C.% Grant%null%1,                           S.% James%null%1,                           N.% Aminisani%null%1,                           J.% Ralston%null%1,                           W.% Gunn%null%1,                           J.% Bucacao%null%1,                           J.% Danielewicz%null%1,                           T.% Moncrieff%null%1,                           A.% McNeill%null%1,                           L.% Lopez%null%1,                           B.% Waite%null%1,                           T.% Kiedrzynski%null%1,                           H.% Schrader%null%1,                           R.% Gray%null%1,                           K.% Cook%null%1,                           D.% Currin%null%1,                           C.% Engelbrecht%null%1,                           W.% Tapurau%null%1,                           L.% Emmerton%null%1,                           M.% Martin%null%1,                           M. G.% Baker%null%1,                           S.% Taylor%null%1,                           A.% Trenholme%null%1,                           C.% Wong%null%1,                           S.% Lawrence%null%1,                           C.% McArthur%null%1,                           A.% Stanley%null%1,                           S.% Roberts%null%1,                           F.% Ranama%null%1,                           J.% Bennett%null%1,                           C.% Mansell%null%1,                           M.% Dilcher%null%1,                           A.% Werno%null%1,                           J.% Grant%null%1,                          couldn't find firstname% v %null%1,                         S.%Huang%null%1,                         T.% Wood%null%1,                         L.% Jelley%null%1,                         T.% Jennings%null%1,                         S.% Jeffries%null%1,                         K.% Daniels%null%1,                         A.% Nesdale%null%1,                         T.% Dowell%null%1,                         N.% Turner%null%1,                         P.% Campbell-Stokes%null%1,                         M.% Balm%null%1,                         H. C.% Dobinson%null%1,                         C. C.% Grant%null%1,                         S.% James%null%1,                         N.% Aminisani%null%1,                         J.% Ralston%null%1,                         W.% Gunn%null%1,                         J.% Bucacao%null%1,                         J.% Danielewicz%null%1,                         T.% Moncrieff%null%1,                         A.% McNeill%null%1,                         L.% Lopez%null%1,                         B.% Waite%null%1,                         T.% Kiedrzynski%null%1,                         H.% Schrader%null%1,                         R.% Gray%null%1,                         K.% Cook%null%1,                         D.% Currin%null%1,                         C.% Engelbrecht%null%1,                         W.% Tapurau%null%1,                         L.% Emmerton%null%1,                         M.% Martin%null%1,                         M. G.% Baker%null%1,                         S.% Taylor%null%1,                         A.% Trenholme%null%1,                         C.% Wong%null%1,                         S.% Lawrence%null%1,                         C.% McArthur%null%1,                         A.% Stanley%null%1,                         S.% Roberts%null%1,                         F.% Ranama%null%1,                         J.% Bennett%null%1,                         C.% Mansell%null%1,                         M.% Dilcher%null%1,                         A.% Werno%null%1,                         J.% Grant%null%1,                        couldn't find firstname% v %null%1,        S.%Huang%null%1,        T.% Wood%null%1,        L.% Jelley%null%1,        T.% Jennings%null%1,        S.% Jeffries%null%1,        K.% Daniels%null%1,        A.% Nesdale%null%1,        T.% Dowell%null%1,        N.% Turner%null%1,        P.% Campbell-Stokes%null%1,        M.% Balm%null%1,        H. C.% Dobinson%null%1,        C. C.% Grant%null%1,        S.% James%null%1,        N.% Aminisani%null%1,        J.% Ralston%null%1,        W.% Gunn%null%1,        J.% Bucacao%null%1,        J.% Danielewicz%null%1,        T.% Moncrieff%null%1,        A.% McNeill%null%1,        L.% Lopez%null%1,        B.% Waite%null%1,        T.% Kiedrzynski%null%1,        H.% Schrader%null%1,        R.% Gray%null%1,        K.% Cook%null%1,        D.% Currin%null%1,        C.% Engelbrecht%null%1,        W.% Tapurau%null%1,        L.% Emmerton%null%1,        M.% Martin%null%1,        M. G.% Baker%null%1,        S.% Taylor%null%1,        A.% Trenholme%null%1,        C.% Wong%null%1,        S.% Lawrence%null%1,        C.% McArthur%null%1,        A.% Stanley%null%1,        S.% Roberts%null%1,        F.% Ranama%null%1,        J.% Bennett%null%1,        C.% Mansell%null%1,        M.% Dilcher%null%1,        A.% Werno%null%1,        J.% Grant%null%1,       couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                          Ya%Li%NULL%1,                          Mingli%Han%NULL%1,                          Zhenhua%Wang%NULL%1,                          Yuhang%Zhang%NULL%1,                          Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                          Yiran%Hu%NULL%1,                          Li%Dong%NULL%1,                          Qi%Shu%NULL%1,                          Mingyang%Zhu%NULL%1,                          Yuping%Li%NULL%1,                          Chengshui%Chen%NULL%1,                          Hongchang%Gao%gaohc27@wmu.edu.cn%1,                          Li%Yang%taiyang2630@163.com%0,                          Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                          Yingying%Hu%NULL%2,                          Yingying%Hu%NULL%0,                          Yuanyuan%Yu%NULL%1,                          Xiaodong%Zhang%NULL%1,                          Bin%Li%NULL%1,                          Jianguo%Wu%NULL%1,                          Junyu%Li%NULL%1,                          Yingping%Wu%NULL%1,                          Xiaoping%Xia%NULL%2,                          Xiaoping%Xia%NULL%0,                          Huina%Tang%NULL%1,                          Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                          Shui-Bao%Xu%NULL%0,                          Yi-Xiao%Lin%NULL%0,                          Di%Tian%NULL%0,                          Zhao-Qin%Zhu%NULL%0,                          Fa-Hui%Dai%NULL%0,                          Fan%Wu%NULL%0,                          Zhi-Gang%Song%NULL%0,                          Wei%Huang%NULL%0,                          Jun%Chen%NULL%0,                          Bi-Jie%Hu%NULL%0,                          Sheng%Wang%NULL%0,                          En-Qiang%Mao%NULL%0,                          Lei%Zhu%NULL%0,                          Wen-Hong%Zhang%NULL%0,                          Hong-Zhou%Lu%NULL%0,                          Peng%Lyu%NULL%0,                          Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                          Yi Xin%Tong%NULL%0,                          Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                          Wee Chian%Koh%NULL%2,                          Wee Chian%Koh%NULL%0,                          Riamiza Natalie%Momin%NULL%2,                          Riamiza Natalie%Momin%NULL%0,                          Mohammad Fathi%Alikhan%NULL%1,                          Noraskhin%Fadillah%NULL%1,                          Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                          Xinyi%Liu%NULL%1,                          Jianjun%Liu%NULL%1,                          Han%Liao%NULL%1,                          Sixuan%Long%NULL%1,                          Ning%Zhou%NULL%0,                          Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                          Zhenyu%Pan%NULL%0,                          Yunbao%Pan%NULL%0,                          Qiaoling%Deng%NULL%0,                          Liangjun%Chen%NULL%0,                          Jin%Li%NULL%0,                          Yirong%Li%NULL%0,                          Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                          Zongqiu%Chen%NULL%1,                          Chenghua%Gong%NULL%1,                          Hui%Liu%NULL%1,                          Baisheng%Li%NULL%1,                          Kuibiao%Li%NULL%1,                          Xi%Chen%NULL%4,                          Conghui%Xu%NULL%1,                          Qinlong%Jing%NULL%1,                          Guocong%Liu%NULL%1,                          Pengzhe%Qin%NULL%1,                          Yufei%Liu%NULL%1,                          Yi%Zhong%NULL%1,                          Lijuan%Huang%NULL%1,                          Bao-Ping%Zhu%NULL%1,                          Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                          Xiao-Bo%Wang%NULL%1,                          Xiang-Hong%Jin%NULL%1,                          Wen-Yue%Liu%NULL%1,                          Feng%Gao%NULL%1,                          Yong-Ping%Chen%NULL%1,                          Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                           Xuejiao%Liao%NULL%1,                           Tongyang%Xiao%NULL%1,                           Shen%Qian%NULL%1,                           Jing%Yuan%NULL%1,                           Haocheng%Ye%NULL%1,                           Furong%Qi%NULL%1,                           Chengguang%Shen%NULL%1,                           Lifei%Wang%NULL%1,                           Yang%Liu%NULL%1,                           Xiaoya%Cheng%NULL%1,                           Na%Li%NULL%1,                           Qingxian%Cai%NULL%1,                           Fang%Wang%NULL%1,                           Jun%Chen%NULL%0,                           Guojun%Li%NULL%1,                           Qiu’e%Cai%NULL%1,                           Yingxia%Liu%NULL%1,                           Yunfang%Wang%NULL%1,                           Feng%Zhang%NULL%1,                           Yang%Fu%NULL%1,                           Qing%He%NULL%1,                           Xiaohua%Tan%NULL%1,                           Lei%Liu%NULL%0,                           Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                           Xiaoping%Xu%NULL%1,                           Jing%Hu%NULL%1,                           Qiangda%Chen%NULL%1,                           Fengfeng%Xu%NULL%1,                           Hui%Liang%NULL%1,                           Nanmei%Liu%NULL%1,                           Hengmei%Zhu%NULL%1,                           Jinlong%Lan%NULL%1,                           Lan%Zhou%NULL%1,                           Jiajun%Xing%NULL%1,                           Ning%Pu%NULL%1,                           Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                           Tim%Wood%NULL%1,                           Lauren%Jelley%NULL%1,                           Tineke%Jennings%NULL%1,                           Sarah%Jefferies%NULL%1,                           Karen%Daniells%NULL%1,                           Annette%Nesdale%NULL%1,                           Tony%Dowell%NULL%1,                           Nikki%Turner%NULL%1,                           Priscilla%Campbell-Stokes%NULL%1,                           Michelle%Balm%NULL%1,                           Hazel C%Dobinson%NULL%1,                           Cameron C.%Grant%NULL%1,                           Shelley%James%NULL%1,                           Nayyereh%Aminisani%NULL%1,                           Jacqui%Ralston%NULL%1,                           Wendy%Gunn%NULL%1,                           Judy%Bocacao%NULL%1,                           Jessica%Danielewicz%NULL%1,                           Tessa%Moncrieff%NULL%1,                           Andrea%McNeill%NULL%1,                           Liza%Lopez%NULL%1,                           Ben%Waite%NULL%1,                           Tomasz%Kiedrzynski%NULL%1,                           Hannah%Schrader%NULL%1,                           Rebekah%Gray%NULL%1,                           Kayla%Cook%NULL%1,                           Danielle%Currin%NULL%1,                           Chaune%Engelbrecht%NULL%1,                           Whitney%Tapurau%NULL%1,                           Leigh%Emmerton%NULL%1,                           Maxine%Martin%NULL%1,                           Michael G.%Baker%NULL%1,                           Susan%Taylor%NULL%1,                           Adrian%Trenholme%NULL%1,                           Conroy%Wong%NULL%1,                           Shirley%Lawrence%NULL%1,                           Colin%McArthur%NULL%1,                           Alicia%Stanley%NULL%1,                           Sally%Roberts%NULL%1,                           Fahimeh%Ranama%NULL%1,                           Jenny%Bennett%NULL%1,                           Chris%Mansell%NULL%1,                           Meik%Dilcher%NULL%1,                           Anja%Werno%NULL%1,                           Jennifer%Grant%NULL%1,                           Antje%van der Linden%NULL%1,                           Ben%Youngblood%NULL%1,                           Paul G.%Thomas%NULL%1,                           Richard J.%Webby%NULL%1,                            S.%Huang%null%1,                            T.% Wood%null%1,                            L.% Jelley%null%1,                            T.% Jennings%null%1,                            S.% Jeffries%null%1,                            K.% Daniels%null%1,                            A.% Nesdale%null%1,                            T.% Dowell%null%1,                            N.% Turner%null%1,                            P.% Campbell-Stokes%null%1,                            M.% Balm%null%1,                            H. C.% Dobinson%null%1,                            C. C.% Grant%null%1,                            S.% James%null%1,                            N.% Aminisani%null%1,                            J.% Ralston%null%1,                            W.% Gunn%null%1,                            J.% Bucacao%null%1,                            J.% Danielewicz%null%1,                            T.% Moncrieff%null%1,                            A.% McNeill%null%1,                            L.% Lopez%null%1,                            B.% Waite%null%1,                            T.% Kiedrzynski%null%1,                            H.% Schrader%null%1,                            R.% Gray%null%1,                            K.% Cook%null%1,                            D.% Currin%null%1,                            C.% Engelbrecht%null%1,                            W.% Tapurau%null%1,                            L.% Emmerton%null%1,                            M.% Martin%null%1,                            M. G.% Baker%null%1,                            S.% Taylor%null%1,                            A.% Trenholme%null%1,                            C.% Wong%null%1,                            S.% Lawrence%null%1,                            C.% McArthur%null%1,                            A.% Stanley%null%1,                            S.% Roberts%null%1,                            F.% Ranama%null%1,                            J.% Bennett%null%1,                            C.% Mansell%null%1,                            M.% Dilcher%null%1,                            A.% Werno%null%1,                            J.% Grant%null%1,                           couldn't find firstname% v %null%1,                          S.%Huang%null%1,                          T.% Wood%null%1,                          L.% Jelley%null%1,                          T.% Jennings%null%1,                          S.% Jeffries%null%1,                          K.% Daniels%null%1,                          A.% Nesdale%null%1,                          T.% Dowell%null%1,                          N.% Turner%null%1,                          P.% Campbell-Stokes%null%1,                          M.% Balm%null%1,                          H. C.% Dobinson%null%1,                          C. C.% Grant%null%1,                          S.% James%null%1,                          N.% Aminisani%null%1,                          J.% Ralston%null%1,                          W.% Gunn%null%1,                          J.% Bucacao%null%1,                          J.% Danielewicz%null%1,                          T.% Moncrieff%null%1,                          A.% McNeill%null%1,                          L.% Lopez%null%1,                          B.% Waite%null%1,                          T.% Kiedrzynski%null%1,                          H.% Schrader%null%1,                          R.% Gray%null%1,                          K.% Cook%null%1,                          D.% Currin%null%1,                          C.% Engelbrecht%null%1,                          W.% Tapurau%null%1,                          L.% Emmerton%null%1,                          M.% Martin%null%1,                          M. G.% Baker%null%1,                          S.% Taylor%null%1,                          A.% Trenholme%null%1,                          C.% Wong%null%1,                          S.% Lawrence%null%1,                          C.% McArthur%null%1,                          A.% Stanley%null%1,                          S.% Roberts%null%1,                          F.% Ranama%null%1,                          J.% Bennett%null%1,                          C.% Mansell%null%1,                          M.% Dilcher%null%1,                          A.% Werno%null%1,                          J.% Grant%null%1,                         couldn't find firstname% v %null%1,         S.%Huang%null%1,         T.% Wood%null%1,         L.% Jelley%null%1,         T.% Jennings%null%1,         S.% Jeffries%null%1,         K.% Daniels%null%1,         A.% Nesdale%null%1,         T.% Dowell%null%1,         N.% Turner%null%1,         P.% Campbell-Stokes%null%1,         M.% Balm%null%1,         H. C.% Dobinson%null%1,         C. C.% Grant%null%1,         S.% James%null%1,         N.% Aminisani%null%1,         J.% Ralston%null%1,         W.% Gunn%null%1,         J.% Bucacao%null%1,         J.% Danielewicz%null%1,         T.% Moncrieff%null%1,         A.% McNeill%null%1,         L.% Lopez%null%1,         B.% Waite%null%1,         T.% Kiedrzynski%null%1,         H.% Schrader%null%1,         R.% Gray%null%1,         K.% Cook%null%1,         D.% Currin%null%1,         C.% Engelbrecht%null%1,         W.% Tapurau%null%1,         L.% Emmerton%null%1,         M.% Martin%null%1,         M. G.% Baker%null%1,         S.% Taylor%null%1,         A.% Trenholme%null%1,         C.% Wong%null%1,         S.% Lawrence%null%1,         C.% McArthur%null%1,         A.% Stanley%null%1,         S.% Roberts%null%1,         F.% Ranama%null%1,         J.% Bennett%null%1,         C.% Mansell%null%1,         M.% Dilcher%null%1,         A.% Werno%null%1,         J.% Grant%null%1,        couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                           Ya%Li%NULL%1,                           Mingli%Han%NULL%1,                           Zhenhua%Wang%NULL%1,                           Yuhang%Zhang%NULL%1,                           Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                           Yiran%Hu%NULL%1,                           Li%Dong%NULL%1,                           Qi%Shu%NULL%1,                           Mingyang%Zhu%NULL%1,                           Yuping%Li%NULL%1,                           Chengshui%Chen%NULL%1,                           Hongchang%Gao%gaohc27@wmu.edu.cn%1,                           Li%Yang%taiyang2630@163.com%0,                           Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                           Yingying%Hu%NULL%2,                           Yingying%Hu%NULL%0,                           Yuanyuan%Yu%NULL%1,                           Xiaodong%Zhang%NULL%1,                           Bin%Li%NULL%1,                           Jianguo%Wu%NULL%1,                           Junyu%Li%NULL%1,                           Yingping%Wu%NULL%1,                           Xiaoping%Xia%NULL%2,                           Xiaoping%Xia%NULL%0,                           Huina%Tang%NULL%1,                           Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                           Shui-Bao%Xu%NULL%0,                           Yi-Xiao%Lin%NULL%0,                           Di%Tian%NULL%0,                           Zhao-Qin%Zhu%NULL%0,                           Fa-Hui%Dai%NULL%0,                           Fan%Wu%NULL%0,                           Zhi-Gang%Song%NULL%0,                           Wei%Huang%NULL%0,                           Jun%Chen%NULL%0,                           Bi-Jie%Hu%NULL%0,                           Sheng%Wang%NULL%0,                           En-Qiang%Mao%NULL%0,                           Lei%Zhu%NULL%0,                           Wen-Hong%Zhang%NULL%0,                           Hong-Zhou%Lu%NULL%0,                           Peng%Lyu%NULL%0,                           Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                           Yi Xin%Tong%NULL%0,                           Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                           Wee Chian%Koh%NULL%2,                           Wee Chian%Koh%NULL%0,                           Riamiza Natalie%Momin%NULL%2,                           Riamiza Natalie%Momin%NULL%0,                           Mohammad Fathi%Alikhan%NULL%1,                           Noraskhin%Fadillah%NULL%1,                           Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                           Xinyi%Liu%NULL%1,                           Jianjun%Liu%NULL%1,                           Han%Liao%NULL%1,                           Sixuan%Long%NULL%1,                           Ning%Zhou%NULL%0,                           Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                           Zhenyu%Pan%NULL%0,                           Yunbao%Pan%NULL%0,                           Qiaoling%Deng%NULL%0,                           Liangjun%Chen%NULL%0,                           Jin%Li%NULL%0,                           Yirong%Li%NULL%0,                           Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                           Zongqiu%Chen%NULL%1,                           Chenghua%Gong%NULL%1,                           Hui%Liu%NULL%1,                           Baisheng%Li%NULL%1,                           Kuibiao%Li%NULL%1,                           Xi%Chen%NULL%4,                           Conghui%Xu%NULL%1,                           Qinlong%Jing%NULL%1,                           Guocong%Liu%NULL%1,                           Pengzhe%Qin%NULL%1,                           Yufei%Liu%NULL%1,                           Yi%Zhong%NULL%1,                           Lijuan%Huang%NULL%1,                           Bao-Ping%Zhu%NULL%1,                           Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                           Xiao-Bo%Wang%NULL%1,                           Xiang-Hong%Jin%NULL%1,                           Wen-Yue%Liu%NULL%1,                           Feng%Gao%NULL%1,                           Yong-Ping%Chen%NULL%1,                           Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1801,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1755,7 +1833,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1787,7 +1865,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1819,7 +1897,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1851,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1883,7 +1961,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1915,7 +1993,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1947,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1979,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -2011,7 +2089,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2043,7 +2121,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2075,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2107,7 +2185,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2139,7 +2217,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
